--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z204"/>
+  <dimension ref="A1:Z207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -653,14 +653,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 46376-2023</t>
+          <t>A 43407-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45197.46416666666</v>
+        <v>44834</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -672,17 +672,22 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -697,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -707,573 +712,568 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Orre</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 43407-2022 artfynd.xlsx", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 43407-2022 karta.png", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 43407-2022 FSC-klagomål.docx", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 43407-2022 FSC-klagomål mail.docx", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 43407-2022 tillsynsbegäran.docx", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 43407-2022 tillsynsbegäran mail.docx", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/fåglar/A 43407-2022 prioriterade fågelarter.docx", "A 43407-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 33518-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45841.53921296296</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Skogsklocka</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 33518-2025 artfynd.xlsx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 33518-2025 karta.png", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 33518-2025 FSC-klagomål.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 33518-2025 FSC-klagomål mail.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 33518-2025 tillsynsbegäran.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 33518-2025 tillsynsbegäran mail.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 2540-2026</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46037.45690972222</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Utter</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 2540-2026 artfynd.xlsx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 2540-2026 karta.png", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 2540-2026 FSC-klagomål.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 2540-2026 FSC-klagomål mail.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 2540-2026 tillsynsbegäran.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 2540-2026 tillsynsbegäran mail.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 16786-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 46376-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45197.46416666666</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 46376-2023 artfynd.xlsx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 46376-2023 karta.png", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 46376-2023 FSC-klagomål.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 46376-2023 FSC-klagomål mail.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 46376-2023 tillsynsbegäran.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 46376-2023 tillsynsbegäran mail.docx", "A 46376-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 43407-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44834</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="H4" t="n">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 8048-2021</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44243</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Orre</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 43407-2022 artfynd.xlsx", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 43407-2022 karta.png", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 43407-2022 FSC-klagomål.docx", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 43407-2022 FSC-klagomål mail.docx", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 43407-2022 tillsynsbegäran.docx", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 43407-2022 tillsynsbegäran mail.docx", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/fåglar/A 43407-2022 prioriterade fågelarter.docx", "A 43407-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 16786-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45754</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 2540-2026</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46037.45690972222</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Utter</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 2540-2026 artfynd.xlsx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 2540-2026 karta.png", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 2540-2026 FSC-klagomål.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 2540-2026 FSC-klagomål mail.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 2540-2026 tillsynsbegäran.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 2540-2026 tillsynsbegäran mail.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 8048-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44243</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Korallblylav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 8048-2021 artfynd.xlsx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 8048-2021 karta.png", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 8048-2021 FSC-klagomål.docx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 8048-2021 FSC-klagomål mail.docx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 8048-2021 tillsynsbegäran.docx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 8048-2021 tillsynsbegäran mail.docx", "A 8048-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 23023-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45790</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>2.3</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 23023-2025 artfynd.xlsx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 23023-2025 karta.png", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 23023-2025 FSC-klagomål.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 23023-2025 FSC-klagomål mail.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 23023-2025 tillsynsbegäran.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 23023-2025 tillsynsbegäran mail.docx", "A 23023-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 33518-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45841.53921296296</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 33518-2025 artfynd.xlsx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 33518-2025 karta.png", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 33518-2025 FSC-klagomål.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 33518-2025 FSC-klagomål mail.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 33518-2025 tillsynsbegäran.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 33518-2025 tillsynsbegäran mail.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44797</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44490.4119212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44335.38469907407</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44512</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>44797.39523148148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44868</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44788</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44311</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1924,14 +1924,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 44802-2022</t>
+          <t>A 53398-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44841.37923611111</v>
+        <v>44468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,8 +1943,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1981,14 +1986,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 53398-2021</t>
+          <t>A 44802-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44468</v>
+        <v>44841.37923611111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,13 +2005,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>44383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44512</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44484.52479166666</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44841.35112268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44335.38092592593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44299</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 33143-2025</t>
+          <t>A 41867-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45840.52465277778</v>
+        <v>44426.31266203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2414,13 +2414,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2457,14 +2452,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 41867-2021</t>
+          <t>A 22935-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44426.31266203704</v>
+        <v>45072.60810185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2477,7 +2472,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2514,14 +2509,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33273-2025</t>
+          <t>A 70761-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45840.68797453704</v>
+        <v>44536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2533,13 +2528,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2576,14 +2566,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 49101-2024</t>
+          <t>A 5881-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45594.64802083333</v>
+        <v>45695</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2595,13 +2585,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>14.1</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2638,14 +2623,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12839-2025</t>
+          <t>A 3455-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45733.64366898148</v>
+        <v>45680.47734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2657,13 +2642,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>18.2</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2700,14 +2680,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 37145-2025</t>
+          <t>A 47728-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45875.56288194445</v>
+        <v>45203.68487268518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2720,7 +2700,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2757,14 +2737,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 4744-2025</t>
+          <t>A 12023-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45688</v>
+        <v>44266.45105324074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2777,7 +2757,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2814,14 +2794,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30266-2025</t>
+          <t>A 1431-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45827</v>
+        <v>45669</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2834,7 +2814,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.3</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2871,14 +2851,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 4998-2024</t>
+          <t>A 2352-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45329</v>
+        <v>44938</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2891,7 +2871,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2928,14 +2908,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14356-2021</t>
+          <t>A 62085-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44279.35021990741</v>
+        <v>45656</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,8 +2927,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2985,14 +2970,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16714-2025</t>
+          <t>A 4744-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45754</v>
+        <v>45688</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,13 +2989,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3047,14 +3027,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33120-2025</t>
+          <t>A 12839-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45840.49384259259</v>
+        <v>45733.64366898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3072,7 +3052,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>18.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3109,14 +3089,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 3452-2025</t>
+          <t>A 20085-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45680.4753125</v>
+        <v>45772</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3128,8 +3108,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3166,14 +3151,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16359-2023</t>
+          <t>A 7948-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45028.72045138889</v>
+        <v>45350</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3185,8 +3170,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3223,14 +3213,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 47728-2023</t>
+          <t>A 24773-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45203.68487268518</v>
+        <v>45799.40483796296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3242,8 +3232,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3280,14 +3275,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 37716-2025</t>
+          <t>A 38176-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45881</v>
+        <v>45545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3300,7 +3295,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3337,14 +3332,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 1431-2025</t>
+          <t>A 24755-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45669</v>
+        <v>45799.37452546296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3356,8 +3351,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3394,14 +3394,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 54221-2024</t>
+          <t>A 24826-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45616</v>
+        <v>45799.45670138889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3413,8 +3413,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3451,14 +3456,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 39625-2025</t>
+          <t>A 24820-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45890.57746527778</v>
+        <v>45799.45188657408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3470,8 +3475,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3508,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 39623-2025</t>
+          <t>A 24836-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45890.57476851852</v>
+        <v>45799.46241898148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3527,8 +3537,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3565,14 +3580,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49306-2024</t>
+          <t>A 25001-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45595</v>
+        <v>45799.61962962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3590,7 +3605,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>21.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3627,14 +3642,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38301-2025</t>
+          <t>A 25727-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45883.46224537037</v>
+        <v>45803.71775462963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,8 +3661,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3684,14 +3704,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30587-2023</t>
+          <t>A 33120-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45112.33359953704</v>
+        <v>45840.49384259259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3703,8 +3723,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3741,14 +3766,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25498-2023</t>
+          <t>A 25723-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45089.48630787037</v>
+        <v>45803.7121412037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3791,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3828,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 57765-2025</t>
+          <t>A 25720-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45981.55736111111</v>
+        <v>45803.70553240741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3828,7 +3853,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>19.8</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3865,14 +3890,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58451-2025</t>
+          <t>A 4494-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45985.62826388889</v>
+        <v>45686</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3884,13 +3909,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>14.1</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3927,14 +3947,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 42015-2025</t>
+          <t>A 54190-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45903.57980324074</v>
+        <v>45232</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3947,7 +3967,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>8.5</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3984,14 +4004,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 26230-2024</t>
+          <t>A 54221-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45468</v>
+        <v>45616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4003,13 +4023,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4046,14 +4061,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59146-2025</t>
+          <t>A 39625-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45988.52269675926</v>
+        <v>45890.57746527778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4065,13 +4080,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>9.9</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4108,14 +4118,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48591-2024</t>
+          <t>A 39623-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45593.43625</v>
+        <v>45890.57476851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4128,7 +4138,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4165,14 +4175,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 33806-2024</t>
+          <t>A 27388-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45520.60313657407</v>
+        <v>45812.67489583333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4184,8 +4194,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4222,14 +4237,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 44248-2025</t>
+          <t>A 19324-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45915.69100694444</v>
+        <v>44692.5990625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4241,13 +4256,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4284,14 +4294,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59466-2025</t>
+          <t>A 28017-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45989.58049768519</v>
+        <v>45817.61508101852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4309,7 +4319,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4346,14 +4356,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44178-2025</t>
+          <t>A 27092-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45915.60693287037</v>
+        <v>45811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,13 +4375,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>10.6</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4408,14 +4413,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38176-2024</t>
+          <t>A 41479-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45545</v>
+        <v>45560</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4427,8 +4432,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4465,14 +4475,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 60315-2025</t>
+          <t>A 29002-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45994.70884259259</v>
+        <v>45104.64762731481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4495,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4522,14 +4532,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 48309-2021</t>
+          <t>A 28255-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44450</v>
+        <v>45818.54848379629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4552,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4579,14 +4589,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 45479-2025</t>
+          <t>A 15152-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45922.53091435185</v>
+        <v>44658.46916666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4598,13 +4608,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4641,14 +4646,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 1840-2023</t>
+          <t>A 47732-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44938.67890046296</v>
+        <v>45588.50700231481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4660,13 +4665,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4703,14 +4703,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60511-2025</t>
+          <t>A 42015-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45995.63336805555</v>
+        <v>45903.57980324074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4760,14 +4760,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46612-2025</t>
+          <t>A 6856-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45926</v>
+        <v>45700</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,11 +4781,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>11.1</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4822,14 +4822,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 23279-2024</t>
+          <t>A 44248-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45453</v>
+        <v>45915.69100694444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4841,8 +4841,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4879,14 +4884,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 12252-2025</t>
+          <t>A 44178-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45729</v>
+        <v>45915.60693287037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4904,7 +4909,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>14.5</v>
+        <v>10.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4941,14 +4946,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61123-2025</t>
+          <t>A 12482-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46000.46875</v>
+        <v>45730</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,11 +4967,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5003,14 +5008,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 46860-2025</t>
+          <t>A 36697-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45929</v>
+        <v>45153.63313657408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5022,8 +5027,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5060,14 +5070,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 61129-2025</t>
+          <t>A 45479-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46000.48585648148</v>
+        <v>45922.53091435185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5081,11 +5091,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5122,14 +5132,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61149-2025</t>
+          <t>A 15442-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46000.53810185185</v>
+        <v>45401.42217592592</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5141,13 +5151,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5184,14 +5189,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45260-2024</t>
+          <t>A 52834-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45576</v>
+        <v>45226.41116898148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5205,11 +5210,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>16.3</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5246,14 +5251,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2037-2023</t>
+          <t>A 20725-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44939.58351851852</v>
+        <v>45058.47887731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,11 +5272,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>14.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5308,14 +5313,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61328-2025</t>
+          <t>A 46860-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46001.32983796296</v>
+        <v>45929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5327,13 +5332,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>8.9</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5370,14 +5370,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57792-2022</t>
+          <t>A 46612-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44897.66182870371</v>
+        <v>45926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5389,8 +5389,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>11.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5427,14 +5432,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 70761-2021</t>
+          <t>A 13795-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44536</v>
+        <v>45007</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5446,8 +5451,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5484,14 +5494,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 4868-2026</t>
+          <t>A 26201-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46048.6441550926</v>
+        <v>45468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5503,8 +5513,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>10.8</v>
+        <v>25.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5541,14 +5556,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4455-2026</t>
+          <t>A 57209-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46045.64204861111</v>
+        <v>44895.64663194444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5560,8 +5575,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5598,14 +5618,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 49580-2025</t>
+          <t>A 7072-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45939.49743055556</v>
+        <v>44969.95028935185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5623,7 +5643,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5660,14 +5680,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54190-2023</t>
+          <t>A 49580-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45232</v>
+        <v>45939.49743055556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5679,8 +5699,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5717,14 +5742,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62987-2025</t>
+          <t>A 11290-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46009.4962037037</v>
+        <v>45726.4278587963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5736,13 +5761,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5779,14 +5799,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61586-2025</t>
+          <t>A 26189-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46002</v>
+        <v>45468</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5824,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5841,14 +5861,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 63080-2025</t>
+          <t>A 13636-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46009.66688657407</v>
+        <v>45390</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,13 +5880,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5903,14 +5918,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47713-2024</t>
+          <t>A 25760-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45588</v>
+        <v>45804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5938,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>9.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5960,14 +5975,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47732-2024</t>
+          <t>A 39998-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45588.50700231481</v>
+        <v>45168</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5995,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6017,14 +6032,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 53205-2025</t>
+          <t>A 35430-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45958.5859375</v>
+        <v>45855.4414699074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6036,13 +6051,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>9.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6079,14 +6089,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 52908-2025</t>
+          <t>A 35350-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45957</v>
+        <v>45854.63583333333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6098,8 +6108,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6136,14 +6151,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52905-2025</t>
+          <t>A 35427-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45957</v>
+        <v>45855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6156,7 +6171,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6193,14 +6208,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 63469-2025</t>
+          <t>A 35431-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46013.43326388889</v>
+        <v>45855.44628472222</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6228,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6250,14 +6265,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 53217-2025</t>
+          <t>A 45260-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45958.59952546296</v>
+        <v>45576</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,11 +6286,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>10.1</v>
+        <v>16.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6312,14 +6327,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 53388-2024</t>
+          <t>A 8613-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45614</v>
+        <v>45355</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,8 +6346,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6369,14 +6389,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 63572-2025</t>
+          <t>A 54738-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46013.66006944444</v>
+        <v>45236</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6390,11 +6410,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6431,14 +6451,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 63472-2025</t>
+          <t>A 57981-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46013.44269675926</v>
+        <v>44900.47692129629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6450,8 +6470,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6488,14 +6513,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 39998-2023</t>
+          <t>A 52908-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45168</v>
+        <v>45957</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6508,7 +6533,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6545,14 +6570,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 53317-2025</t>
+          <t>A 52905-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45959.35413194444</v>
+        <v>45957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6564,13 +6589,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>6.8</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6607,14 +6627,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 11981-2021</t>
+          <t>A 49101-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44266</v>
+        <v>45594.64802083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6626,8 +6646,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>4.2</v>
+        <v>14.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6664,14 +6689,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7028-2026</t>
+          <t>A 33273-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46057.67555555556</v>
+        <v>45840.68797453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6683,8 +6708,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6721,14 +6751,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13047-2021</t>
+          <t>A 33143-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44272.29149305556</v>
+        <v>45840.52465277778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6740,8 +6770,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6778,14 +6813,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 12023-2021</t>
+          <t>A 58125-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44266.45105324074</v>
+        <v>44900.67206018518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6798,7 +6833,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6835,14 +6870,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52922-2025</t>
+          <t>A 3721-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45957</v>
+        <v>45681</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6855,7 +6890,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6892,14 +6927,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53990-2025</t>
+          <t>A 53217-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45961.57934027778</v>
+        <v>45958.59952546296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6913,11 +6948,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.8</v>
+        <v>10.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6954,14 +6989,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8639-2025</t>
+          <t>A 53205-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45711.87692129629</v>
+        <v>45958.5859375</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6973,8 +7008,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>4.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7011,14 +7051,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 7948-2024</t>
+          <t>A 25498-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45350</v>
+        <v>45089.48630787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7032,11 +7072,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7073,14 +7113,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36697-2023</t>
+          <t>A 37145-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45153.63313657408</v>
+        <v>45875.56288194445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7092,13 +7132,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7135,14 +7170,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 55234-2025</t>
+          <t>A 53317-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45968.61171296296</v>
+        <v>45959.35413194444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7195,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7197,14 +7232,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28466-2022</t>
+          <t>A 30266-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44747.74182870371</v>
+        <v>45827</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7252,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7254,14 +7289,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 20725-2023</t>
+          <t>A 4998-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45058.47887731482</v>
+        <v>45329</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7273,13 +7308,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>14.9</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7316,14 +7346,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 29002-2023</t>
+          <t>A 53990-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45104.64762731481</v>
+        <v>45961.57934027778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7335,8 +7365,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7373,14 +7408,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 55576-2025</t>
+          <t>A 37716-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45971.66637731482</v>
+        <v>45881</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7392,13 +7427,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>8.4</v>
+        <v>4.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7435,14 +7465,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 55787-2025</t>
+          <t>A 52922-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45972.64469907407</v>
+        <v>45957</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7454,13 +7484,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>12.9</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7497,14 +7522,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 55818-2025</t>
+          <t>A 55234-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45972</v>
+        <v>45968.61171296296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,8 +7541,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7554,14 +7584,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56206-2025</t>
+          <t>A 55576-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45974.47096064815</v>
+        <v>45971.66637731482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7579,7 +7609,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7616,14 +7646,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 58586-2024</t>
+          <t>A 55787-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45635.50215277778</v>
+        <v>45972.64469907407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7641,7 +7671,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>12.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7678,14 +7708,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 56303-2025</t>
+          <t>A 38301-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45974.60728009259</v>
+        <v>45883.46224537037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7697,13 +7727,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>10.8</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7740,14 +7765,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 2525-2025</t>
+          <t>A 55818-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45674.60668981481</v>
+        <v>45972</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7785,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7797,14 +7822,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 487-2023</t>
+          <t>A 28466-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44930.29883101852</v>
+        <v>44747.74182870371</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7842,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7854,14 +7879,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 56525-2025</t>
+          <t>A 3452-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45975.46569444444</v>
+        <v>45680.4753125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7873,13 +7898,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7916,14 +7936,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47894-2023</t>
+          <t>A 14356-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45204</v>
+        <v>44279.35021990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7935,13 +7955,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7978,14 +7993,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 21929-2023</t>
+          <t>A 56525-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45068</v>
+        <v>45975.46569444444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,8 +8012,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8035,14 +8055,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 15442-2024</t>
+          <t>A 56206-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45401.42217592592</v>
+        <v>45974.47096064815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,8 +8074,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8092,14 +8117,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 62085-2024</t>
+          <t>A 33806-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45656</v>
+        <v>45520.60313657407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8109,11 +8134,6 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -8154,14 +8174,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45271-2024</t>
+          <t>A 56303-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45576</v>
+        <v>45974.60728009259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8175,11 +8195,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8216,14 +8236,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 12824-2025</t>
+          <t>A 47713-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45733</v>
+        <v>45588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8236,7 +8256,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8273,14 +8293,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6856-2025</t>
+          <t>A 47624-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45700</v>
+        <v>45203.51826388889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8298,7 +8318,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8335,14 +8355,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 3721-2025</t>
+          <t>A 57765-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45681</v>
+        <v>45981.55736111111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8354,8 +8374,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.4</v>
+        <v>19.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8392,14 +8417,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 22935-2023</t>
+          <t>A 15997-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45072.60810185185</v>
+        <v>45749</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8411,8 +8436,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8449,14 +8479,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 53353-2024</t>
+          <t>A 58451-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45614.45392361111</v>
+        <v>45985.62826388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8468,8 +8498,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>14.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8506,14 +8541,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49311-2024</t>
+          <t>A 12132-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45595</v>
+        <v>45729</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8531,7 +8566,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7.8</v>
+        <v>24.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8568,14 +8603,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 45154-2023</t>
+          <t>A 2037-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45191</v>
+        <v>44939.58351851852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8587,8 +8622,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8625,14 +8665,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 227-2025</t>
+          <t>A 21929-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45660</v>
+        <v>45068</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8645,7 +8685,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8682,14 +8722,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 23808-2021</t>
+          <t>A 59449-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44335.37674768519</v>
+        <v>44907.40783564815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8702,7 +8742,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8739,14 +8779,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 12482-2025</t>
+          <t>A 45154-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45730</v>
+        <v>45191</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8758,13 +8798,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8801,14 +8836,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 12132-2025</t>
+          <t>A 59466-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45729</v>
+        <v>45989.58049768519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8826,7 +8861,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>24.9</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8863,14 +8898,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47624-2023</t>
+          <t>A 17756-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45203.51826388889</v>
+        <v>45037.4796412037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8882,13 +8917,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>8.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8925,14 +8955,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 8269-2025</t>
+          <t>A 59146-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45708</v>
+        <v>45988.52269675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,8 +8974,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>9.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8982,14 +9017,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 41479-2024</t>
+          <t>A 16359-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45560</v>
+        <v>45028.72045138889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,13 +9036,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9044,14 +9074,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3455-2025</t>
+          <t>A 60315-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45680.47734953704</v>
+        <v>45994.70884259259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9064,7 +9094,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9101,14 +9131,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 4494-2025</t>
+          <t>A 53202-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45686</v>
+        <v>45229</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9121,7 +9151,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9158,14 +9188,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54738-2023</t>
+          <t>A 60511-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45236</v>
+        <v>45995.63336805555</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9177,13 +9207,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9220,14 +9245,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 41325-2023</t>
+          <t>A 49306-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45174.65024305556</v>
+        <v>45595</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9270,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9282,14 +9307,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 5881-2025</t>
+          <t>A 21942-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45695</v>
+        <v>45443</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9327,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9339,14 +9364,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 16645-2025</t>
+          <t>A 12252-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45754</v>
+        <v>45729</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9389,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.8</v>
+        <v>14.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9401,14 +9426,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 53202-2023</t>
+          <t>A 58586-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45229</v>
+        <v>45635.50215277778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9420,8 +9445,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>7.6</v>
+        <v>2.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9458,14 +9488,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 26201-2024</t>
+          <t>A 61328-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45468</v>
+        <v>46001.32983796296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9513,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>25.4</v>
+        <v>8.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9520,14 +9550,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 11290-2025</t>
+          <t>A 61129-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45726.4278587963</v>
+        <v>46000.48585648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,8 +9569,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9577,14 +9612,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 52834-2023</t>
+          <t>A 61149-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45226.41116898148</v>
+        <v>46000.53810185185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9598,11 +9633,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9639,14 +9674,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 11452-2024</t>
+          <t>A 61123-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45372</v>
+        <v>46000.46875</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9660,11 +9695,11 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9701,14 +9736,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 15997-2025</t>
+          <t>A 4455-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45749</v>
+        <v>46045.64204861111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9720,13 +9755,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9763,14 +9793,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 17756-2023</t>
+          <t>A 12819-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45037.4796412037</v>
+        <v>45733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9783,7 +9813,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>8.1</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9820,14 +9850,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 28467-2022</t>
+          <t>A 4868-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44747.74592592593</v>
+        <v>46048.6441550926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9840,7 +9870,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>10.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9877,14 +9907,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 7072-2023</t>
+          <t>A 63080-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44969.95028935185</v>
+        <v>46009.66688657407</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9898,11 +9928,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9939,14 +9969,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 57981-2022</t>
+          <t>A 62987-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44900.47692129629</v>
+        <v>46009.4962037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9964,7 +9994,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10001,14 +10031,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 12819-2025</t>
+          <t>A 45271-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45733</v>
+        <v>45576</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10020,8 +10050,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10058,14 +10093,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 24846-2022</t>
+          <t>A 2342-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44728</v>
+        <v>44938</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10078,7 +10113,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10115,14 +10150,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2342-2023</t>
+          <t>A 2363-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>44938</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,14 +10207,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 2363-2023</t>
+          <t>A 487-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44938</v>
+        <v>44930.29883101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10192,7 +10227,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10229,14 +10264,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 57209-2022</t>
+          <t>A 61586-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44895.64663194444</v>
+        <v>46002</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10250,11 +10285,11 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10291,14 +10326,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 13795-2023</t>
+          <t>A 63472-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45007</v>
+        <v>46013.44269675926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10310,13 +10345,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10353,14 +10383,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 19324-2022</t>
+          <t>A 63469-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44692.5990625</v>
+        <v>46013.43326388889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10373,7 +10403,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>6.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10410,14 +10440,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 58125-2022</t>
+          <t>A 63572-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44900.67206018518</v>
+        <v>46013.66006944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10429,8 +10459,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10467,14 +10502,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 59449-2022</t>
+          <t>A 7028-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44907.40783564815</v>
+        <v>46057.67555555556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10487,7 +10522,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10524,14 +10559,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 13636-2024</t>
+          <t>A 7444-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45390</v>
+        <v>46059.45729166667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10544,7 +10579,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10581,14 +10616,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 20085-2025</t>
+          <t>A 7447-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45772</v>
+        <v>46059.46265046296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10600,13 +10635,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10643,14 +10673,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 15152-2022</t>
+          <t>A 12824-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44658.46916666667</v>
+        <v>45733</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10663,7 +10693,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10700,14 +10730,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 2352-2023</t>
+          <t>A 7427-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44938</v>
+        <v>46059.43177083333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10720,7 +10750,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10757,14 +10787,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 41214-2023</t>
+          <t>A 1840-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45174</v>
+        <v>44938.67890046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,11 +10808,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>51.6</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10819,14 +10849,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 39025-2023</t>
+          <t>A 227-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45163</v>
+        <v>45660</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10838,13 +10868,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10881,14 +10906,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 22063-2021</t>
+          <t>A 48591-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44323</v>
+        <v>45593.43625</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10926,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10938,14 +10963,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 21942-2024</t>
+          <t>A 2525-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45443</v>
+        <v>45674.60668981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10983,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10995,14 +11020,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 62001-2024</t>
+          <t>A 30587-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45654</v>
+        <v>45112.33359953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11014,13 +11039,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11057,14 +11077,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 62069-2024</t>
+          <t>A 53388-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45656</v>
+        <v>45614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11076,13 +11096,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11119,14 +11134,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 13288-2024</t>
+          <t>A 48309-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45386</v>
+        <v>44450</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11138,13 +11153,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11181,14 +11191,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53912-2024</t>
+          <t>A 11452-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45615.72717592592</v>
+        <v>45372</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11200,8 +11210,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11238,14 +11253,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35370-2023</t>
+          <t>A 49311-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45146</v>
+        <v>45595</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11259,11 +11274,11 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11300,14 +11315,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 14304-2024</t>
+          <t>A 24846-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45393.66023148148</v>
+        <v>44728</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11320,7 +11335,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11357,14 +11372,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 22341-2025</t>
+          <t>A 8269-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45786</v>
+        <v>45708</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11376,13 +11391,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>34</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11419,14 +11429,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49596-2024</t>
+          <t>A 13047-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45596.55828703703</v>
+        <v>44272.29149305556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11438,13 +11448,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11481,14 +11486,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 21111-2025</t>
+          <t>A 62001-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45777</v>
+        <v>45654</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11500,8 +11505,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11538,14 +11548,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 14605-2024</t>
+          <t>A 16714-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45396</v>
+        <v>45754</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11563,7 +11573,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>9.6</v>
+        <v>5.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11600,14 +11610,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 213-2025</t>
+          <t>A 41214-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45660</v>
+        <v>45174</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11619,8 +11629,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>3.5</v>
+        <v>51.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11657,14 +11672,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 24755-2025</t>
+          <t>A 26230-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45799.37452546296</v>
+        <v>45468</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11682,7 +11697,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11719,14 +11734,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 25001-2025</t>
+          <t>A 62069-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45799.61962962963</v>
+        <v>45656</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11744,7 +11759,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>21.6</v>
+        <v>2.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11781,14 +11796,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 24773-2025</t>
+          <t>A 8639-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45799.40483796296</v>
+        <v>45711.87692129629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11800,13 +11815,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11843,14 +11853,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 24820-2025</t>
+          <t>A 41325-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45799.45188657408</v>
+        <v>45174.65024305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11868,7 +11878,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11905,14 +11915,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 24836-2025</t>
+          <t>A 22063-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45799.46241898148</v>
+        <v>44323</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11924,13 +11934,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11967,14 +11972,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 24826-2025</t>
+          <t>A 47894-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45799.45670138889</v>
+        <v>45204</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11992,7 +11997,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12029,14 +12034,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 25720-2025</t>
+          <t>A 11981-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45803.70553240741</v>
+        <v>44266</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12048,13 +12053,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12091,14 +12091,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 25723-2025</t>
+          <t>A 57792-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45803.7121412037</v>
+        <v>44897.66182870371</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12110,13 +12110,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12153,14 +12148,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 25727-2025</t>
+          <t>A 39025-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45803.71775462963</v>
+        <v>45163</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12174,11 +12169,11 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12215,14 +12210,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 27388-2025</t>
+          <t>A 13288-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45812.67489583333</v>
+        <v>45386</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12236,11 +12231,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>8.4</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12277,14 +12272,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 28017-2025</t>
+          <t>A 28467-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45817.61508101852</v>
+        <v>44747.74592592593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12296,13 +12291,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>7.3</v>
+        <v>2.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12339,14 +12329,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 28255-2025</t>
+          <t>A 23808-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45818.54848379629</v>
+        <v>44335.37674768519</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12359,7 +12349,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12396,14 +12386,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 27092-2025</t>
+          <t>A 53353-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45811</v>
+        <v>45614.45392361111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12416,7 +12406,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12453,14 +12443,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 26189-2024</t>
+          <t>A 16645-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45468</v>
+        <v>45754</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12478,7 +12468,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12515,14 +12505,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 25760-2025</t>
+          <t>A 23279-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45804</v>
+        <v>45453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12535,7 +12525,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>9.4</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12572,14 +12562,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 35350-2025</t>
+          <t>A 35370-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45854.63583333333</v>
+        <v>45146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12593,11 +12583,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12634,14 +12624,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 35430-2025</t>
+          <t>A 14304-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45855.4414699074</v>
+        <v>45393.66023148148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12654,7 +12644,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12691,14 +12681,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 8613-2024</t>
+          <t>A 53912-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45355</v>
+        <v>45615.72717592592</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12710,13 +12700,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12753,14 +12738,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 35431-2025</t>
+          <t>A 22341-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45855.44628472222</v>
+        <v>45786</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12772,8 +12757,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>2.2</v>
+        <v>34</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12807,17 +12797,17 @@
       </c>
       <c r="R203" s="2" t="inlineStr"/>
     </row>
-    <row r="204">
+    <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 35427-2025</t>
+          <t>A 49596-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45855</v>
+        <v>45596.55828703703</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,8 +12819,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12863,6 +12858,182 @@
         <v>0</v>
       </c>
       <c r="R204" s="2" t="inlineStr"/>
+    </row>
+    <row r="205" ht="15" customHeight="1">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>A 21111-2025</t>
+        </is>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>45777</v>
+      </c>
+      <c r="C205" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" s="2" t="inlineStr"/>
+    </row>
+    <row r="206" ht="15" customHeight="1">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>A 14605-2024</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" s="2" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>A 213-2025</t>
+        </is>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C207" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44834</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45841.53921296296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>46037.45690972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45754</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45197.46416666666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44243</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45790</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44797</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44490.4119212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44335.38469907407</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44512</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>44797.39523148148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44868</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44788</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44311</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44841.37923611111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44512</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44484.52479166666</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44841.35112268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44335.38092592593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44299</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44426.31266203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>45072.60810185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>45695</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45680.47734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45203.68487268518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44266.45105324074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>45669</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44938</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45656</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45688</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45733.64366898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45772</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>45350</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45799.40483796296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45799.37452546296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45799.45670138889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>45799.45188657408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45799.46241898148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>45799.61962962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>45803.71775462963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>45840.49384259259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45803.7121412037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>45803.70553240741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>45686</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45232</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>45616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>45890.57746527778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>45890.57476851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45812.67489583333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>44692.5990625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>45817.61508101852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>45811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45560</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>45104.64762731481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>45818.54848379629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>44658.46916666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>45588.50700231481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45903.57980324074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>45700</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>45915.69100694444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>45915.60693287037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45730</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>45153.63313657408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>45922.53091435185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45401.42217592592</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45226.41116898148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>45058.47887731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>45926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>45007</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>44895.64663194444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44969.95028935185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>45939.49743055556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>45726.4278587963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>45468</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>45390</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>45804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>45168</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>45855.4414699074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>45854.63583333333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>45855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>45855.44628472222</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45576</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>45355</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45236</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44900.47692129629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45957</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45594.64802083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45840.68797453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45840.52465277778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>44900.67206018518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45681</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45958.59952546296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45958.5859375</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>45089.48630787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>45875.56288194445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>45959.35413194444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>45827</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>45329</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45961.57934027778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45881</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45957</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>45968.61171296296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45971.66637731482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45972.64469907407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>45883.46224537037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>45972</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44747.74182870371</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>45680.4753125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44279.35021990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>45975.46569444444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>45974.47096064815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>45520.60313657407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45974.60728009259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>45203.51826388889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45981.55736111111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>45749</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45985.62826388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>45729</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44939.58351851852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45068</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44907.40783564815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45191</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45989.58049768519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45037.4796412037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45988.52269675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45028.72045138889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45994.70884259259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45229</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>45995.63336805555</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>45595</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45443</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45729</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45635.50215277778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>46001.32983796296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>46000.48585648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>46000.53810185185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>46000.46875</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>46045.64204861111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>45733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>46048.6441550926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>46009.66688657407</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>46009.4962037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>45576</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44938</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44938</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44930.29883101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>46002</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>46013.44269675926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>46013.43326388889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>46013.66006944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>46057.67555555556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>46059.45729166667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>46059.46265046296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>45733</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>46059.43177083333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44938.67890046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>45660</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>45593.43625</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>45674.60668981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>45112.33359953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>45614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44450</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>45372</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>45595</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>44728</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45708</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44272.29149305556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45654</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>45754</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>45174</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>45468</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45656</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>45711.87692129629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45174.65024305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44323</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45204</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>44266</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>44897.66182870371</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>45163</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45386</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44747.74592592593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44335.37674768519</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45614.45392361111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45754</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>45393.66023148148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>45615.72717592592</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>45786</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>45596.55828703703</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>45777</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>45396</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>45660</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44834</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45841.53921296296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>46037.45690972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45754</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45197.46416666666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44243</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45790</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44797</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44490.4119212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44335.38469907407</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44512</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>44797.39523148148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44868</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44788</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44311</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44841.37923611111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44512</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44484.52479166666</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44841.35112268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44335.38092592593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44299</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44426.31266203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>45072.60810185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>45695</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45680.47734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45203.68487268518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44266.45105324074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>45669</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44938</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45656</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45688</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45733.64366898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45772</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>45350</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45799.40483796296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45799.37452546296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45799.45670138889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>45799.45188657408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45799.46241898148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>45799.61962962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>45803.71775462963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>45840.49384259259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45803.7121412037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>45803.70553240741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>45686</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45232</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>45616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>45890.57746527778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>45890.57476851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45812.67489583333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>44692.5990625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>45817.61508101852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>45811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45560</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>45104.64762731481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>45818.54848379629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>44658.46916666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>45588.50700231481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45903.57980324074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>45700</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>45915.69100694444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>45915.60693287037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45730</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>45153.63313657408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>45922.53091435185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45401.42217592592</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45226.41116898148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>45058.47887731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>45926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>45007</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>44895.64663194444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44969.95028935185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>45939.49743055556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>45726.4278587963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>45468</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>45390</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>45804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>45168</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>45855.4414699074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>45854.63583333333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>45855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>45855.44628472222</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45576</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>45355</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45236</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44900.47692129629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45957</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45594.64802083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45840.68797453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45840.52465277778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>44900.67206018518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45681</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45958.59952546296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45958.5859375</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>45089.48630787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>45875.56288194445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>45959.35413194444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>45827</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>45329</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45961.57934027778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45881</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45957</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>45968.61171296296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45971.66637731482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45972.64469907407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>45883.46224537037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>45972</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44747.74182870371</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>45680.4753125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44279.35021990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>45975.46569444444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>45974.47096064815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>45520.60313657407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45974.60728009259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>45203.51826388889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45981.55736111111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>45749</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45985.62826388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>45729</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44939.58351851852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45068</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44907.40783564815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45191</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45989.58049768519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45037.4796412037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45988.52269675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45028.72045138889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45994.70884259259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45229</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>45995.63336805555</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>45595</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45443</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45729</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45635.50215277778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>46001.32983796296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>46000.48585648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>46000.53810185185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>46000.46875</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>46045.64204861111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>45733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>46048.6441550926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>46009.66688657407</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>46009.4962037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>45576</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44938</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44938</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44930.29883101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>46002</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>46013.44269675926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>46013.43326388889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>46013.66006944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>46057.67555555556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>46059.45729166667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>46059.46265046296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>45733</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>46059.43177083333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44938.67890046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>45660</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>45593.43625</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>45674.60668981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>45112.33359953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>45614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44450</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>45372</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>45595</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>44728</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45708</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44272.29149305556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45654</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>45754</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>45174</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>45468</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45656</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>45711.87692129629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45174.65024305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44323</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45204</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>44266</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>44897.66182870371</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>45163</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45386</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44747.74592592593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44335.37674768519</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45614.45392361111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45754</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>45393.66023148148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>45615.72717592592</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>45786</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>45596.55828703703</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>45777</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>45396</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>45660</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44834</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,14 +747,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 33518-2025</t>
+          <t>A 16786-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45841.53921296296</v>
+        <v>45754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -806,299 +806,299 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 33518-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45841.53921296296</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 33518-2025 artfynd.xlsx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 33518-2025 karta.png", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 33518-2025 FSC-klagomål.docx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 33518-2025 FSC-klagomål mail.docx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 33518-2025 tillsynsbegäran.docx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 33518-2025 tillsynsbegäran mail.docx", "A 33518-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 46376-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45197.46416666666</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 46376-2023 artfynd.xlsx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 46376-2023 karta.png", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 46376-2023 FSC-klagomål.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 46376-2023 FSC-klagomål mail.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 46376-2023 tillsynsbegäran.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 46376-2023 tillsynsbegäran mail.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 2540-2026</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>46037.45690972222</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Utter</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 2540-2026 artfynd.xlsx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 2540-2026 karta.png", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 2540-2026 FSC-klagomål.docx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 2540-2026 FSC-klagomål mail.docx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 2540-2026 tillsynsbegäran.docx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 2540-2026 tillsynsbegäran mail.docx", "A 2540-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 16786-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45754</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 46376-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45197.46416666666</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 46376-2023 artfynd.xlsx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 46376-2023 karta.png", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 46376-2023 FSC-klagomål.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 46376-2023 FSC-klagomål mail.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 46376-2023 tillsynsbegäran.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 46376-2023 tillsynsbegäran mail.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44243</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45790</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44797</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44490.4119212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44335.38469907407</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44512</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>44797.39523148148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44868</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44788</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44311</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44841.37923611111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44512</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44484.52479166666</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44841.35112268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44335.38092592593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44299</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44426.31266203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2452,14 +2452,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22935-2023</t>
+          <t>A 4744-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45072.60810185185</v>
+        <v>45688</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2509,14 +2509,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 70761-2021</t>
+          <t>A 4998-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44536</v>
+        <v>45329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2566,14 +2566,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 5881-2025</t>
+          <t>A 14356-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45695</v>
+        <v>44279.35021990741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2623,14 +2623,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3455-2025</t>
+          <t>A 26230-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45680.47734953704</v>
+        <v>45468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2642,8 +2642,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2680,14 +2685,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47728-2023</t>
+          <t>A 48591-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45203.68487268518</v>
+        <v>45593.43625</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2700,7 +2705,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2737,14 +2742,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12023-2021</t>
+          <t>A 33806-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44266.45105324074</v>
+        <v>45520.60313657407</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2757,7 +2762,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2794,14 +2799,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1431-2025</t>
+          <t>A 48309-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45669</v>
+        <v>44450</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2814,7 +2819,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2851,14 +2856,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2352-2023</t>
+          <t>A 38176-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44938</v>
+        <v>45545</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2871,7 +2876,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2908,14 +2913,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62085-2024</t>
+          <t>A 1840-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45656</v>
+        <v>44938.67890046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2929,11 +2934,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2970,14 +2975,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 4744-2025</t>
+          <t>A 45260-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45688</v>
+        <v>45576</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2989,8 +2994,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>16.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3027,14 +3037,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12839-2025</t>
+          <t>A 2037-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45733.64366898148</v>
+        <v>44939.58351851852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3048,11 +3058,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>18.2</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3089,14 +3099,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20085-2025</t>
+          <t>A 57792-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45772</v>
+        <v>44897.66182870371</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3108,13 +3118,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3151,14 +3156,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7948-2024</t>
+          <t>A 23279-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45350</v>
+        <v>45453</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3170,13 +3175,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3213,14 +3213,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24773-2025</t>
+          <t>A 27092-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45799.40483796296</v>
+        <v>45811</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,13 +3232,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3275,14 +3270,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38176-2024</t>
+          <t>A 54190-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45545</v>
+        <v>45232</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3295,7 +3290,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3332,14 +3327,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 24755-2025</t>
+          <t>A 47713-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45799.37452546296</v>
+        <v>45588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3351,13 +3346,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3394,14 +3384,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 24826-2025</t>
+          <t>A 47732-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45799.45670138889</v>
+        <v>45588.50700231481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3413,13 +3403,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3456,14 +3441,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24820-2025</t>
+          <t>A 33120-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45799.45188657408</v>
+        <v>45840.49384259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3466,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3503,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24836-2025</t>
+          <t>A 3452-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45799.46241898148</v>
+        <v>45680.4753125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,13 +3522,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3580,14 +3560,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25001-2025</t>
+          <t>A 53388-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45799.61962962963</v>
+        <v>45614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,13 +3579,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>21.6</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3642,14 +3617,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 25727-2025</t>
+          <t>A 54221-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45803.71775462963</v>
+        <v>45616</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,13 +3636,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3704,14 +3674,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33120-2025</t>
+          <t>A 39625-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45840.49384259259</v>
+        <v>45890.57746527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,13 +3693,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3766,14 +3731,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25723-2025</t>
+          <t>A 39998-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45803.7121412037</v>
+        <v>45168</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3785,13 +3750,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3828,14 +3788,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 25720-2025</t>
+          <t>A 39623-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45803.70553240741</v>
+        <v>45890.57476851852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,13 +3807,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3890,14 +3845,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 4494-2025</t>
+          <t>A 11981-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45686</v>
+        <v>44266</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3910,7 +3865,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3947,14 +3902,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 54190-2023</t>
+          <t>A 12023-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45232</v>
+        <v>44266.45105324074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,14 +3959,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 54221-2024</t>
+          <t>A 8639-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45616</v>
+        <v>45711.87692129629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4024,7 +3979,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4061,14 +4016,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39625-2025</t>
+          <t>A 7948-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45890.57746527778</v>
+        <v>45350</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4080,8 +4035,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4118,14 +4078,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39623-2025</t>
+          <t>A 26189-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45890.57476851852</v>
+        <v>45468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4137,8 +4097,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4175,14 +4140,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 27388-2025</t>
+          <t>A 25760-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45812.67489583333</v>
+        <v>45804</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4194,13 +4159,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4237,14 +4197,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 19324-2022</t>
+          <t>A 28466-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44692.5990625</v>
+        <v>44747.74182870371</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4217,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4294,14 +4254,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28017-2025</t>
+          <t>A 20725-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45817.61508101852</v>
+        <v>45058.47887731482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4279,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.3</v>
+        <v>14.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4356,14 +4316,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 27092-2025</t>
+          <t>A 35430-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45811</v>
+        <v>45855.4414699074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4336,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4413,14 +4373,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 41479-2024</t>
+          <t>A 8613-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45560</v>
+        <v>45355</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4434,11 +4394,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4475,14 +4435,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29002-2023</t>
+          <t>A 35431-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45104.64762731481</v>
+        <v>45855.44628472222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4495,7 +4455,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4532,14 +4492,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 28255-2025</t>
+          <t>A 35427-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45818.54848379629</v>
+        <v>45855</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4552,7 +4512,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4589,14 +4549,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 15152-2022</t>
+          <t>A 42015-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44658.46916666667</v>
+        <v>45903.57980324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4609,7 +4569,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4646,14 +4606,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47732-2024</t>
+          <t>A 2525-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45588.50700231481</v>
+        <v>45674.60668981481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4666,7 +4626,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4703,14 +4663,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42015-2025</t>
+          <t>A 487-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45903.57980324074</v>
+        <v>44930.29883101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4723,7 +4683,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4760,14 +4720,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 6856-2025</t>
+          <t>A 47894-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45700</v>
+        <v>45204</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,11 +4741,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4822,14 +4782,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44248-2025</t>
+          <t>A 33143-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45915.69100694444</v>
+        <v>45840.52465277778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,11 +4803,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4884,14 +4844,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44178-2025</t>
+          <t>A 44248-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45915.60693287037</v>
+        <v>45915.69100694444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4905,11 +4865,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4946,14 +4906,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 12482-2025</t>
+          <t>A 33273-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45730</v>
+        <v>45840.68797453704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4971,7 +4931,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5008,14 +4968,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36697-2023</t>
+          <t>A 49101-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45153.63313657408</v>
+        <v>45594.64802083333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5033,7 +4993,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>14.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5070,14 +5030,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 45479-2025</t>
+          <t>A 37145-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45922.53091435185</v>
+        <v>45875.56288194445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5089,13 +5049,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5132,14 +5087,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15442-2024</t>
+          <t>A 62085-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45401.42217592592</v>
+        <v>45656</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5151,8 +5106,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5189,14 +5149,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52834-2023</t>
+          <t>A 30266-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45226.41116898148</v>
+        <v>45827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5208,13 +5168,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5251,14 +5206,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20725-2023</t>
+          <t>A 45479-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45058.47887731482</v>
+        <v>45922.53091435185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5272,11 +5227,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>14.9</v>
+        <v>6.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5313,14 +5268,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 46860-2025</t>
+          <t>A 37716-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45929</v>
+        <v>45881</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5333,7 +5288,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5377,7 +5332,7 @@
         <v>45926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5432,14 +5387,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13795-2023</t>
+          <t>A 45154-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45007</v>
+        <v>45191</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5451,13 +5406,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5494,14 +5444,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26201-2024</t>
+          <t>A 227-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45468</v>
+        <v>45660</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5513,13 +5463,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>25.4</v>
+        <v>5.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5556,14 +5501,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57209-2022</t>
+          <t>A 38301-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44895.64663194444</v>
+        <v>45883.46224537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,13 +5520,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5618,14 +5558,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7072-2023</t>
+          <t>A 23808-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44969.95028935185</v>
+        <v>44335.37674768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5637,13 +5577,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5680,14 +5615,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 49580-2025</t>
+          <t>A 46860-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45939.49743055556</v>
+        <v>45929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5699,13 +5634,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5742,14 +5672,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 11290-2025</t>
+          <t>A 12482-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45726.4278587963</v>
+        <v>45730</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5761,8 +5691,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5799,14 +5734,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 26189-2024</t>
+          <t>A 12839-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45468</v>
+        <v>45733.64366898148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5759,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>18.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5861,14 +5796,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13636-2024</t>
+          <t>A 16714-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45390</v>
+        <v>45754</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,8 +5815,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5918,14 +5858,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25760-2025</t>
+          <t>A 16359-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45804</v>
+        <v>45028.72045138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5938,7 +5878,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5975,14 +5915,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39998-2023</t>
+          <t>A 47728-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45168</v>
+        <v>45203.68487268518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5995,7 +5935,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6032,14 +5972,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35430-2025</t>
+          <t>A 1431-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45855.4414699074</v>
+        <v>45669</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6052,7 +5992,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6089,14 +6029,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35350-2025</t>
+          <t>A 49306-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45854.63583333333</v>
+        <v>45595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6114,7 +6054,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6151,14 +6091,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35427-2025</t>
+          <t>A 53205-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45855</v>
+        <v>45958.5859375</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6170,8 +6110,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6208,14 +6153,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35431-2025</t>
+          <t>A 52908-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45855.44628472222</v>
+        <v>45957</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6173,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6265,14 +6210,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 45260-2024</t>
+          <t>A 52905-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45576</v>
+        <v>45957</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6284,13 +6229,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>16.3</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6327,14 +6267,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8613-2024</t>
+          <t>A 53217-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45355</v>
+        <v>45958.59952546296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6348,11 +6288,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.5</v>
+        <v>10.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6389,14 +6329,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 54738-2023</t>
+          <t>A 30587-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45236</v>
+        <v>45112.33359953704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6408,13 +6348,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6451,14 +6386,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57981-2022</t>
+          <t>A 25498-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44900.47692129629</v>
+        <v>45089.48630787037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6472,11 +6407,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6513,14 +6448,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 52908-2025</t>
+          <t>A 53317-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45957</v>
+        <v>45959.35413194444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6532,8 +6467,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6570,14 +6510,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52905-2025</t>
+          <t>A 52922-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
         <v>45957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6530,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6627,14 +6567,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 49101-2024</t>
+          <t>A 53990-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45594.64802083333</v>
+        <v>45961.57934027778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6648,11 +6588,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>14.1</v>
+        <v>5.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6689,14 +6629,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 33273-2025</t>
+          <t>A 55234-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45840.68797453704</v>
+        <v>45968.61171296296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6714,7 +6654,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6751,14 +6691,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 33143-2025</t>
+          <t>A 70761-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45840.52465277778</v>
+        <v>44536</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6770,13 +6710,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6813,14 +6748,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58125-2022</t>
+          <t>A 55576-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44900.67206018518</v>
+        <v>45971.66637731482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6832,8 +6767,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6870,14 +6810,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 3721-2025</t>
+          <t>A 13047-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45681</v>
+        <v>44272.29149305556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6890,7 +6830,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6927,14 +6867,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53217-2025</t>
+          <t>A 55818-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45958.59952546296</v>
+        <v>45972</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6946,13 +6886,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>10.1</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6989,14 +6924,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 53205-2025</t>
+          <t>A 56206-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45958.5859375</v>
+        <v>45974.47096064815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7014,7 +6949,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>9.699999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7051,14 +6986,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 25498-2023</t>
+          <t>A 56303-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45089.48630787037</v>
+        <v>45974.60728009259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7011,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.7</v>
+        <v>10.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7113,14 +7048,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 37145-2025</t>
+          <t>A 36697-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45875.56288194445</v>
+        <v>45153.63313657408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,8 +7067,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7170,14 +7110,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 53317-2025</t>
+          <t>A 29002-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45959.35413194444</v>
+        <v>45104.64762731481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,13 +7129,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7232,14 +7167,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30266-2025</t>
+          <t>A 58586-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45827</v>
+        <v>45635.50215277778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7251,8 +7186,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7289,14 +7229,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4998-2024</t>
+          <t>A 56525-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45329</v>
+        <v>45975.46569444444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7308,8 +7248,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7346,14 +7291,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 53990-2025</t>
+          <t>A 21929-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45961.57934027778</v>
+        <v>45068</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7365,13 +7310,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7408,14 +7348,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37716-2025</t>
+          <t>A 15442-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45881</v>
+        <v>45401.42217592592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7428,7 +7368,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7465,14 +7405,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 52922-2025</t>
+          <t>A 57765-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45957</v>
+        <v>45981.55736111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,8 +7424,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>19.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7522,14 +7467,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 55234-2025</t>
+          <t>A 58451-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45968.61171296296</v>
+        <v>45985.62826388889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7492,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>14.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7584,14 +7529,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 55576-2025</t>
+          <t>A 45271-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45971.66637731482</v>
+        <v>45576</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7605,11 +7550,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7646,14 +7591,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 55787-2025</t>
+          <t>A 12824-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45972.64469907407</v>
+        <v>45733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7665,13 +7610,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>12.9</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7708,14 +7648,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 38301-2025</t>
+          <t>A 6856-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45883.46224537037</v>
+        <v>45700</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7727,8 +7667,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7765,14 +7710,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55818-2025</t>
+          <t>A 3721-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45972</v>
+        <v>45681</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7785,7 +7730,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7822,14 +7767,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28466-2022</t>
+          <t>A 22935-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44747.74182870371</v>
+        <v>45072.60810185185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7842,7 +7787,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7879,14 +7824,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3452-2025</t>
+          <t>A 53353-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45680.4753125</v>
+        <v>45614.45392361111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7899,7 +7844,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7936,14 +7881,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 14356-2021</t>
+          <t>A 49311-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44279.35021990741</v>
+        <v>45595</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7955,8 +7900,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7993,14 +7943,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 56525-2025</t>
+          <t>A 60315-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45975.46569444444</v>
+        <v>45994.70884259259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8012,13 +7962,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8055,14 +8000,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 56206-2025</t>
+          <t>A 12132-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45974.47096064815</v>
+        <v>45729</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8025,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.4</v>
+        <v>24.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8117,14 +8062,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 33806-2024</t>
+          <t>A 60511-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45520.60313657407</v>
+        <v>45995.63336805555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8174,14 +8119,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56303-2025</t>
+          <t>A 47624-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45974.60728009259</v>
+        <v>45203.51826388889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8195,11 +8140,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>10.8</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8236,14 +8181,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47713-2024</t>
+          <t>A 8269-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45588</v>
+        <v>45708</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8201,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8293,14 +8238,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 47624-2023</t>
+          <t>A 41479-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45203.51826388889</v>
+        <v>45560</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8314,11 +8259,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.2</v>
+        <v>5.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8355,14 +8300,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 57765-2025</t>
+          <t>A 61123-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45981.55736111111</v>
+        <v>46000.46875</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8376,11 +8321,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>19.8</v>
+        <v>3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8417,14 +8362,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 15997-2025</t>
+          <t>A 3455-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45749</v>
+        <v>45680.47734953704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,13 +8381,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8479,14 +8419,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 58451-2025</t>
+          <t>A 4494-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45985.62826388889</v>
+        <v>45686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8498,13 +8438,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>14.1</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8541,14 +8476,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12132-2025</t>
+          <t>A 54738-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45729</v>
+        <v>45236</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8562,11 +8497,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>24.9</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8603,14 +8538,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 2037-2023</t>
+          <t>A 61149-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44939.58351851852</v>
+        <v>46000.53810185185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8624,11 +8559,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8665,14 +8600,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 21929-2023</t>
+          <t>A 41325-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45068</v>
+        <v>45174.65024305556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8684,8 +8619,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8722,14 +8662,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 59449-2022</t>
+          <t>A 61328-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44907.40783564815</v>
+        <v>46001.32983796296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8741,8 +8681,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>8.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8779,14 +8724,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45154-2023</t>
+          <t>A 5881-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45191</v>
+        <v>45695</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8744,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8836,14 +8781,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 59466-2025</t>
+          <t>A 4868-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45989.58049768519</v>
+        <v>46048.6441550926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8855,13 +8800,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>2.7</v>
+        <v>10.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8898,14 +8838,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 17756-2023</t>
+          <t>A 4455-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45037.4796412037</v>
+        <v>46045.64204861111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8858,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>8.1</v>
+        <v>2.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8955,14 +8895,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 59146-2025</t>
+          <t>A 16645-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45988.52269675926</v>
+        <v>45754</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8980,7 +8920,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>9.9</v>
+        <v>2.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9017,14 +8957,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 16359-2023</t>
+          <t>A 53202-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45028.72045138889</v>
+        <v>45229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9037,7 +8977,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9074,14 +9014,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 60315-2025</t>
+          <t>A 61586-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45994.70884259259</v>
+        <v>46002</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9093,8 +9033,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9131,14 +9076,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 53202-2023</t>
+          <t>A 26201-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45229</v>
+        <v>45468</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9150,8 +9095,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>7.6</v>
+        <v>25.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9188,14 +9138,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 60511-2025</t>
+          <t>A 11290-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45995.63336805555</v>
+        <v>45726.4278587963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9158,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9245,14 +9195,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 49306-2024</t>
+          <t>A 52834-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45595</v>
+        <v>45226.41116898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,14 +9257,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 21942-2024</t>
+          <t>A 63469-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45443</v>
+        <v>46013.43326388889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9327,7 +9277,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9364,14 +9314,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 12252-2025</t>
+          <t>A 11452-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45729</v>
+        <v>45372</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9389,7 +9339,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>14.5</v>
+        <v>4.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9426,14 +9376,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58586-2024</t>
+          <t>A 63572-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45635.50215277778</v>
+        <v>46013.66006944444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9447,11 +9397,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9488,14 +9438,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61328-2025</t>
+          <t>A 63472-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46001.32983796296</v>
+        <v>46013.44269675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9507,13 +9457,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>8.9</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9550,14 +9495,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 61129-2025</t>
+          <t>A 7028-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46000.48585648148</v>
+        <v>46057.67555555556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9569,13 +9514,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9612,14 +9552,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61149-2025</t>
+          <t>A 15997-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46000.53810185185</v>
+        <v>45749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9633,11 +9573,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9674,14 +9614,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61123-2025</t>
+          <t>A 17756-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46000.46875</v>
+        <v>45037.4796412037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9693,13 +9633,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>8.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9736,14 +9671,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 4455-2026</t>
+          <t>A 35350-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46045.64204861111</v>
+        <v>45854.63583333333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9755,8 +9690,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9793,14 +9733,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 12819-2025</t>
+          <t>A 7444-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45733</v>
+        <v>46059.45729166667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,14 +9790,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 4868-2026</t>
+          <t>A 28467-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46048.6441550926</v>
+        <v>44747.74592592593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9870,7 +9810,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>10.8</v>
+        <v>2.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9907,14 +9847,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 63080-2025</t>
+          <t>A 7447-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46009.66688657407</v>
+        <v>46059.46265046296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9926,13 +9866,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9969,14 +9904,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 62987-2025</t>
+          <t>A 7072-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46009.4962037037</v>
+        <v>44969.95028935185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9990,11 +9925,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10031,14 +9966,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45271-2024</t>
+          <t>A 61129-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45576</v>
+        <v>46000.48585648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10052,11 +9987,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10093,14 +10028,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 2342-2023</t>
+          <t>A 59466-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44938</v>
+        <v>45989.58049768519</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10112,8 +10047,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10150,14 +10090,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2363-2023</t>
+          <t>A 55787-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44938</v>
+        <v>45972.64469907407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10169,8 +10109,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>12.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10207,14 +10152,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 487-2023</t>
+          <t>A 62987-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44930.29883101852</v>
+        <v>46009.4962037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10226,8 +10171,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10264,14 +10214,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61586-2025</t>
+          <t>A 12252-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46002</v>
+        <v>45729</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10289,7 +10239,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.2</v>
+        <v>14.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10326,14 +10276,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 63472-2025</t>
+          <t>A 7427-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46013.44269675926</v>
+        <v>46059.43177083333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10346,7 +10296,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10383,14 +10333,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 63469-2025</t>
+          <t>A 63080-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46013.43326388889</v>
+        <v>46009.66688657407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10402,8 +10352,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10440,14 +10395,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 63572-2025</t>
+          <t>A 44178-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46013.66006944444</v>
+        <v>45915.60693287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,11 +10416,11 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>10.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10502,14 +10457,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 7028-2026</t>
+          <t>A 59146-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46057.67555555556</v>
+        <v>45988.52269675926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10521,8 +10476,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>9.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10559,14 +10519,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 7444-2026</t>
+          <t>A 57981-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46059.45729166667</v>
+        <v>44900.47692129629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10578,8 +10538,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10616,14 +10581,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 7447-2026</t>
+          <t>A 12819-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46059.46265046296</v>
+        <v>45733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10636,7 +10601,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10673,14 +10638,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 12824-2025</t>
+          <t>A 49580-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45733</v>
+        <v>45939.49743055556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10692,8 +10657,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10730,14 +10700,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 7427-2026</t>
+          <t>A 24846-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46059.43177083333</v>
+        <v>44728</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10750,7 +10720,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10787,14 +10757,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 1840-2023</t>
+          <t>A 2342-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44938.67890046296</v>
+        <v>44938</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10806,13 +10776,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10849,14 +10814,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 227-2025</t>
+          <t>A 2363-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45660</v>
+        <v>44938</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10869,7 +10834,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10906,14 +10871,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48591-2024</t>
+          <t>A 57209-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45593.43625</v>
+        <v>44895.64663194444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10925,8 +10890,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>3.4</v>
+        <v>6.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10963,14 +10933,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2525-2025</t>
+          <t>A 13795-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45674.60668981481</v>
+        <v>45007</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10982,8 +10952,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11020,14 +10995,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 30587-2023</t>
+          <t>A 19324-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45112.33359953704</v>
+        <v>44692.5990625</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11040,7 +11015,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11077,14 +11052,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 53388-2024</t>
+          <t>A 58125-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45614</v>
+        <v>44900.67206018518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11097,7 +11072,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11134,14 +11109,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 48309-2021</t>
+          <t>A 59449-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44450</v>
+        <v>44907.40783564815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11154,7 +11129,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11191,14 +11166,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 11452-2024</t>
+          <t>A 13636-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45372</v>
+        <v>45390</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11210,13 +11185,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11253,14 +11223,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 49311-2024</t>
+          <t>A 20085-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45595</v>
+        <v>45772</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11278,7 +11248,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11315,14 +11285,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 24846-2022</t>
+          <t>A 15152-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44728</v>
+        <v>44658.46916666667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11335,7 +11305,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11372,14 +11342,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 8269-2025</t>
+          <t>A 2352-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45708</v>
+        <v>44938</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11392,7 +11362,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11429,14 +11399,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 13047-2021</t>
+          <t>A 41214-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44272.29149305556</v>
+        <v>45174</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11448,8 +11418,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>5.1</v>
+        <v>51.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11486,14 +11461,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 62001-2024</t>
+          <t>A 39025-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45654</v>
+        <v>45163</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11507,11 +11482,11 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11548,14 +11523,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 16714-2025</t>
+          <t>A 22063-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45754</v>
+        <v>44323</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11567,13 +11542,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11610,14 +11580,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 41214-2023</t>
+          <t>A 21942-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45174</v>
+        <v>45443</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11629,13 +11599,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>51.6</v>
+        <v>4.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11672,14 +11637,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 26230-2024</t>
+          <t>A 62001-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45468</v>
+        <v>45654</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11697,7 +11662,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11741,7 +11706,7 @@
         <v>45656</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11796,14 +11761,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 8639-2025</t>
+          <t>A 13288-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45711.87692129629</v>
+        <v>45386</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11815,8 +11780,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11853,14 +11823,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 41325-2023</t>
+          <t>A 53912-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45174.65024305556</v>
+        <v>45615.72717592592</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11872,13 +11842,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11915,14 +11880,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 22063-2021</t>
+          <t>A 35370-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44323</v>
+        <v>45146</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11934,8 +11899,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11972,14 +11942,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 47894-2023</t>
+          <t>A 14304-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45204</v>
+        <v>45393.66023148148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11991,13 +11961,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12034,14 +11999,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 11981-2021</t>
+          <t>A 22341-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44266</v>
+        <v>45786</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12053,8 +12018,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>4.2</v>
+        <v>34</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12091,14 +12061,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 57792-2022</t>
+          <t>A 49596-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44897.66182870371</v>
+        <v>45596.55828703703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12110,8 +12080,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12148,14 +12123,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 39025-2023</t>
+          <t>A 21111-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45163</v>
+        <v>45777</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12167,13 +12142,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12210,14 +12180,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 13288-2024</t>
+          <t>A 14605-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45386</v>
+        <v>45396</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12231,11 +12201,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>9.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12272,14 +12242,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 28467-2022</t>
+          <t>A 213-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44747.74592592593</v>
+        <v>45660</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12292,7 +12262,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12329,14 +12299,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 23808-2021</t>
+          <t>A 24755-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44335.37674768519</v>
+        <v>45799.37452546296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12348,8 +12318,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12386,14 +12361,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 53353-2024</t>
+          <t>A 25001-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45614.45392361111</v>
+        <v>45799.61962962963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12405,8 +12380,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.5</v>
+        <v>21.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12443,14 +12423,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 16645-2025</t>
+          <t>A 24773-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45754</v>
+        <v>45799.40483796296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12468,7 +12448,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12505,14 +12485,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 23279-2024</t>
+          <t>A 24820-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45453</v>
+        <v>45799.45188657408</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12524,8 +12504,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12562,14 +12547,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 35370-2023</t>
+          <t>A 24836-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45146</v>
+        <v>45799.46241898148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,11 +12568,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12624,14 +12609,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 14304-2024</t>
+          <t>A 24826-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45393.66023148148</v>
+        <v>45799.45670138889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,8 +12628,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12681,14 +12671,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 53912-2024</t>
+          <t>A 25720-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45615.72717592592</v>
+        <v>45803.70553240741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12700,8 +12690,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12738,14 +12733,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 22341-2025</t>
+          <t>A 25723-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45786</v>
+        <v>45803.7121412037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12763,7 +12758,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>34</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12800,14 +12795,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 49596-2024</t>
+          <t>A 25727-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45596.55828703703</v>
+        <v>45803.71775462963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12825,7 +12820,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12862,14 +12857,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 21111-2025</t>
+          <t>A 27388-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45777</v>
+        <v>45812.67489583333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12881,8 +12876,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12919,14 +12919,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 14605-2024</t>
+          <t>A 28017-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45396</v>
+        <v>45817.61508101852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>9.6</v>
+        <v>7.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12981,14 +12981,14 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 213-2025</t>
+          <t>A 28255-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45660</v>
+        <v>45818.54848379629</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -653,14 +653,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 43407-2022</t>
+          <t>A 23023-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44834</v>
+        <v>45790</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7.1</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -712,128 +712,128 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 23023-2025 artfynd.xlsx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 23023-2025 karta.png", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 23023-2025 FSC-klagomål.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 23023-2025 FSC-klagomål mail.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 23023-2025 tillsynsbegäran.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 23023-2025 tillsynsbegäran mail.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 43407-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44834</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Orre</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 43407-2022 artfynd.xlsx", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 43407-2022 karta.png", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 43407-2022 FSC-klagomål.docx", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 43407-2022 FSC-klagomål mail.docx", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 43407-2022 tillsynsbegäran.docx", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 43407-2022 tillsynsbegäran mail.docx", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/fåglar/A 43407-2022 prioriterade fågelarter.docx", "A 43407-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 16786-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45754</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45841.53921296296</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,14 +927,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 46376-2023</t>
+          <t>A 2540-2026</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45197.46416666666</v>
+        <v>46037.45690972222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -946,11 +946,16 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -981,299 +986,294 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Utter</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 2540-2026 artfynd.xlsx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 2540-2026 karta.png", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 2540-2026 FSC-klagomål.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 2540-2026 FSC-klagomål mail.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 2540-2026 tillsynsbegäran.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 2540-2026 tillsynsbegäran mail.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 16786-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 46376-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45197.46416666666</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 46376-2023 artfynd.xlsx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 46376-2023 karta.png", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 46376-2023 FSC-klagomål.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 46376-2023 FSC-klagomål mail.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 46376-2023 tillsynsbegäran.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 46376-2023 tillsynsbegäran mail.docx", "A 46376-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 2540-2026</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>46037.45690972222</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="n">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 8048-2021</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44243</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Utter</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 2540-2026 artfynd.xlsx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 2540-2026 karta.png", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 2540-2026 FSC-klagomål.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 2540-2026 FSC-klagomål mail.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 2540-2026 tillsynsbegäran.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 2540-2026 tillsynsbegäran mail.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 8048-2021</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44243</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Korallblylav</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 8048-2021 artfynd.xlsx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 8048-2021 karta.png", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 8048-2021 FSC-klagomål.docx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 8048-2021 FSC-klagomål mail.docx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 8048-2021 tillsynsbegäran.docx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 8048-2021 tillsynsbegäran mail.docx", "A 8048-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 23023-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45790</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Vedticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 23023-2025 artfynd.xlsx", "A 23023-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 23023-2025 karta.png", "A 23023-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 23023-2025 FSC-klagomål.docx", "A 23023-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 23023-2025 FSC-klagomål mail.docx", "A 23023-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 23023-2025 tillsynsbegäran.docx", "A 23023-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 23023-2025 tillsynsbegäran mail.docx", "A 23023-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44797</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44490.4119212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44335.38469907407</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44512</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1691,14 +1691,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 35084-2022</t>
+          <t>A 51171-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44797.39523148148</v>
+        <v>44868</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,8 +1710,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1748,14 +1753,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 51171-2022</t>
+          <t>A 35084-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44868</v>
+        <v>44797.39523148148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,13 +1772,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>44788</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44311</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1924,14 +1924,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 53398-2021</t>
+          <t>A 44802-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44468</v>
+        <v>44841.37923611111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,13 +1943,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1986,14 +1981,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 44802-2022</t>
+          <t>A 53398-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44841.37923611111</v>
+        <v>44468</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2005,8 +2000,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>44383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44512</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44484.52479166666</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44841.35112268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44335.38092592593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44299</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44426.31266203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2452,14 +2452,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 4744-2025</t>
+          <t>A 22935-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45688</v>
+        <v>45072.60810185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2509,14 +2509,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 4998-2024</t>
+          <t>A 47894-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45329</v>
+        <v>45204</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2528,8 +2528,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2566,14 +2571,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14356-2021</t>
+          <t>A 33120-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44279.35021990741</v>
+        <v>45840.49384259259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2585,8 +2590,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2623,14 +2633,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 26230-2024</t>
+          <t>A 11981-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45468</v>
+        <v>44266</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2642,13 +2652,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2685,14 +2690,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 48591-2024</t>
+          <t>A 70761-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45593.43625</v>
+        <v>44536</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2705,7 +2710,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2742,14 +2747,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 33806-2024</t>
+          <t>A 5881-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45520.60313657407</v>
+        <v>45695</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2762,7 +2767,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2799,14 +2804,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 48309-2021</t>
+          <t>A 57792-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44450</v>
+        <v>44897.66182870371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2819,7 +2824,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2856,14 +2861,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38176-2024</t>
+          <t>A 39025-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45545</v>
+        <v>45163</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2875,8 +2880,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2913,14 +2923,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 1840-2023</t>
+          <t>A 13288-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44938.67890046296</v>
+        <v>45386</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,14 +2985,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 45260-2024</t>
+          <t>A 3455-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45576</v>
+        <v>45680.47734953704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2994,13 +3004,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>16.3</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3037,14 +3042,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2037-2023</t>
+          <t>A 28467-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44939.58351851852</v>
+        <v>44747.74592592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3056,13 +3061,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3099,14 +3099,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 57792-2022</t>
+          <t>A 54221-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44897.66182870371</v>
+        <v>45616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3156,14 +3156,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 23279-2024</t>
+          <t>A 47728-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45453</v>
+        <v>45203.68487268518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3213,14 +3213,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27092-2025</t>
+          <t>A 39625-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45811</v>
+        <v>45890.57746527778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3270,14 +3270,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 54190-2023</t>
+          <t>A 39623-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45232</v>
+        <v>45890.57476851852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3327,14 +3327,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47713-2024</t>
+          <t>A 42015-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45588</v>
+        <v>45903.57980324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3384,14 +3384,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47732-2024</t>
+          <t>A 23808-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45588.50700231481</v>
+        <v>44335.37674768519</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 33120-2025</t>
+          <t>A 12023-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45840.49384259259</v>
+        <v>44266.45105324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,13 +3460,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3503,14 +3498,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3452-2025</t>
+          <t>A 1431-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45680.4753125</v>
+        <v>45669</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3523,7 +3518,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3560,14 +3555,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53388-2024</t>
+          <t>A 53353-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45614</v>
+        <v>45614.45392361111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3580,7 +3575,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3617,14 +3612,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 54221-2024</t>
+          <t>A 16645-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45616</v>
+        <v>45754</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3634,6 +3629,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -3674,14 +3674,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 39625-2025</t>
+          <t>A 23279-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45890.57746527778</v>
+        <v>45453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3731,14 +3731,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 39998-2023</t>
+          <t>A 2352-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45168</v>
+        <v>44938</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3788,14 +3788,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39623-2025</t>
+          <t>A 62085-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45890.57476851852</v>
+        <v>45656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3807,8 +3807,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3845,14 +3850,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11981-2021</t>
+          <t>A 4744-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44266</v>
+        <v>45688</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3865,7 +3870,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3902,14 +3907,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12023-2021</t>
+          <t>A 12839-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44266.45105324074</v>
+        <v>45733.64366898148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3921,8 +3926,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>18.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3959,14 +3969,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8639-2025</t>
+          <t>A 35370-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45711.87692129629</v>
+        <v>45146</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3978,8 +3988,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4016,14 +4031,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7948-2024</t>
+          <t>A 14304-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45350</v>
+        <v>45393.66023148148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4035,13 +4050,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4078,14 +4088,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26189-2024</t>
+          <t>A 53912-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45468</v>
+        <v>45615.72717592592</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4097,13 +4107,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4140,14 +4145,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25760-2025</t>
+          <t>A 20085-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45804</v>
+        <v>45772</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4159,8 +4164,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>9.4</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4197,14 +4207,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28466-2022</t>
+          <t>A 7948-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44747.74182870371</v>
+        <v>45350</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4216,8 +4226,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4254,14 +4269,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20725-2023</t>
+          <t>A 22341-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45058.47887731482</v>
+        <v>45786</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4279,7 +4294,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>14.9</v>
+        <v>34</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4316,14 +4331,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35430-2025</t>
+          <t>A 38176-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45855.4414699074</v>
+        <v>45545</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4336,7 +4351,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4373,14 +4388,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8613-2024</t>
+          <t>A 44248-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45355</v>
+        <v>45915.69100694444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4398,7 +4413,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4435,14 +4450,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35431-2025</t>
+          <t>A 49596-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45855.44628472222</v>
+        <v>45596.55828703703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,8 +4469,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4492,14 +4512,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35427-2025</t>
+          <t>A 21111-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45855</v>
+        <v>45777</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4512,7 +4532,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4549,14 +4569,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 42015-2025</t>
+          <t>A 4494-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45903.57980324074</v>
+        <v>45686</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4569,7 +4589,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4606,14 +4626,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 2525-2025</t>
+          <t>A 14605-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45674.60668981481</v>
+        <v>45396</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,8 +4645,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.9</v>
+        <v>9.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4663,14 +4688,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 487-2023</t>
+          <t>A 213-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44930.29883101852</v>
+        <v>45660</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4683,7 +4708,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4720,14 +4745,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47894-2023</t>
+          <t>A 24773-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45204</v>
+        <v>45799.40483796296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4745,7 +4770,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4782,14 +4807,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 33143-2025</t>
+          <t>A 54190-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45840.52465277778</v>
+        <v>45232</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4801,13 +4826,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4844,14 +4864,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44248-2025</t>
+          <t>A 24755-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45915.69100694444</v>
+        <v>45799.37452546296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,11 +4885,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4906,14 +4926,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33273-2025</t>
+          <t>A 24826-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45840.68797453704</v>
+        <v>45799.45670138889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4931,7 +4951,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4968,14 +4988,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49101-2024</t>
+          <t>A 24820-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45594.64802083333</v>
+        <v>45799.45188657408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,11 +5009,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>14.1</v>
+        <v>6.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5030,14 +5050,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37145-2025</t>
+          <t>A 24836-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45875.56288194445</v>
+        <v>45799.46241898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,8 +5069,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5087,14 +5112,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 62085-2024</t>
+          <t>A 25001-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45656</v>
+        <v>45799.61962962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5112,7 +5137,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>21.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5149,14 +5174,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30266-2025</t>
+          <t>A 25727-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45827</v>
+        <v>45803.71775462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5168,8 +5193,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>7.3</v>
+        <v>3.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5206,14 +5236,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45479-2025</t>
+          <t>A 25723-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45922.53091435185</v>
+        <v>45803.7121412037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,11 +5257,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5268,14 +5298,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 37716-2025</t>
+          <t>A 25720-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45881</v>
+        <v>45803.70553240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5287,8 +5317,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5325,14 +5360,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46612-2025</t>
+          <t>A 19324-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45926</v>
+        <v>44692.5990625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5344,13 +5379,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>11.1</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5387,14 +5417,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45154-2023</t>
+          <t>A 41479-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45191</v>
+        <v>45560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5406,8 +5436,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5444,14 +5479,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 227-2025</t>
+          <t>A 29002-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45660</v>
+        <v>45104.64762731481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5464,7 +5499,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5501,14 +5536,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38301-2025</t>
+          <t>A 45479-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45883.46224537037</v>
+        <v>45922.53091435185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5520,8 +5555,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5558,14 +5598,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 23808-2021</t>
+          <t>A 15152-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44335.37674768519</v>
+        <v>44658.46916666667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5578,7 +5618,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5615,14 +5655,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46860-2025</t>
+          <t>A 47732-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45929</v>
+        <v>45588.50700231481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5635,7 +5675,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5672,14 +5712,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 12482-2025</t>
+          <t>A 27388-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45730</v>
+        <v>45812.67489583333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5697,7 +5737,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5734,14 +5774,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12839-2025</t>
+          <t>A 28017-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45733.64366898148</v>
+        <v>45817.61508101852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5759,7 +5799,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>18.2</v>
+        <v>7.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5796,14 +5836,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 16714-2025</t>
+          <t>A 27092-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45754</v>
+        <v>45811</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5815,13 +5855,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5858,14 +5893,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 16359-2023</t>
+          <t>A 28255-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45028.72045138889</v>
+        <v>45818.54848379629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5878,7 +5913,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5915,14 +5950,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47728-2023</t>
+          <t>A 6856-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45203.68487268518</v>
+        <v>45700</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5934,8 +5969,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5972,14 +6012,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 1431-2025</t>
+          <t>A 46860-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45669</v>
+        <v>45929</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5992,7 +6032,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6029,14 +6069,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 49306-2024</t>
+          <t>A 46612-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45595</v>
+        <v>45926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6054,7 +6094,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>11.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6091,14 +6131,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53205-2025</t>
+          <t>A 12482-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45958.5859375</v>
+        <v>45730</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6116,7 +6156,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>9.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6153,14 +6193,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 52908-2025</t>
+          <t>A 36697-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45957</v>
+        <v>45153.63313657408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6172,8 +6212,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6210,14 +6255,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52905-2025</t>
+          <t>A 15442-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45957</v>
+        <v>45401.42217592592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6230,7 +6275,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6267,14 +6312,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 53217-2025</t>
+          <t>A 52834-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45958.59952546296</v>
+        <v>45226.41116898148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6337,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>10.1</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6329,14 +6374,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30587-2023</t>
+          <t>A 20725-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45112.33359953704</v>
+        <v>45058.47887731482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6348,8 +6393,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>14.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6386,14 +6436,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25498-2023</t>
+          <t>A 13795-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45089.48630787037</v>
+        <v>45007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,11 +6457,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6448,14 +6498,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 53317-2025</t>
+          <t>A 26201-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45959.35413194444</v>
+        <v>45468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6473,7 +6523,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6.8</v>
+        <v>25.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6510,14 +6560,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52922-2025</t>
+          <t>A 57209-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45957</v>
+        <v>44895.64663194444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6529,8 +6579,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6567,14 +6622,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 53990-2025</t>
+          <t>A 26189-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45961.57934027778</v>
+        <v>45468</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,11 +6643,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6629,14 +6684,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55234-2025</t>
+          <t>A 7072-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45968.61171296296</v>
+        <v>44969.95028935185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6654,7 +6709,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6691,14 +6746,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 70761-2021</t>
+          <t>A 11290-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44536</v>
+        <v>45726.4278587963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6711,7 +6766,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6748,14 +6803,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 55576-2025</t>
+          <t>A 25760-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45971.66637731482</v>
+        <v>45804</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6767,13 +6822,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6810,14 +6860,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13047-2021</t>
+          <t>A 35430-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44272.29149305556</v>
+        <v>45855.4414699074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6830,7 +6880,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6867,14 +6917,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 55818-2025</t>
+          <t>A 35427-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45972</v>
+        <v>45855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6887,7 +6937,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6924,14 +6974,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 56206-2025</t>
+          <t>A 35431-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45974.47096064815</v>
+        <v>45855.44628472222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,13 +6993,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6986,14 +7031,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 56303-2025</t>
+          <t>A 8613-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45974.60728009259</v>
+        <v>45355</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7007,11 +7052,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>10.8</v>
+        <v>5.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7048,14 +7093,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36697-2023</t>
+          <t>A 13636-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45153.63313657408</v>
+        <v>45390</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7067,13 +7112,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7110,14 +7150,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 29002-2023</t>
+          <t>A 39998-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45104.64762731481</v>
+        <v>45168</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7170,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7167,14 +7207,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 58586-2024</t>
+          <t>A 45260-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45635.50215277778</v>
+        <v>45576</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7188,11 +7228,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>16.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7229,14 +7269,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 56525-2025</t>
+          <t>A 54738-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45975.46569444444</v>
+        <v>45236</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7250,11 +7290,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7291,14 +7331,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21929-2023</t>
+          <t>A 49101-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45068</v>
+        <v>45594.64802083333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7310,8 +7350,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>6.8</v>
+        <v>14.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7348,14 +7393,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 15442-2024</t>
+          <t>A 33273-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45401.42217592592</v>
+        <v>45840.68797453704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7367,8 +7412,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7405,14 +7455,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 57765-2025</t>
+          <t>A 33143-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45981.55736111111</v>
+        <v>45840.52465277778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7430,7 +7480,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>19.8</v>
+        <v>4.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7467,14 +7517,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58451-2025</t>
+          <t>A 57981-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45985.62826388889</v>
+        <v>44900.47692129629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,11 +7538,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>14.1</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7529,14 +7579,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 45271-2024</t>
+          <t>A 37145-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45576</v>
+        <v>45875.56288194445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7548,13 +7598,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>11</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7591,14 +7636,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12824-2025</t>
+          <t>A 58125-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45733</v>
+        <v>44900.67206018518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7611,7 +7656,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7648,14 +7693,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 6856-2025</t>
+          <t>A 30266-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45700</v>
+        <v>45827</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,13 +7712,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7717,7 +7757,7 @@
         <v>45681</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7767,14 +7807,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 22935-2023</t>
+          <t>A 37716-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45072.60810185185</v>
+        <v>45881</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7827,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7824,14 +7864,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53353-2024</t>
+          <t>A 25498-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45614.45392361111</v>
+        <v>45089.48630787037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7843,8 +7883,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7881,14 +7926,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49311-2024</t>
+          <t>A 38301-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45595</v>
+        <v>45883.46224537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7900,13 +7945,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>7.8</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7943,14 +7983,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60315-2025</t>
+          <t>A 3452-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45994.70884259259</v>
+        <v>45680.4753125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7963,7 +8003,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8000,14 +8040,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 12132-2025</t>
+          <t>A 4998-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45729</v>
+        <v>45329</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,13 +8059,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>24.9</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8062,14 +8097,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 60511-2025</t>
+          <t>A 52908-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45995.63336805555</v>
+        <v>45957</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8082,7 +8117,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8119,14 +8154,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47624-2023</t>
+          <t>A 52905-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45203.51826388889</v>
+        <v>45957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8138,13 +8173,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8181,14 +8211,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 8269-2025</t>
+          <t>A 53217-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45708</v>
+        <v>45958.59952546296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,8 +8230,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>10.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8238,14 +8273,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41479-2024</t>
+          <t>A 53205-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45560</v>
+        <v>45958.5859375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,11 +8294,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8300,14 +8335,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 61123-2025</t>
+          <t>A 53317-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46000.46875</v>
+        <v>45959.35413194444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8321,11 +8356,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8362,14 +8397,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 3455-2025</t>
+          <t>A 28466-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45680.47734953704</v>
+        <v>44747.74182870371</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8419,14 +8454,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4494-2025</t>
+          <t>A 14356-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45686</v>
+        <v>44279.35021990741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8439,7 +8474,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8476,14 +8511,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 54738-2023</t>
+          <t>A 53990-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45236</v>
+        <v>45961.57934027778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8501,7 +8536,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8538,14 +8573,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 61149-2025</t>
+          <t>A 33806-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46000.53810185185</v>
+        <v>45520.60313657407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8557,13 +8592,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8600,14 +8630,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 41325-2023</t>
+          <t>A 47713-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45174.65024305556</v>
+        <v>45588</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8619,13 +8649,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8662,14 +8687,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 61328-2025</t>
+          <t>A 52922-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46001.32983796296</v>
+        <v>45957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,13 +8706,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8724,14 +8744,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 5881-2025</t>
+          <t>A 47624-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45695</v>
+        <v>45203.51826388889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8743,8 +8763,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8781,14 +8806,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 4868-2026</t>
+          <t>A 55234-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46048.6441550926</v>
+        <v>45968.61171296296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8800,8 +8825,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>10.8</v>
+        <v>2.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8838,14 +8868,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 4455-2026</t>
+          <t>A 15997-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46045.64204861111</v>
+        <v>45749</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8857,8 +8887,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8895,14 +8930,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 16645-2025</t>
+          <t>A 55576-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45754</v>
+        <v>45971.66637731482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8920,7 +8955,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.8</v>
+        <v>8.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8957,14 +8992,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 53202-2023</t>
+          <t>A 55818-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45229</v>
+        <v>45972</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8977,7 +9012,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9014,14 +9049,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 61586-2025</t>
+          <t>A 56525-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46002</v>
+        <v>45975.46569444444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9039,7 +9074,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9076,14 +9111,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 26201-2024</t>
+          <t>A 56206-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45468</v>
+        <v>45974.47096064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9101,7 +9136,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>25.4</v>
+        <v>4.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9138,14 +9173,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 11290-2025</t>
+          <t>A 56303-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45726.4278587963</v>
+        <v>45974.60728009259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9157,8 +9192,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>4.1</v>
+        <v>10.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9195,14 +9235,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52834-2023</t>
+          <t>A 12132-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45226.41116898148</v>
+        <v>45729</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9220,7 +9260,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.4</v>
+        <v>24.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9257,14 +9297,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 63469-2025</t>
+          <t>A 2037-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46013.43326388889</v>
+        <v>44939.58351851852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9276,8 +9316,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9314,14 +9359,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 11452-2024</t>
+          <t>A 21929-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45372</v>
+        <v>45068</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9333,13 +9378,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9376,14 +9416,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 63572-2025</t>
+          <t>A 57765-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46013.66006944444</v>
+        <v>45981.55736111111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9397,11 +9437,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.2</v>
+        <v>19.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9438,14 +9478,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 63472-2025</t>
+          <t>A 59449-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46013.44269675926</v>
+        <v>44907.40783564815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9458,7 +9498,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9495,14 +9535,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 7028-2026</t>
+          <t>A 58451-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46057.67555555556</v>
+        <v>45985.62826388889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9514,8 +9554,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>14.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9552,14 +9597,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 15997-2025</t>
+          <t>A 45154-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45749</v>
+        <v>45191</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9571,13 +9616,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9621,7 +9661,7 @@
         <v>45037.4796412037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9671,14 +9711,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 35350-2025</t>
+          <t>A 16359-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45854.63583333333</v>
+        <v>45028.72045138889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9690,13 +9730,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9733,14 +9768,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 7444-2026</t>
+          <t>A 53202-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46059.45729166667</v>
+        <v>45229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9788,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>7.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9790,14 +9825,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 28467-2022</t>
+          <t>A 49306-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44747.74592592593</v>
+        <v>45595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9809,8 +9844,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9847,14 +9887,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 7447-2026</t>
+          <t>A 60315-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46059.46265046296</v>
+        <v>45994.70884259259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9907,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9904,14 +9944,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 7072-2023</t>
+          <t>A 60511-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44969.95028935185</v>
+        <v>45995.63336805555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9923,13 +9963,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9966,14 +10001,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 61129-2025</t>
+          <t>A 21942-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46000.48585648148</v>
+        <v>45443</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9985,13 +10020,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10028,14 +10058,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 59466-2025</t>
+          <t>A 58586-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45989.58049768519</v>
+        <v>45635.50215277778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10083,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10090,14 +10120,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 55787-2025</t>
+          <t>A 61328-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45972.64469907407</v>
+        <v>46001.32983796296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10115,7 +10145,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>12.9</v>
+        <v>8.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10152,14 +10182,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 62987-2025</t>
+          <t>A 61149-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46009.4962037037</v>
+        <v>46000.53810185185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10214,14 +10244,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 12252-2025</t>
+          <t>A 61123-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45729</v>
+        <v>46000.46875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10235,11 +10265,11 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>14.5</v>
+        <v>3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10276,14 +10306,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 7427-2026</t>
+          <t>A 12819-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46059.43177083333</v>
+        <v>45733</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10296,7 +10326,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10333,14 +10363,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 63080-2025</t>
+          <t>A 4455-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46009.66688657407</v>
+        <v>46045.64204861111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,13 +10382,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10395,14 +10420,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 44178-2025</t>
+          <t>A 4868-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45915.60693287037</v>
+        <v>46048.6441550926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10414,13 +10439,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10457,14 +10477,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 59146-2025</t>
+          <t>A 45271-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45988.52269675926</v>
+        <v>45576</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10478,11 +10498,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>9.9</v>
+        <v>11</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10519,14 +10539,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 57981-2022</t>
+          <t>A 2342-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44900.47692129629</v>
+        <v>44938</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10538,13 +10558,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10581,14 +10596,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 12819-2025</t>
+          <t>A 2363-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45733</v>
+        <v>44938</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10601,7 +10616,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10638,14 +10653,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49580-2025</t>
+          <t>A 487-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45939.49743055556</v>
+        <v>44930.29883101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10657,13 +10672,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>3.3</v>
+        <v>7.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10700,14 +10710,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 24846-2022</t>
+          <t>A 12824-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44728</v>
+        <v>45733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10720,7 +10730,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10757,14 +10767,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 2342-2023</t>
+          <t>A 61586-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44938</v>
+        <v>46002</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10776,8 +10786,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10814,14 +10829,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 2363-2023</t>
+          <t>A 63472-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44938</v>
+        <v>46013.44269675926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10834,7 +10849,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10871,14 +10886,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 57209-2022</t>
+          <t>A 63469-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44895.64663194444</v>
+        <v>46013.43326388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10890,13 +10905,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10933,14 +10943,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 13795-2023</t>
+          <t>A 63572-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45007</v>
+        <v>46013.66006944444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10968,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10995,14 +11005,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 19324-2022</t>
+          <t>A 7028-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44692.5990625</v>
+        <v>46057.67555555556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11025,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11052,14 +11062,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 58125-2022</t>
+          <t>A 7444-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44900.67206018518</v>
+        <v>46059.45729166667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11082,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11109,14 +11119,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 59449-2022</t>
+          <t>A 7447-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44907.40783564815</v>
+        <v>46059.46265046296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11139,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11166,14 +11176,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 13636-2024</t>
+          <t>A 1840-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45390</v>
+        <v>44938.67890046296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11185,8 +11195,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11223,14 +11238,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 20085-2025</t>
+          <t>A 7427-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45772</v>
+        <v>46059.43177083333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11242,13 +11257,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11285,14 +11295,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 15152-2022</t>
+          <t>A 227-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44658.46916666667</v>
+        <v>45660</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11305,7 +11315,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11342,14 +11352,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 2352-2023</t>
+          <t>A 35350-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44938</v>
+        <v>45854.63583333333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11361,8 +11371,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11399,14 +11414,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 41214-2023</t>
+          <t>A 62987-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45174</v>
+        <v>46009.4962037037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11420,11 +11435,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>51.6</v>
+        <v>0.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11461,14 +11476,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 39025-2023</t>
+          <t>A 61129-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45163</v>
+        <v>46000.48585648148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11482,11 +11497,11 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11523,14 +11538,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 22063-2021</t>
+          <t>A 59146-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44323</v>
+        <v>45988.52269675926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11542,8 +11557,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>2.5</v>
+        <v>9.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11580,14 +11600,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 21942-2024</t>
+          <t>A 55787-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45443</v>
+        <v>45972.64469907407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11599,8 +11619,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>4.3</v>
+        <v>12.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11637,14 +11662,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 62001-2024</t>
+          <t>A 59466-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45654</v>
+        <v>45989.58049768519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11662,7 +11687,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11699,14 +11724,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 62069-2024</t>
+          <t>A 49580-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45656</v>
+        <v>45939.49743055556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11724,7 +11749,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11761,14 +11786,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 13288-2024</t>
+          <t>A 63080-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45386</v>
+        <v>46009.66688657407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11782,11 +11807,11 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11823,14 +11848,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 53912-2024</t>
+          <t>A 12252-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45615.72717592592</v>
+        <v>45729</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11842,8 +11867,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>14.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11880,14 +11910,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 35370-2023</t>
+          <t>A 48591-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45146</v>
+        <v>45593.43625</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11899,13 +11929,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11942,14 +11967,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 14304-2024</t>
+          <t>A 44178-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45393.66023148148</v>
+        <v>45915.60693287037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11961,8 +11986,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>10.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11999,14 +12029,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 22341-2025</t>
+          <t>A 2525-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45786</v>
+        <v>45674.60668981481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12018,13 +12048,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>34</v>
+        <v>3.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12061,14 +12086,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 49596-2024</t>
+          <t>A 30587-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45596.55828703703</v>
+        <v>45112.33359953704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12080,13 +12105,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12123,14 +12143,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 21111-2025</t>
+          <t>A 53388-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45777</v>
+        <v>45614</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12143,7 +12163,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12180,14 +12200,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14605-2024</t>
+          <t>A 48309-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45396</v>
+        <v>44450</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12199,13 +12219,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>9.6</v>
+        <v>3.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12242,14 +12257,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 213-2025</t>
+          <t>A 11452-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45660</v>
+        <v>45372</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12261,8 +12276,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12299,14 +12319,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 24755-2025</t>
+          <t>A 49311-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45799.37452546296</v>
+        <v>45595</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12324,7 +12344,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12361,14 +12381,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 25001-2025</t>
+          <t>A 24846-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45799.61962962963</v>
+        <v>44728</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12380,13 +12400,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>21.6</v>
+        <v>2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12423,14 +12438,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 24773-2025</t>
+          <t>A 8269-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45799.40483796296</v>
+        <v>45708</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12442,13 +12457,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12485,14 +12495,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 24820-2025</t>
+          <t>A 13047-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45799.45188657408</v>
+        <v>44272.29149305556</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12504,13 +12514,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12547,14 +12552,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 24836-2025</t>
+          <t>A 62001-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45799.46241898148</v>
+        <v>45654</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12572,7 +12577,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12609,14 +12614,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 24826-2025</t>
+          <t>A 16714-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45799.45670138889</v>
+        <v>45754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12634,7 +12639,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12671,14 +12676,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 25720-2025</t>
+          <t>A 41214-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45803.70553240741</v>
+        <v>45174</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12696,7 +12701,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>51.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12733,14 +12738,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 25723-2025</t>
+          <t>A 26230-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45803.7121412037</v>
+        <v>45468</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12758,7 +12763,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12795,14 +12800,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 25727-2025</t>
+          <t>A 62069-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45803.71775462963</v>
+        <v>45656</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12820,7 +12825,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12857,14 +12862,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 27388-2025</t>
+          <t>A 8639-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45812.67489583333</v>
+        <v>45711.87692129629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12876,13 +12881,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>8.4</v>
+        <v>4.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12919,14 +12919,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 28017-2025</t>
+          <t>A 41325-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45817.61508101852</v>
+        <v>45174.65024305556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>7.3</v>
+        <v>3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12981,14 +12981,14 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 28255-2025</t>
+          <t>A 22063-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45818.54848379629</v>
+        <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -653,14 +653,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 23023-2025</t>
+          <t>A 43407-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45790</v>
+        <v>44834</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -712,45 +712,49 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 23023-2025 artfynd.xlsx", "A 23023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 43407-2022 artfynd.xlsx", "A 43407-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 23023-2025 karta.png", "A 23023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 43407-2022 karta.png", "A 43407-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 23023-2025 FSC-klagomål.docx", "A 23023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 43407-2022 FSC-klagomål.docx", "A 43407-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 23023-2025 FSC-klagomål mail.docx", "A 23023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 43407-2022 FSC-klagomål mail.docx", "A 43407-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 23023-2025 tillsynsbegäran.docx", "A 23023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 43407-2022 tillsynsbegäran.docx", "A 43407-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 23023-2025 tillsynsbegäran mail.docx", "A 23023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 43407-2022 tillsynsbegäran mail.docx", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/fåglar/A 43407-2022 prioriterade fågelarter.docx", "A 43407-2022")</f>
         <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 43407-2022</t>
+          <t>A 16786-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44834</v>
+        <v>45754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -768,17 +772,17 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -792,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -802,35 +806,31 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 43407-2022 artfynd.xlsx", "A 43407-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 43407-2022 karta.png", "A 43407-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 43407-2022 FSC-klagomål.docx", "A 43407-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 43407-2022 FSC-klagomål mail.docx", "A 43407-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 43407-2022 tillsynsbegäran.docx", "A 43407-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 43407-2022 tillsynsbegäran mail.docx", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/fåglar/A 43407-2022 prioriterade fågelarter.docx", "A 43407-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
         <v/>
       </c>
     </row>
@@ -844,7 +844,7 @@
         <v>45841.53921296296</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,14 +927,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 2540-2026</t>
+          <t>A 46376-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>46037.45690972222</v>
+        <v>45197.46416666666</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -946,16 +946,11 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -986,294 +981,299 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 46376-2023 artfynd.xlsx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 46376-2023 karta.png", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 46376-2023 FSC-klagomål.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 46376-2023 FSC-klagomål mail.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 46376-2023 tillsynsbegäran.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 46376-2023 tillsynsbegäran mail.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 8048-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44243</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Korallblylav</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 8048-2021 artfynd.xlsx", "A 8048-2021")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 8048-2021 karta.png", "A 8048-2021")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 8048-2021 FSC-klagomål.docx", "A 8048-2021")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 8048-2021 FSC-klagomål mail.docx", "A 8048-2021")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 8048-2021 tillsynsbegäran.docx", "A 8048-2021")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 8048-2021 tillsynsbegäran mail.docx", "A 8048-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 23023-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45790</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 23023-2025 artfynd.xlsx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 23023-2025 karta.png", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 23023-2025 FSC-klagomål.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 23023-2025 FSC-klagomål mail.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 23023-2025 tillsynsbegäran.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 23023-2025 tillsynsbegäran mail.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 2540-2026</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46037.45690972222</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Utter</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 2540-2026 artfynd.xlsx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 2540-2026 karta.png", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 2540-2026 FSC-klagomål.docx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 2540-2026 FSC-klagomål mail.docx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 2540-2026 tillsynsbegäran.docx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 2540-2026 tillsynsbegäran mail.docx", "A 2540-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 16786-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45754</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 46376-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45197.46416666666</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 46376-2023 artfynd.xlsx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 46376-2023 karta.png", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 46376-2023 FSC-klagomål.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 46376-2023 FSC-klagomål mail.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 46376-2023 tillsynsbegäran.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 46376-2023 tillsynsbegäran mail.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 8048-2021</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44243</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Korallblylav</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 8048-2021 artfynd.xlsx", "A 8048-2021")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 8048-2021 karta.png", "A 8048-2021")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 8048-2021 FSC-klagomål.docx", "A 8048-2021")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 8048-2021 FSC-klagomål mail.docx", "A 8048-2021")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 8048-2021 tillsynsbegäran.docx", "A 8048-2021")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 8048-2021 tillsynsbegäran mail.docx", "A 8048-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44797</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44490.4119212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44335.38469907407</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44512</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1691,14 +1691,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 51171-2022</t>
+          <t>A 35084-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44868</v>
+        <v>44797.39523148148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,13 +1710,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1753,14 +1748,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35084-2022</t>
+          <t>A 51171-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44797.39523148148</v>
+        <v>44868</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1772,8 +1767,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>44788</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44311</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1924,14 +1924,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 44802-2022</t>
+          <t>A 53398-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44841.37923611111</v>
+        <v>44468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,8 +1943,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1981,14 +1986,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 53398-2021</t>
+          <t>A 44802-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44468</v>
+        <v>44841.37923611111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,13 +2005,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2043,14 +2043,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34913-2021</t>
+          <t>A 44783-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44383</v>
+        <v>44841.35112268518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2062,13 +2062,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2105,14 +2100,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 64814-2021</t>
+          <t>A 57734-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44512</v>
+        <v>44484.52479166666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2124,8 +2119,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2162,14 +2162,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 57734-2021</t>
+          <t>A 34913-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44484.52479166666</v>
+        <v>44383</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2183,11 +2183,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2224,14 +2224,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 44783-2022</t>
+          <t>A 23813-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44841.35112268518</v>
+        <v>44335.38092592593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2281,14 +2281,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 23813-2021</t>
+          <t>A 64814-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44335.38092592593</v>
+        <v>44512</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>44299</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 41867-2021</t>
+          <t>A 48591-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44426.31266203704</v>
+        <v>45593.43625</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2452,14 +2452,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22935-2023</t>
+          <t>A 33806-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45072.60810185185</v>
+        <v>45520.60313657407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2509,14 +2509,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 47894-2023</t>
+          <t>A 41867-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45204</v>
+        <v>44426.31266203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2528,13 +2528,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2571,14 +2566,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 33120-2025</t>
+          <t>A 38176-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45840.49384259259</v>
+        <v>45545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2590,13 +2585,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2633,14 +2623,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 11981-2021</t>
+          <t>A 1431-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44266</v>
+        <v>45669</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2643,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2690,14 +2680,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 70761-2021</t>
+          <t>A 48309-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44536</v>
+        <v>44450</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2700,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2747,14 +2737,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 5881-2025</t>
+          <t>A 4744-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45695</v>
+        <v>45688</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2757,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2804,14 +2794,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 57792-2022</t>
+          <t>A 1840-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44897.66182870371</v>
+        <v>44938.67890046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2823,8 +2813,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2861,14 +2856,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 39025-2023</t>
+          <t>A 4998-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45163</v>
+        <v>45329</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2880,13 +2875,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2923,14 +2913,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 13288-2024</t>
+          <t>A 14356-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45386</v>
+        <v>44279.35021990741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2942,13 +2932,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2985,14 +2970,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3455-2025</t>
+          <t>A 49306-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45680.47734953704</v>
+        <v>45595</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,8 +2989,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3042,14 +3032,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28467-2022</t>
+          <t>A 23279-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44747.74592592593</v>
+        <v>45453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3062,7 +3052,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3099,14 +3089,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 54221-2024</t>
+          <t>A 30587-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45616</v>
+        <v>45112.33359953704</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3119,7 +3109,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3156,14 +3146,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 47728-2023</t>
+          <t>A 25498-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45203.68487268518</v>
+        <v>45089.48630787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,8 +3165,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3213,14 +3208,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 39625-2025</t>
+          <t>A 45260-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45890.57746527778</v>
+        <v>45576</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,8 +3227,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>16.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3270,14 +3270,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39623-2025</t>
+          <t>A 2037-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45890.57476851852</v>
+        <v>44939.58351851852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,8 +3289,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3327,14 +3332,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 42015-2025</t>
+          <t>A 57792-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45903.57980324074</v>
+        <v>44897.66182870371</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3347,7 +3352,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3384,14 +3389,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 23808-2021</t>
+          <t>A 70761-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44335.37674768519</v>
+        <v>44536</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3404,7 +3409,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3441,14 +3446,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 12023-2021</t>
+          <t>A 13047-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44266.45105324074</v>
+        <v>44272.29149305556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3461,7 +3466,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3498,14 +3503,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 1431-2025</t>
+          <t>A 26230-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45669</v>
+        <v>45468</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3517,8 +3522,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3555,14 +3565,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53353-2024</t>
+          <t>A 36697-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45614.45392361111</v>
+        <v>45153.63313657408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3574,8 +3584,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3612,14 +3627,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 16645-2025</t>
+          <t>A 54190-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45754</v>
+        <v>45232</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3631,13 +3646,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3674,14 +3684,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 23279-2024</t>
+          <t>A 25727-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45453</v>
+        <v>45803.71775462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3693,8 +3703,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3731,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2352-2023</t>
+          <t>A 29002-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44938</v>
+        <v>45104.64762731481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3751,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3788,14 +3803,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62085-2024</t>
+          <t>A 58586-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45656</v>
+        <v>45635.50215277778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3813,7 +3828,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3850,14 +3865,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 4744-2025</t>
+          <t>A 21929-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45688</v>
+        <v>45068</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3870,7 +3885,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3907,14 +3922,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12839-2025</t>
+          <t>A 47713-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45733.64366898148</v>
+        <v>45588</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3926,13 +3941,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>18.2</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3969,14 +3979,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 35370-2023</t>
+          <t>A 47732-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45146</v>
+        <v>45588.50700231481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,13 +3998,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4031,14 +4036,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 14304-2024</t>
+          <t>A 15442-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45393.66023148148</v>
+        <v>45401.42217592592</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4051,7 +4056,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4088,14 +4093,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 53912-2024</t>
+          <t>A 27388-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45615.72717592592</v>
+        <v>45812.67489583333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,8 +4112,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>8.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4145,14 +4155,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20085-2025</t>
+          <t>A 28017-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45772</v>
+        <v>45817.61508101852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4170,7 +4180,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4207,14 +4217,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 7948-2024</t>
+          <t>A 28255-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45350</v>
+        <v>45818.54848379629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,13 +4236,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4269,14 +4274,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 22341-2025</t>
+          <t>A 53388-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45786</v>
+        <v>45614</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4288,13 +4293,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>34</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4331,14 +4331,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38176-2024</t>
+          <t>A 27092-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45545</v>
+        <v>45811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4388,14 +4388,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 44248-2025</t>
+          <t>A 39998-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45915.69100694444</v>
+        <v>45168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4407,13 +4407,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4450,14 +4445,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49596-2024</t>
+          <t>A 45271-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45596.55828703703</v>
+        <v>45576</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4471,11 +4466,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4512,14 +4507,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 21111-2025</t>
+          <t>A 11981-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45777</v>
+        <v>44266</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4532,7 +4527,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4569,14 +4564,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4494-2025</t>
+          <t>A 12023-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45686</v>
+        <v>44266.45105324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4589,7 +4584,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4626,14 +4621,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14605-2024</t>
+          <t>A 8639-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45396</v>
+        <v>45711.87692129629</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4645,13 +4640,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>9.6</v>
+        <v>4.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4688,14 +4678,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 213-2025</t>
+          <t>A 7948-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45660</v>
+        <v>45350</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,8 +4697,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4745,14 +4740,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 24773-2025</t>
+          <t>A 12824-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45799.40483796296</v>
+        <v>45733</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,13 +4759,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4807,14 +4797,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 54190-2023</t>
+          <t>A 6856-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45232</v>
+        <v>45700</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4826,8 +4816,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4864,14 +4859,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 24755-2025</t>
+          <t>A 3721-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45799.37452546296</v>
+        <v>45681</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4883,13 +4878,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>6.3</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4926,14 +4916,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 24826-2025</t>
+          <t>A 22935-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45799.45670138889</v>
+        <v>45072.60810185185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4945,13 +4935,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4988,14 +4973,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24820-2025</t>
+          <t>A 53353-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45799.45188657408</v>
+        <v>45614.45392361111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5007,13 +4992,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5050,14 +5030,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24836-2025</t>
+          <t>A 2342-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45799.46241898148</v>
+        <v>44938</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5069,13 +5049,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5112,14 +5087,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25001-2025</t>
+          <t>A 2363-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45799.61962962963</v>
+        <v>44938</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5131,13 +5106,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>21.6</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5174,14 +5144,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25727-2025</t>
+          <t>A 28466-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45803.71775462963</v>
+        <v>44747.74182870371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5193,13 +5163,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5236,14 +5201,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 25723-2025</t>
+          <t>A 20725-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45803.7121412037</v>
+        <v>45058.47887731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5261,7 +5226,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>14.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5298,14 +5263,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25720-2025</t>
+          <t>A 49311-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45803.70553240741</v>
+        <v>45595</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5323,7 +5288,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5360,14 +5325,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 19324-2022</t>
+          <t>A 57209-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44692.5990625</v>
+        <v>44895.64663194444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5379,8 +5344,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5417,14 +5387,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41479-2024</t>
+          <t>A 2525-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45560</v>
+        <v>45674.60668981481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5436,13 +5406,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5479,14 +5444,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29002-2023</t>
+          <t>A 487-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45104.64762731481</v>
+        <v>44930.29883101852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5499,7 +5464,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>7.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5536,14 +5501,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45479-2025</t>
+          <t>A 12132-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45922.53091435185</v>
+        <v>45729</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5557,11 +5522,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.3</v>
+        <v>24.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5598,14 +5563,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 15152-2022</t>
+          <t>A 47894-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44658.46916666667</v>
+        <v>45204</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5617,8 +5582,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5655,14 +5625,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 47732-2024</t>
+          <t>A 47624-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45588.50700231481</v>
+        <v>45203.51826388889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5674,8 +5644,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5712,14 +5687,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 27388-2025</t>
+          <t>A 8269-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45812.67489583333</v>
+        <v>45708</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5731,13 +5706,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>8.4</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5774,14 +5744,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28017-2025</t>
+          <t>A 41479-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45817.61508101852</v>
+        <v>45560</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,11 +5765,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5836,14 +5806,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27092-2025</t>
+          <t>A 13795-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45811</v>
+        <v>45007</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5855,8 +5825,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5893,14 +5868,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28255-2025</t>
+          <t>A 3455-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45818.54848379629</v>
+        <v>45680.47734953704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5888,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5950,14 +5925,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 6856-2025</t>
+          <t>A 4494-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45700</v>
+        <v>45686</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5969,13 +5944,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6012,14 +5982,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46860-2025</t>
+          <t>A 19324-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45929</v>
+        <v>44692.5990625</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6002,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6069,14 +6039,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46612-2025</t>
+          <t>A 54738-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45926</v>
+        <v>45236</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6090,11 +6060,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>11.1</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6131,14 +6101,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12482-2025</t>
+          <t>A 26189-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45730</v>
+        <v>45468</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6156,7 +6126,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6193,14 +6163,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 36697-2023</t>
+          <t>A 41325-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45153.63313657408</v>
+        <v>45174.65024305556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,11 +6184,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6255,14 +6225,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 15442-2024</t>
+          <t>A 25760-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45401.42217592592</v>
+        <v>45804</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6275,7 +6245,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>9.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6312,14 +6282,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52834-2023</t>
+          <t>A 35430-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45226.41116898148</v>
+        <v>45855.4414699074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6331,13 +6301,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6374,14 +6339,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 20725-2023</t>
+          <t>A 8613-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45058.47887731482</v>
+        <v>45355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6395,11 +6360,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>14.9</v>
+        <v>5.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6436,14 +6401,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13795-2023</t>
+          <t>A 35431-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45007</v>
+        <v>45855.44628472222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6455,13 +6420,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6498,14 +6458,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26201-2024</t>
+          <t>A 35427-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45468</v>
+        <v>45855</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,13 +6477,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>25.4</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6560,14 +6515,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57209-2022</t>
+          <t>A 5881-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44895.64663194444</v>
+        <v>45695</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6579,13 +6534,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>6.3</v>
+        <v>3.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6622,14 +6572,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 26189-2024</t>
+          <t>A 62085-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45468</v>
+        <v>45656</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6597,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6684,14 +6634,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7072-2023</t>
+          <t>A 16645-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44969.95028935185</v>
+        <v>45754</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6659,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6746,14 +6696,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11290-2025</t>
+          <t>A 33143-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45726.4278587963</v>
+        <v>45840.52465277778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6765,8 +6715,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6803,14 +6758,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25760-2025</t>
+          <t>A 33273-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45804</v>
+        <v>45840.68797453704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6822,8 +6777,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>9.4</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6860,14 +6820,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 35430-2025</t>
+          <t>A 53202-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45855.4414699074</v>
+        <v>45229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6880,7 +6840,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>7.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6917,14 +6877,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 35427-2025</t>
+          <t>A 49101-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45855</v>
+        <v>45594.64802083333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6936,8 +6896,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>14.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6974,14 +6939,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 35431-2025</t>
+          <t>A 37145-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45855.44628472222</v>
+        <v>45875.56288194445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6994,7 +6959,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7031,14 +6996,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8613-2024</t>
+          <t>A 45154-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45355</v>
+        <v>45191</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7050,13 +7015,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7093,14 +7053,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 13636-2024</t>
+          <t>A 26201-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45390</v>
+        <v>45468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7112,8 +7072,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>25.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7150,14 +7115,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 39998-2023</t>
+          <t>A 11290-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45168</v>
+        <v>45726.4278587963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7170,7 +7135,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7207,14 +7172,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 45260-2024</t>
+          <t>A 227-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45576</v>
+        <v>45660</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7226,13 +7191,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>16.3</v>
+        <v>5.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7269,14 +7229,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 54738-2023</t>
+          <t>A 30266-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45236</v>
+        <v>45827</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7288,13 +7248,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>7.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7331,14 +7286,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 49101-2024</t>
+          <t>A 23808-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45594.64802083333</v>
+        <v>44335.37674768519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7350,13 +7305,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>14.1</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7393,14 +7343,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 33273-2025</t>
+          <t>A 52834-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45840.68797453704</v>
+        <v>45226.41116898148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7418,7 +7368,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7455,14 +7405,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33143-2025</t>
+          <t>A 12482-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45840.52465277778</v>
+        <v>45730</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7480,7 +7430,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7517,14 +7467,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 57981-2022</t>
+          <t>A 37716-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44900.47692129629</v>
+        <v>45881</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,13 +7486,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7579,14 +7524,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 37145-2025</t>
+          <t>A 11452-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45875.56288194445</v>
+        <v>45372</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,8 +7543,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7636,14 +7586,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 58125-2022</t>
+          <t>A 12839-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44900.67206018518</v>
+        <v>45733.64366898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,8 +7605,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>3.4</v>
+        <v>18.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7693,14 +7648,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 30266-2025</t>
+          <t>A 16714-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45827</v>
+        <v>45754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,8 +7667,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>7.3</v>
+        <v>5.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7750,14 +7710,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3721-2025</t>
+          <t>A 15997-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45681</v>
+        <v>45749</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,8 +7729,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7807,14 +7772,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 37716-2025</t>
+          <t>A 17756-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45881</v>
+        <v>45037.4796412037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7827,7 +7792,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.5</v>
+        <v>8.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7864,14 +7829,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 25498-2023</t>
+          <t>A 28467-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45089.48630787037</v>
+        <v>44747.74592592593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,13 +7848,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7933,7 +7893,7 @@
         <v>45883.46224537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7983,14 +7943,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 3452-2025</t>
+          <t>A 7072-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45680.4753125</v>
+        <v>44969.95028935185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8002,8 +7962,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8040,14 +8005,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 4998-2024</t>
+          <t>A 58125-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45329</v>
+        <v>44900.67206018518</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8025,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8097,14 +8062,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 52908-2025</t>
+          <t>A 16359-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45957</v>
+        <v>45028.72045138889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8082,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8154,14 +8119,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52905-2025</t>
+          <t>A 47728-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45957</v>
+        <v>45203.68487268518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8139,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8211,14 +8176,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 53217-2025</t>
+          <t>A 57981-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45958.59952546296</v>
+        <v>44900.47692129629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8232,11 +8197,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>10.1</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8273,14 +8238,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53205-2025</t>
+          <t>A 12819-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45958.5859375</v>
+        <v>45733</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8292,13 +8257,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>9.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8335,14 +8295,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 53317-2025</t>
+          <t>A 59449-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45959.35413194444</v>
+        <v>44907.40783564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8354,13 +8314,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8397,14 +8352,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 28466-2022</t>
+          <t>A 24846-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44747.74182870371</v>
+        <v>44728</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8417,7 +8372,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8454,14 +8409,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 14356-2021</t>
+          <t>A 33120-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44279.35021990741</v>
+        <v>45840.49384259259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8473,8 +8428,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8511,14 +8471,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 53990-2025</t>
+          <t>A 3452-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45961.57934027778</v>
+        <v>45680.4753125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8530,13 +8490,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8573,14 +8528,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 33806-2024</t>
+          <t>A 54221-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45520.60313657407</v>
+        <v>45616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8593,7 +8548,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8630,14 +8585,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47713-2024</t>
+          <t>A 39625-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45588</v>
+        <v>45890.57746527778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8650,7 +8605,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8687,14 +8642,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 52922-2025</t>
+          <t>A 39623-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45957</v>
+        <v>45890.57476851852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8707,7 +8662,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8744,14 +8699,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47624-2023</t>
+          <t>A 13636-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45203.51826388889</v>
+        <v>45390</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8763,13 +8718,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8806,14 +8756,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 55234-2025</t>
+          <t>A 20085-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45968.61171296296</v>
+        <v>45772</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8781,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8868,14 +8818,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 15997-2025</t>
+          <t>A 15152-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45749</v>
+        <v>44658.46916666667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,13 +8837,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8930,14 +8875,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 55576-2025</t>
+          <t>A 2352-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45971.66637731482</v>
+        <v>44938</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8949,13 +8894,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8992,14 +8932,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55818-2025</t>
+          <t>A 41214-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45972</v>
+        <v>45174</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9011,8 +8951,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>51.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9049,14 +8994,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 56525-2025</t>
+          <t>A 39025-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45975.46569444444</v>
+        <v>45163</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,11 +9015,11 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9111,14 +9056,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56206-2025</t>
+          <t>A 42015-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45974.47096064815</v>
+        <v>45903.57980324074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,13 +9075,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>4.4</v>
+        <v>8.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9173,14 +9113,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56303-2025</t>
+          <t>A 22063-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45974.60728009259</v>
+        <v>44323</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,13 +9132,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>10.8</v>
+        <v>2.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9235,14 +9170,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 12132-2025</t>
+          <t>A 21942-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45729</v>
+        <v>45443</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9254,13 +9189,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>24.9</v>
+        <v>4.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9297,14 +9227,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 2037-2023</t>
+          <t>A 44248-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44939.58351851852</v>
+        <v>45915.69100694444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9252,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9359,14 +9289,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 21929-2023</t>
+          <t>A 62001-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45068</v>
+        <v>45654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9378,8 +9308,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9416,14 +9351,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 57765-2025</t>
+          <t>A 62069-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45981.55736111111</v>
+        <v>45656</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9441,7 +9376,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>19.8</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9478,14 +9413,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 59449-2022</t>
+          <t>A 13288-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44907.40783564815</v>
+        <v>45386</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9497,8 +9432,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9535,14 +9475,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58451-2025</t>
+          <t>A 45479-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45985.62826388889</v>
+        <v>45922.53091435185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9556,11 +9496,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>14.1</v>
+        <v>6.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9597,14 +9537,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 45154-2023</t>
+          <t>A 46612-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45191</v>
+        <v>45926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9616,8 +9556,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>11.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9654,14 +9599,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 17756-2023</t>
+          <t>A 46860-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45037.4796412037</v>
+        <v>45929</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9674,7 +9619,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9711,14 +9656,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 16359-2023</t>
+          <t>A 53912-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45028.72045138889</v>
+        <v>45615.72717592592</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9676,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9768,14 +9713,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 53202-2023</t>
+          <t>A 35370-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45229</v>
+        <v>45146</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9787,8 +9732,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9825,14 +9775,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 49306-2024</t>
+          <t>A 14304-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45595</v>
+        <v>45393.66023148148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9844,13 +9794,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9887,14 +9832,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 60315-2025</t>
+          <t>A 22341-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45994.70884259259</v>
+        <v>45786</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9906,8 +9851,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9944,14 +9894,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 60511-2025</t>
+          <t>A 49596-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45995.63336805555</v>
+        <v>45596.55828703703</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9963,8 +9913,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10001,14 +9956,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 21942-2024</t>
+          <t>A 21111-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45443</v>
+        <v>45777</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10021,7 +9976,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10058,14 +10013,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58586-2024</t>
+          <t>A 14605-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45635.50215277778</v>
+        <v>45396</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10083,7 +10038,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.1</v>
+        <v>9.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10120,14 +10075,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61328-2025</t>
+          <t>A 53205-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46001.32983796296</v>
+        <v>45958.5859375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10145,7 +10100,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10182,14 +10137,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 61149-2025</t>
+          <t>A 52908-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46000.53810185185</v>
+        <v>45957</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10201,13 +10156,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10244,14 +10194,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61123-2025</t>
+          <t>A 52905-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46000.46875</v>
+        <v>45957</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10263,13 +10213,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10306,14 +10251,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 12819-2025</t>
+          <t>A 213-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45733</v>
+        <v>45660</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10326,7 +10271,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10363,14 +10308,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 4455-2026</t>
+          <t>A 53217-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46045.64204861111</v>
+        <v>45958.59952546296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10382,8 +10327,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>2.8</v>
+        <v>10.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10420,14 +10370,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 4868-2026</t>
+          <t>A 53317-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46048.6441550926</v>
+        <v>45959.35413194444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10439,8 +10389,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>10.8</v>
+        <v>6.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10477,14 +10432,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 45271-2024</t>
+          <t>A 52922-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45576</v>
+        <v>45957</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10496,13 +10451,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10539,14 +10489,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 2342-2023</t>
+          <t>A 53990-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44938</v>
+        <v>45961.57934027778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10558,8 +10508,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10596,14 +10551,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 2363-2023</t>
+          <t>A 24755-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44938</v>
+        <v>45799.37452546296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10615,8 +10570,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10653,14 +10613,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 487-2023</t>
+          <t>A 25001-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44930.29883101852</v>
+        <v>45799.61962962963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10672,8 +10632,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>7.3</v>
+        <v>21.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10710,14 +10675,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 12824-2025</t>
+          <t>A 24773-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45733</v>
+        <v>45799.40483796296</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10729,8 +10694,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10767,14 +10737,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 61586-2025</t>
+          <t>A 24820-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46002</v>
+        <v>45799.45188657408</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10792,7 +10762,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10829,14 +10799,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 63472-2025</t>
+          <t>A 24836-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46013.44269675926</v>
+        <v>45799.46241898148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10848,8 +10818,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10886,14 +10861,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 63469-2025</t>
+          <t>A 24826-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46013.43326388889</v>
+        <v>45799.45670138889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10905,8 +10880,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10943,14 +10923,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 63572-2025</t>
+          <t>A 25720-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46013.66006944444</v>
+        <v>45803.70553240741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10964,11 +10944,11 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11005,14 +10985,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 7028-2026</t>
+          <t>A 25723-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46057.67555555556</v>
+        <v>45803.7121412037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11024,8 +11004,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11062,14 +11047,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 7444-2026</t>
+          <t>A 55234-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46059.45729166667</v>
+        <v>45968.61171296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11081,8 +11066,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11119,14 +11109,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 7447-2026</t>
+          <t>A 55576-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46059.46265046296</v>
+        <v>45971.66637731482</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11138,8 +11128,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11176,14 +11171,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 1840-2023</t>
+          <t>A 55818-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44938.67890046296</v>
+        <v>45972</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11195,13 +11190,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11238,14 +11228,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 7427-2026</t>
+          <t>A 56206-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46059.43177083333</v>
+        <v>45974.47096064815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11257,8 +11247,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11295,14 +11290,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 227-2025</t>
+          <t>A 56303-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45660</v>
+        <v>45974.60728009259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11314,8 +11309,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>5.3</v>
+        <v>10.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11352,14 +11352,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 35350-2025</t>
+          <t>A 56525-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45854.63583333333</v>
+        <v>45975.46569444444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11414,14 +11414,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 62987-2025</t>
+          <t>A 57765-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46009.4962037037</v>
+        <v>45981.55736111111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,11 +11435,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>19.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11476,14 +11476,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 61129-2025</t>
+          <t>A 58451-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46000.48585648148</v>
+        <v>45985.62826388889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.5</v>
+        <v>14.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11538,14 +11538,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59146-2025</t>
+          <t>A 60315-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45988.52269675926</v>
+        <v>45994.70884259259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11557,13 +11557,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>9.9</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11600,14 +11595,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 55787-2025</t>
+          <t>A 60511-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45972.64469907407</v>
+        <v>45995.63336805555</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11619,13 +11614,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>12.9</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11662,14 +11652,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 59466-2025</t>
+          <t>A 61123-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45989.58049768519</v>
+        <v>46000.46875</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11683,11 +11673,11 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11724,14 +11714,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 49580-2025</t>
+          <t>A 61149-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45939.49743055556</v>
+        <v>46000.53810185185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11745,11 +11735,11 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11786,14 +11776,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 63080-2025</t>
+          <t>A 61328-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46009.66688657407</v>
+        <v>46001.32983796296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11807,11 +11797,11 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.9</v>
+        <v>8.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11848,14 +11838,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 12252-2025</t>
+          <t>A 4868-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45729</v>
+        <v>46048.6441550926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11867,13 +11857,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>14.5</v>
+        <v>10.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11910,14 +11895,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 48591-2024</t>
+          <t>A 4455-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45593.43625</v>
+        <v>46045.64204861111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11930,7 +11915,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11967,14 +11952,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 44178-2025</t>
+          <t>A 61586-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45915.60693287037</v>
+        <v>46002</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11992,7 +11977,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>10.6</v>
+        <v>4.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12029,14 +12014,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2525-2025</t>
+          <t>A 63469-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45674.60668981481</v>
+        <v>46013.43326388889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12049,7 +12034,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12086,14 +12071,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 30587-2023</t>
+          <t>A 63572-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45112.33359953704</v>
+        <v>46013.66006944444</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12105,8 +12090,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12143,14 +12133,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 53388-2024</t>
+          <t>A 63472-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45614</v>
+        <v>46013.44269675926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12163,7 +12153,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12200,14 +12190,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 48309-2021</t>
+          <t>A 7028-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44450</v>
+        <v>46057.67555555556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12220,7 +12210,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12257,14 +12247,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 11452-2024</t>
+          <t>A 35350-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45372</v>
+        <v>45854.63583333333</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12282,7 +12272,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12319,14 +12309,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 49311-2024</t>
+          <t>A 7444-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45595</v>
+        <v>46059.45729166667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12338,13 +12328,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>7.8</v>
+        <v>1.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12381,14 +12366,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 24846-2022</t>
+          <t>A 7447-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44728</v>
+        <v>46059.46265046296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12401,7 +12386,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12438,14 +12423,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 8269-2025</t>
+          <t>A 61129-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45708</v>
+        <v>46000.48585648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12457,8 +12442,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12495,14 +12485,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 13047-2021</t>
+          <t>A 59466-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44272.29149305556</v>
+        <v>45989.58049768519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12514,8 +12504,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12552,14 +12547,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62001-2024</t>
+          <t>A 55787-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45654</v>
+        <v>45972.64469907407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12577,7 +12572,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5.5</v>
+        <v>12.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12614,14 +12609,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 16714-2025</t>
+          <t>A 62987-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45754</v>
+        <v>46009.4962037037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12635,11 +12630,11 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12676,14 +12671,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 41214-2023</t>
+          <t>A 12252-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45174</v>
+        <v>45729</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12701,7 +12696,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>51.6</v>
+        <v>14.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12738,14 +12733,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 26230-2024</t>
+          <t>A 7427-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45468</v>
+        <v>46059.43177083333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12757,13 +12752,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12800,14 +12790,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 62069-2024</t>
+          <t>A 63080-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45656</v>
+        <v>46009.66688657407</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12821,11 +12811,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12862,14 +12852,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 8639-2025</t>
+          <t>A 44178-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45711.87692129629</v>
+        <v>45915.60693287037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12881,8 +12871,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>4.1</v>
+        <v>10.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12919,14 +12914,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 41325-2023</t>
+          <t>A 59146-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45174.65024305556</v>
+        <v>45988.52269675926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12944,7 +12939,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3</v>
+        <v>9.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12981,14 +12976,14 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 22063-2021</t>
+          <t>A 49580-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44323</v>
+        <v>45939.49743055556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13000,8 +12995,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44834</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,14 +747,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 16786-2025</t>
+          <t>A 33518-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45754</v>
+        <v>45841.53921296296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -806,135 +806,135 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Skogsklocka</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 33518-2025 artfynd.xlsx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 33518-2025 karta.png", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 33518-2025 FSC-klagomål.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 33518-2025 FSC-klagomål mail.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 33518-2025 tillsynsbegäran.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 33518-2025 tillsynsbegäran mail.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 16786-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 33518-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45841.53921296296</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 33518-2025 artfynd.xlsx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 33518-2025 karta.png", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 33518-2025 FSC-klagomål.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 33518-2025 FSC-klagomål mail.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 33518-2025 tillsynsbegäran.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 33518-2025 tillsynsbegäran mail.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 46376-2023</t>
+          <t>A 2540-2026</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45197.46416666666</v>
+        <v>46037.45690972222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -946,11 +946,16 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -981,299 +986,294 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Utter</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 2540-2026 artfynd.xlsx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 2540-2026 karta.png", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 2540-2026 FSC-klagomål.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 2540-2026 FSC-klagomål mail.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 2540-2026 tillsynsbegäran.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 2540-2026 tillsynsbegäran mail.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 46376-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45197.46416666666</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 46376-2023 artfynd.xlsx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 46376-2023 karta.png", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 46376-2023 FSC-klagomål.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 46376-2023 FSC-klagomål mail.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 46376-2023 tillsynsbegäran.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 46376-2023 tillsynsbegäran mail.docx", "A 46376-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 8048-2021</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>44243</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>11.1</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Korallblylav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 8048-2021 artfynd.xlsx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 8048-2021 karta.png", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 8048-2021 FSC-klagomål.docx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 8048-2021 FSC-klagomål mail.docx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 8048-2021 tillsynsbegäran.docx", "A 8048-2021")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 8048-2021 tillsynsbegäran mail.docx", "A 8048-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 23023-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45790</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>2.3</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 23023-2025 artfynd.xlsx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 23023-2025 karta.png", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 23023-2025 FSC-klagomål.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 23023-2025 FSC-klagomål mail.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 23023-2025 tillsynsbegäran.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 23023-2025 tillsynsbegäran mail.docx", "A 23023-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 2540-2026</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>46037.45690972222</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Utter</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 2540-2026 artfynd.xlsx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 2540-2026 karta.png", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 2540-2026 FSC-klagomål.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 2540-2026 FSC-klagomål mail.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 2540-2026 tillsynsbegäran.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 2540-2026 tillsynsbegäran mail.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44797</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>44490.4119212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44335.38469907407</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44512</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>44797.39523148148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44868</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44788</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44311</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44841.37923611111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2043,14 +2043,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 44783-2022</t>
+          <t>A 34913-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44841.35112268518</v>
+        <v>44383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2062,8 +2062,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2100,14 +2105,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 57734-2021</t>
+          <t>A 64814-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44484.52479166666</v>
+        <v>44512</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2119,13 +2124,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2162,14 +2162,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34913-2021</t>
+          <t>A 57734-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44383</v>
+        <v>44484.52479166666</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2183,11 +2183,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2224,14 +2224,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 23813-2021</t>
+          <t>A 44783-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44335.38092592593</v>
+        <v>44841.35112268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2281,14 +2281,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 64814-2021</t>
+          <t>A 23813-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44512</v>
+        <v>44335.38092592593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>44299</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48591-2024</t>
+          <t>A 41867-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45593.43625</v>
+        <v>44426.31266203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2452,14 +2452,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 33806-2024</t>
+          <t>A 22935-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45520.60313657407</v>
+        <v>45072.60810185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2509,14 +2509,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 41867-2021</t>
+          <t>A 70761-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44426.31266203704</v>
+        <v>44536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2566,14 +2566,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 38176-2024</t>
+          <t>A 5881-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45545</v>
+        <v>45695</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2623,14 +2623,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 1431-2025</t>
+          <t>A 3455-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45669</v>
+        <v>45680.47734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2680,14 +2680,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 48309-2021</t>
+          <t>A 47728-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44450</v>
+        <v>45203.68487268518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 4744-2025</t>
+          <t>A 12023-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45688</v>
+        <v>44266.45105324074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1840-2023</t>
+          <t>A 1431-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44938.67890046296</v>
+        <v>45669</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2813,13 +2813,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2856,14 +2851,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 4998-2024</t>
+          <t>A 2352-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45329</v>
+        <v>44938</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2876,7 +2871,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2913,14 +2908,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14356-2021</t>
+          <t>A 21111-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44279.35021990741</v>
+        <v>45777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2933,7 +2928,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2970,14 +2965,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 49306-2024</t>
+          <t>A 62085-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45595</v>
+        <v>45656</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2990,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3032,14 +3027,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 23279-2024</t>
+          <t>A 4744-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45453</v>
+        <v>45688</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3047,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3089,14 +3084,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 30587-2023</t>
+          <t>A 12839-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45112.33359953704</v>
+        <v>45733.64366898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3108,8 +3103,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>18.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3146,14 +3146,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 25498-2023</t>
+          <t>A 7444-2026</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45089.48630787037</v>
+        <v>46059.45729166667</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3165,13 +3165,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3208,14 +3203,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 45260-2024</t>
+          <t>A 7447-2026</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45576</v>
+        <v>46059.46265046296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3227,13 +3222,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>16.3</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3270,14 +3260,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2037-2023</t>
+          <t>A 14605-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44939.58351851852</v>
+        <v>45396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3291,11 +3281,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>9.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3332,14 +3322,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 57792-2022</t>
+          <t>A 213-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44897.66182870371</v>
+        <v>45660</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3352,7 +3342,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3389,14 +3379,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 70761-2021</t>
+          <t>A 20085-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44536</v>
+        <v>45772</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3408,8 +3398,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3446,14 +3441,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 13047-2021</t>
+          <t>A 7948-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44272.29149305556</v>
+        <v>45350</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3465,8 +3460,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3503,14 +3503,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 26230-2024</t>
+          <t>A 24773-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45468</v>
+        <v>45799.40483796296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3565,14 +3565,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 36697-2023</t>
+          <t>A 7427-2026</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45153.63313657408</v>
+        <v>46059.43177083333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,13 +3584,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3627,14 +3622,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 54190-2023</t>
+          <t>A 33120-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45232</v>
+        <v>45840.49384259259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,8 +3641,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3684,14 +3684,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 25727-2025</t>
+          <t>A 24755-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45803.71775462963</v>
+        <v>45799.37452546296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.9</v>
+        <v>6.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 29002-2023</t>
+          <t>A 24826-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45104.64762731481</v>
+        <v>45799.45670138889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,8 +3765,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3808,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58586-2024</t>
+          <t>A 24820-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45635.50215277778</v>
+        <v>45799.45188657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3828,7 +3833,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3865,14 +3870,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 21929-2023</t>
+          <t>A 24836-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45068</v>
+        <v>45799.46241898148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3884,8 +3889,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3922,14 +3932,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47713-2024</t>
+          <t>A 38176-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45588</v>
+        <v>45545</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3942,7 +3952,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3979,14 +3989,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 47732-2024</t>
+          <t>A 25001-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45588.50700231481</v>
+        <v>45799.61962962963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3998,8 +4008,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>21.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4036,14 +4051,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 15442-2024</t>
+          <t>A 35350-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45401.42217592592</v>
+        <v>45854.63583333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4055,8 +4070,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4093,14 +4113,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 27388-2025</t>
+          <t>A 25727-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45812.67489583333</v>
+        <v>45803.71775462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4118,7 +4138,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8.4</v>
+        <v>3.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4155,14 +4175,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28017-2025</t>
+          <t>A 62987-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45817.61508101852</v>
+        <v>46009.4962037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4176,11 +4196,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4217,14 +4237,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28255-2025</t>
+          <t>A 61129-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45818.54848379629</v>
+        <v>46000.48585648148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4236,8 +4256,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4274,14 +4299,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53388-2024</t>
+          <t>A 25723-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45614</v>
+        <v>45803.7121412037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4293,8 +4318,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4331,14 +4361,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 27092-2025</t>
+          <t>A 25720-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45811</v>
+        <v>45803.70553240741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4350,8 +4380,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4388,14 +4423,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39998-2023</t>
+          <t>A 59146-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45168</v>
+        <v>45988.52269675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4407,8 +4442,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>9.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4445,14 +4485,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45271-2024</t>
+          <t>A 55787-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45576</v>
+        <v>45972.64469907407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4466,11 +4506,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>11</v>
+        <v>12.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4507,14 +4547,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11981-2021</t>
+          <t>A 59466-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44266</v>
+        <v>45989.58049768519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4526,8 +4566,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4564,14 +4609,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 12023-2021</t>
+          <t>A 49580-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44266.45105324074</v>
+        <v>45939.49743055556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4583,8 +4628,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4621,14 +4671,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8639-2025</t>
+          <t>A 63080-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45711.87692129629</v>
+        <v>46009.66688657407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4640,8 +4690,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4678,14 +4733,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 7948-2024</t>
+          <t>A 12252-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45350</v>
+        <v>45729</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4699,11 +4754,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>14.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4740,14 +4795,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12824-2025</t>
+          <t>A 44178-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45733</v>
+        <v>45915.60693287037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4759,8 +4814,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>10.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4797,14 +4857,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6856-2025</t>
+          <t>A 4494-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45700</v>
+        <v>45686</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4816,13 +4876,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4859,14 +4914,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3721-2025</t>
+          <t>A 54190-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45681</v>
+        <v>45232</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,14 +4971,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 22935-2023</t>
+          <t>A 27388-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45072.60810185185</v>
+        <v>45812.67489583333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,8 +4990,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>8.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4973,14 +5033,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 53353-2024</t>
+          <t>A 28017-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45614.45392361111</v>
+        <v>45817.61508101852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,8 +5052,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5030,14 +5095,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 2342-2023</t>
+          <t>A 27092-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44938</v>
+        <v>45811</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5050,7 +5115,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5087,14 +5152,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2363-2023</t>
+          <t>A 19324-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44938</v>
+        <v>44692.5990625</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,14 +5209,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28466-2022</t>
+          <t>A 28255-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44747.74182870371</v>
+        <v>45818.54848379629</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5164,7 +5229,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5201,14 +5266,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20725-2023</t>
+          <t>A 54221-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45058.47887731482</v>
+        <v>45616</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,13 +5285,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>14.9</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5263,14 +5323,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 49311-2024</t>
+          <t>A 41479-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45595</v>
+        <v>45560</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5284,11 +5344,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5325,14 +5385,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57209-2022</t>
+          <t>A 39625-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44895.64663194444</v>
+        <v>45890.57746527778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5344,13 +5404,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5387,14 +5442,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2525-2025</t>
+          <t>A 29002-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45674.60668981481</v>
+        <v>45104.64762731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5407,7 +5462,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5444,14 +5499,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 487-2023</t>
+          <t>A 39623-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44930.29883101852</v>
+        <v>45890.57476851852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5464,7 +5519,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5501,14 +5556,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12132-2025</t>
+          <t>A 15152-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45729</v>
+        <v>44658.46916666667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5520,13 +5575,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>24.9</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5563,14 +5613,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47894-2023</t>
+          <t>A 47732-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45204</v>
+        <v>45588.50700231481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5582,13 +5632,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5625,14 +5670,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 47624-2023</t>
+          <t>A 6856-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45203.51826388889</v>
+        <v>45700</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5650,7 +5695,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5687,14 +5732,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8269-2025</t>
+          <t>A 12482-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45708</v>
+        <v>45730</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5706,8 +5751,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5744,14 +5794,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41479-2024</t>
+          <t>A 36697-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45560</v>
+        <v>45153.63313657408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,11 +5815,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5806,14 +5856,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13795-2023</t>
+          <t>A 26189-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45007</v>
+        <v>45468</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,11 +5877,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5868,14 +5918,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 3455-2025</t>
+          <t>A 15442-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45680.47734953704</v>
+        <v>45401.42217592592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5938,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5925,14 +5975,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4494-2025</t>
+          <t>A 25760-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45686</v>
+        <v>45804</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5945,7 +5995,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>9.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5982,14 +6032,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 19324-2022</t>
+          <t>A 42015-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44692.5990625</v>
+        <v>45903.57980324074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6002,7 +6052,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6039,14 +6089,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 54738-2023</t>
+          <t>A 52834-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45236</v>
+        <v>45226.41116898148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6060,11 +6110,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6101,14 +6151,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26189-2024</t>
+          <t>A 20725-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45468</v>
+        <v>45058.47887731482</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6126,7 +6176,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>14.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6163,14 +6213,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41325-2023</t>
+          <t>A 35430-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45174.65024305556</v>
+        <v>45855.4414699074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6182,13 +6232,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6225,14 +6270,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25760-2025</t>
+          <t>A 35427-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45804</v>
+        <v>45855</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6245,7 +6290,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>9.4</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6282,14 +6327,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 35430-2025</t>
+          <t>A 35431-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45855.4414699074</v>
+        <v>45855.44628472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6302,7 +6347,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6346,7 +6391,7 @@
         <v>45355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6401,14 +6446,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35431-2025</t>
+          <t>A 13795-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45855.44628472222</v>
+        <v>45007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6420,8 +6465,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6458,14 +6508,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 35427-2025</t>
+          <t>A 26201-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45855</v>
+        <v>45468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6477,8 +6527,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>25.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6515,14 +6570,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5881-2025</t>
+          <t>A 57209-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45695</v>
+        <v>44895.64663194444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6534,8 +6589,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6572,14 +6632,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 62085-2024</t>
+          <t>A 49101-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45656</v>
+        <v>45594.64802083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6593,11 +6653,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>14.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6634,14 +6694,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 16645-2025</t>
+          <t>A 33273-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45754</v>
+        <v>45840.68797453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6659,7 +6719,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6703,7 +6763,7 @@
         <v>45840.52465277778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6758,14 +6818,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 33273-2025</t>
+          <t>A 7072-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45840.68797453704</v>
+        <v>44969.95028935185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6783,7 +6843,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6820,14 +6880,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 53202-2023</t>
+          <t>A 37145-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45229</v>
+        <v>45875.56288194445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6840,7 +6900,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6877,14 +6937,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49101-2024</t>
+          <t>A 11290-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45594.64802083333</v>
+        <v>45726.4278587963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6896,13 +6956,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>14.1</v>
+        <v>4.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6939,14 +6994,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37145-2025</t>
+          <t>A 30266-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45875.56288194445</v>
+        <v>45827</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +7014,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6996,14 +7051,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45154-2023</t>
+          <t>A 37716-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45191</v>
+        <v>45881</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7071,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7053,14 +7108,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26201-2024</t>
+          <t>A 44248-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45468</v>
+        <v>45915.69100694444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7074,11 +7129,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>25.4</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7115,14 +7170,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 11290-2025</t>
+          <t>A 38301-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45726.4278587963</v>
+        <v>45883.46224537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7190,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7172,14 +7227,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 227-2025</t>
+          <t>A 13636-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45660</v>
+        <v>45390</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7247,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7229,14 +7284,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 30266-2025</t>
+          <t>A 3452-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45827</v>
+        <v>45680.4753125</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7304,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>7.3</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7286,14 +7341,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 23808-2021</t>
+          <t>A 39998-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44335.37674768519</v>
+        <v>45168</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7361,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7343,14 +7398,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52834-2023</t>
+          <t>A 45260-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45226.41116898148</v>
+        <v>45576</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7364,11 +7419,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.4</v>
+        <v>16.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7405,14 +7460,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 12482-2025</t>
+          <t>A 54738-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45730</v>
+        <v>45236</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7426,11 +7481,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7467,14 +7522,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 37716-2025</t>
+          <t>A 57981-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45881</v>
+        <v>44900.47692129629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7486,8 +7541,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7524,14 +7584,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 11452-2024</t>
+          <t>A 45479-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45372</v>
+        <v>45922.53091435185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,11 +7605,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7586,14 +7646,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12839-2025</t>
+          <t>A 58125-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45733.64366898148</v>
+        <v>44900.67206018518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7605,13 +7665,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>18.2</v>
+        <v>3.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7648,14 +7703,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 16714-2025</t>
+          <t>A 3721-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45754</v>
+        <v>45681</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,13 +7722,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>5.2</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7710,14 +7760,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15997-2025</t>
+          <t>A 46860-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45749</v>
+        <v>45929</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,13 +7779,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7772,14 +7817,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 17756-2023</t>
+          <t>A 46612-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45037.4796412037</v>
+        <v>45926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,8 +7836,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>8.1</v>
+        <v>11.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7829,14 +7879,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28467-2022</t>
+          <t>A 25498-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44747.74592592593</v>
+        <v>45089.48630787037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,8 +7898,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7886,14 +7941,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 38301-2025</t>
+          <t>A 4998-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45883.46224537037</v>
+        <v>45329</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7906,7 +7961,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7943,14 +7998,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7072-2023</t>
+          <t>A 28466-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44969.95028935185</v>
+        <v>44747.74182870371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,13 +8017,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8005,14 +8055,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 58125-2022</t>
+          <t>A 14356-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44900.67206018518</v>
+        <v>44279.35021990741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8025,7 +8075,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8062,14 +8112,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 16359-2023</t>
+          <t>A 33806-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45028.72045138889</v>
+        <v>45520.60313657407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8119,14 +8169,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47728-2023</t>
+          <t>A 47713-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45203.68487268518</v>
+        <v>45588</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8139,7 +8189,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8176,14 +8226,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 57981-2022</t>
+          <t>A 47624-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44900.47692129629</v>
+        <v>45203.51826388889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8197,11 +8247,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8238,14 +8288,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12819-2025</t>
+          <t>A 15997-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45733</v>
+        <v>45749</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,8 +8307,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8295,14 +8350,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 59449-2022</t>
+          <t>A 12132-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44907.40783564815</v>
+        <v>45729</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,8 +8369,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>24.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8352,14 +8412,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 24846-2022</t>
+          <t>A 2037-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44728</v>
+        <v>44939.58351851852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,8 +8431,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8409,14 +8474,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 33120-2025</t>
+          <t>A 21929-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45840.49384259259</v>
+        <v>45068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,13 +8493,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8471,14 +8531,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 3452-2025</t>
+          <t>A 59449-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45680.4753125</v>
+        <v>44907.40783564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8491,7 +8551,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8528,14 +8588,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 54221-2024</t>
+          <t>A 45154-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45616</v>
+        <v>45191</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8548,7 +8608,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8585,14 +8645,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 39625-2025</t>
+          <t>A 17756-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45890.57746527778</v>
+        <v>45037.4796412037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8605,7 +8665,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>8.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8642,14 +8702,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 39623-2025</t>
+          <t>A 52908-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45890.57476851852</v>
+        <v>45957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8662,7 +8722,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8699,14 +8759,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 13636-2024</t>
+          <t>A 52905-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45390</v>
+        <v>45957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8719,7 +8779,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8756,14 +8816,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 20085-2025</t>
+          <t>A 16359-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45772</v>
+        <v>45028.72045138889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8775,13 +8835,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8818,14 +8873,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 15152-2022</t>
+          <t>A 53217-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44658.46916666667</v>
+        <v>45958.59952546296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8837,8 +8892,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>10.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8875,14 +8935,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 2352-2023</t>
+          <t>A 53205-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44938</v>
+        <v>45958.5859375</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8894,8 +8954,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8932,14 +8997,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 41214-2023</t>
+          <t>A 53317-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45174</v>
+        <v>45959.35413194444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +9022,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>51.6</v>
+        <v>6.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8994,14 +9059,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 39025-2023</t>
+          <t>A 53990-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45163</v>
+        <v>45961.57934027778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9015,11 +9080,11 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9056,14 +9121,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 42015-2025</t>
+          <t>A 52922-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45903.57980324074</v>
+        <v>45957</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9076,7 +9141,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9113,14 +9178,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 22063-2021</t>
+          <t>A 53202-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44323</v>
+        <v>45229</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9133,7 +9198,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.5</v>
+        <v>7.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9170,14 +9235,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 21942-2024</t>
+          <t>A 49306-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45443</v>
+        <v>45595</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9189,8 +9254,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9227,14 +9297,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 44248-2025</t>
+          <t>A 55234-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45915.69100694444</v>
+        <v>45968.61171296296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9248,11 +9318,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9289,14 +9359,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 62001-2024</t>
+          <t>A 21942-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45654</v>
+        <v>45443</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,13 +9378,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9351,14 +9416,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 62069-2024</t>
+          <t>A 55576-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45656</v>
+        <v>45971.66637731482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9441,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>8.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9413,14 +9478,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 13288-2024</t>
+          <t>A 58586-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45386</v>
+        <v>45635.50215277778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9434,11 +9499,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9475,14 +9540,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45479-2025</t>
+          <t>A 55818-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45922.53091435185</v>
+        <v>45972</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9494,13 +9559,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9537,14 +9597,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 46612-2025</t>
+          <t>A 56525-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45926</v>
+        <v>45975.46569444444</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9562,7 +9622,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>11.1</v>
+        <v>5.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9599,14 +9659,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 46860-2025</t>
+          <t>A 56206-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45929</v>
+        <v>45974.47096064815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,8 +9678,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9656,14 +9721,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 53912-2024</t>
+          <t>A 56303-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45615.72717592592</v>
+        <v>45974.60728009259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,8 +9740,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>10.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9713,14 +9783,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 35370-2023</t>
+          <t>A 12819-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45146</v>
+        <v>45733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9732,13 +9802,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9775,14 +9840,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 14304-2024</t>
+          <t>A 57765-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45393.66023148148</v>
+        <v>45981.55736111111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,8 +9859,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>19.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9832,14 +9902,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 22341-2025</t>
+          <t>A 58451-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45786</v>
+        <v>45985.62826388889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9857,7 +9927,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>34</v>
+        <v>14.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9894,14 +9964,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49596-2024</t>
+          <t>A 45271-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45596.55828703703</v>
+        <v>45576</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9915,11 +9985,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9956,14 +10026,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 21111-2025</t>
+          <t>A 2342-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45777</v>
+        <v>44938</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9976,7 +10046,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10013,14 +10083,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 14605-2024</t>
+          <t>A 2363-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45396</v>
+        <v>44938</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10032,13 +10102,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>9.6</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10075,14 +10140,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 53205-2025</t>
+          <t>A 487-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45958.5859375</v>
+        <v>44930.29883101852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10094,13 +10159,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>9.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10137,14 +10197,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 52908-2025</t>
+          <t>A 12824-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45957</v>
+        <v>45733</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10157,7 +10217,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10194,14 +10254,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 52905-2025</t>
+          <t>A 60315-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45957</v>
+        <v>45994.70884259259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10214,7 +10274,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10251,14 +10311,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 213-2025</t>
+          <t>A 60511-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45660</v>
+        <v>45995.63336805555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10271,7 +10331,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10308,14 +10368,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 53217-2025</t>
+          <t>A 1840-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45958.59952546296</v>
+        <v>44938.67890046296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,11 +10389,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>10.1</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10370,14 +10430,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 53317-2025</t>
+          <t>A 61328-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45959.35413194444</v>
+        <v>46001.32983796296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10455,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>6.8</v>
+        <v>8.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10432,14 +10492,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 52922-2025</t>
+          <t>A 61149-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45957</v>
+        <v>46000.53810185185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10451,8 +10511,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10489,14 +10554,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 53990-2025</t>
+          <t>A 61123-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45961.57934027778</v>
+        <v>46000.46875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10514,7 +10579,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10551,14 +10616,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 24755-2025</t>
+          <t>A 227-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45799.37452546296</v>
+        <v>45660</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10570,13 +10635,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10613,14 +10673,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 25001-2025</t>
+          <t>A 4455-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45799.61962962963</v>
+        <v>46045.64204861111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10632,13 +10692,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>21.6</v>
+        <v>2.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10675,14 +10730,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 24773-2025</t>
+          <t>A 4868-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45799.40483796296</v>
+        <v>46048.6441550926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10694,13 +10749,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>10.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10737,14 +10787,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 24820-2025</t>
+          <t>A 48591-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45799.45188657408</v>
+        <v>45593.43625</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10756,13 +10806,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10799,14 +10844,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 24836-2025</t>
+          <t>A 2525-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45799.46241898148</v>
+        <v>45674.60668981481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10818,13 +10863,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10861,14 +10901,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 24826-2025</t>
+          <t>A 61586-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45799.45670138889</v>
+        <v>46002</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10886,7 +10926,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10923,14 +10963,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 25720-2025</t>
+          <t>A 63472-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45803.70553240741</v>
+        <v>46013.44269675926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,13 +10982,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10985,14 +11020,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 25723-2025</t>
+          <t>A 30587-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45803.7121412037</v>
+        <v>45112.33359953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11004,13 +11039,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11047,14 +11077,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 55234-2025</t>
+          <t>A 63469-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45968.61171296296</v>
+        <v>46013.43326388889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11066,13 +11096,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11109,14 +11134,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 55576-2025</t>
+          <t>A 63572-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45971.66637731482</v>
+        <v>46013.66006944444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11130,11 +11155,11 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>8.4</v>
+        <v>2.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11171,14 +11196,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 55818-2025</t>
+          <t>A 7028-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45972</v>
+        <v>46057.67555555556</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11191,7 +11216,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11228,14 +11253,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 56206-2025</t>
+          <t>A 53388-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45974.47096064815</v>
+        <v>45614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11247,13 +11272,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11290,14 +11310,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56303-2025</t>
+          <t>A 48309-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45974.60728009259</v>
+        <v>44450</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11309,13 +11329,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>10.8</v>
+        <v>3.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11352,14 +11367,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56525-2025</t>
+          <t>A 11452-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45975.46569444444</v>
+        <v>45372</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11377,7 +11392,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11414,14 +11429,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 57765-2025</t>
+          <t>A 49311-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45981.55736111111</v>
+        <v>45595</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11439,7 +11454,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>19.8</v>
+        <v>7.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11476,14 +11491,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 58451-2025</t>
+          <t>A 24846-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45985.62826388889</v>
+        <v>44728</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11495,13 +11510,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>14.1</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11538,14 +11548,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60315-2025</t>
+          <t>A 8269-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45994.70884259259</v>
+        <v>45708</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11558,7 +11568,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11595,14 +11605,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 60511-2025</t>
+          <t>A 13047-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45995.63336805555</v>
+        <v>44272.29149305556</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11615,7 +11625,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11652,14 +11662,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61123-2025</t>
+          <t>A 62001-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46000.46875</v>
+        <v>45654</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11673,11 +11683,11 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11714,14 +11724,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 61149-2025</t>
+          <t>A 16714-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46000.53810185185</v>
+        <v>45754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11735,11 +11745,11 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11776,14 +11786,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 61328-2025</t>
+          <t>A 41214-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46001.32983796296</v>
+        <v>45174</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11801,7 +11811,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>8.9</v>
+        <v>51.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11838,14 +11848,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4868-2026</t>
+          <t>A 26230-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46048.6441550926</v>
+        <v>45468</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11857,8 +11867,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>10.8</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11895,14 +11910,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4455-2026</t>
+          <t>A 62069-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46045.64204861111</v>
+        <v>45656</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11914,8 +11929,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11952,14 +11972,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 61586-2025</t>
+          <t>A 8639-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46002</v>
+        <v>45711.87692129629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11971,13 +11991,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12014,14 +12029,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 63469-2025</t>
+          <t>A 41325-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46013.43326388889</v>
+        <v>45174.65024305556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12033,8 +12048,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12071,14 +12091,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 63572-2025</t>
+          <t>A 22063-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46013.66006944444</v>
+        <v>44323</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12090,13 +12110,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12133,14 +12148,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 63472-2025</t>
+          <t>A 47894-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46013.44269675926</v>
+        <v>45204</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12152,8 +12167,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12190,14 +12210,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 7028-2026</t>
+          <t>A 11981-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46057.67555555556</v>
+        <v>44266</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12210,7 +12230,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12247,14 +12267,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 35350-2025</t>
+          <t>A 57792-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45854.63583333333</v>
+        <v>44897.66182870371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12266,13 +12286,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12309,14 +12324,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 7444-2026</t>
+          <t>A 39025-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46059.45729166667</v>
+        <v>45163</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12328,8 +12343,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12366,14 +12386,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 7447-2026</t>
+          <t>A 13288-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46059.46265046296</v>
+        <v>45386</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12385,8 +12405,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12423,14 +12448,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 61129-2025</t>
+          <t>A 28467-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46000.48585648148</v>
+        <v>44747.74592592593</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12442,13 +12467,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12485,14 +12505,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 59466-2025</t>
+          <t>A 23808-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45989.58049768519</v>
+        <v>44335.37674768519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12504,13 +12524,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12547,14 +12562,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55787-2025</t>
+          <t>A 53353-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45972.64469907407</v>
+        <v>45614.45392361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12566,13 +12581,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>12.9</v>
+        <v>0.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12609,14 +12619,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 62987-2025</t>
+          <t>A 16645-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46009.4962037037</v>
+        <v>45754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12630,11 +12640,11 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12671,14 +12681,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 12252-2025</t>
+          <t>A 23279-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45729</v>
+        <v>45453</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12690,13 +12700,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>14.5</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12733,14 +12738,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 7427-2026</t>
+          <t>A 35370-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46059.43177083333</v>
+        <v>45146</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12752,8 +12757,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12790,14 +12800,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 63080-2025</t>
+          <t>A 14304-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46009.66688657407</v>
+        <v>45393.66023148148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12809,13 +12819,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12852,14 +12857,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 44178-2025</t>
+          <t>A 53912-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45915.60693287037</v>
+        <v>45615.72717592592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12871,13 +12876,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>10.6</v>
+        <v>1.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12914,14 +12914,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 59146-2025</t>
+          <t>A 22341-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45988.52269675926</v>
+        <v>45786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>9.9</v>
+        <v>34</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12976,14 +12976,14 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 49580-2025</t>
+          <t>A 49596-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45939.49743055556</v>
+        <v>45596.55828703703</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z207"/>
+  <dimension ref="A1:Z206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -653,14 +653,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 43407-2022</t>
+          <t>A 23023-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44834</v>
+        <v>45790</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7.1</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -712,218 +712,218 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 23023-2025 artfynd.xlsx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 23023-2025 karta.png", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 23023-2025 FSC-klagomål.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 23023-2025 FSC-klagomål mail.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 23023-2025 tillsynsbegäran.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 23023-2025 tillsynsbegäran mail.docx", "A 23023-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 43407-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44834</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Orre</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 43407-2022 artfynd.xlsx", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 43407-2022 karta.png", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 43407-2022 FSC-klagomål.docx", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 43407-2022 FSC-klagomål mail.docx", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 43407-2022 tillsynsbegäran.docx", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 43407-2022 tillsynsbegäran mail.docx", "A 43407-2022")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/fåglar/A 43407-2022 prioriterade fågelarter.docx", "A 43407-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 33518-2025</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45841.53921296296</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="C5" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>0.9</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 33518-2025 artfynd.xlsx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 33518-2025 karta.png", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 33518-2025 FSC-klagomål.docx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 33518-2025 FSC-klagomål mail.docx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 33518-2025 tillsynsbegäran.docx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 33518-2025 tillsynsbegäran mail.docx", "A 33518-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 16786-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45754</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>46037.45690972222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,14 +1017,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 46376-2023</t>
+          <t>A 16786-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45197.46416666666</v>
+        <v>45754</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1036,8 +1036,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,126 +1080,126 @@
         </is>
       </c>
       <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 46376-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45197.46416666666</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 46376-2023 artfynd.xlsx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 46376-2023 karta.png", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 46376-2023 FSC-klagomål.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 46376-2023 FSC-klagomål mail.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 46376-2023 tillsynsbegäran.docx", "A 46376-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 46376-2023 tillsynsbegäran mail.docx", "A 46376-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 8048-2021</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44243</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Korallblylav</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 8048-2021 artfynd.xlsx", "A 8048-2021")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 8048-2021 karta.png", "A 8048-2021")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 8048-2021 FSC-klagomål.docx", "A 8048-2021")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 8048-2021 FSC-klagomål mail.docx", "A 8048-2021")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 8048-2021 tillsynsbegäran.docx", "A 8048-2021")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 8048-2021 tillsynsbegäran mail.docx", "A 8048-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 23023-2025</t>
+          <t>A 23275-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45790</v>
+        <v>44333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1212,13 +1217,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1242,49 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Vedticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 23023-2025 artfynd.xlsx", "A 23023-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 23023-2025 karta.png", "A 23023-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 23023-2025 FSC-klagomål.docx", "A 23023-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 23023-2025 FSC-klagomål mail.docx", "A 23023-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 23023-2025 tillsynsbegäran.docx", "A 23023-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 23023-2025 tillsynsbegäran mail.docx", "A 23023-2025")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 23275-2021</t>
+          <t>A 35089-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44333</v>
+        <v>44797</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1296,13 +1273,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,14 +1311,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 35089-2022</t>
+          <t>A 59084-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44797</v>
+        <v>44490.4119212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1358,8 +1330,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1396,14 +1373,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59084-2021</t>
+          <t>A 34634-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44490.4119212963</v>
+        <v>44382</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1417,11 +1394,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1458,14 +1435,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 34634-2021</t>
+          <t>A 23817-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44382</v>
+        <v>44335.38469907407</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1477,13 +1454,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1520,14 +1492,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23817-2021</t>
+          <t>A 23820-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44335.38469907407</v>
+        <v>44335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1512,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1577,14 +1549,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 23820-2021</t>
+          <t>A 64815-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44335</v>
+        <v>44512</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1597,7 +1569,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1634,14 +1606,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 64815-2021</t>
+          <t>A 35084-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44512</v>
+        <v>44797.39523148148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1654,7 +1626,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1691,14 +1663,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 35084-2022</t>
+          <t>A 51171-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44797.39523148148</v>
+        <v>44868</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,8 +1682,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1748,14 +1725,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 51171-2022</t>
+          <t>A 33307-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44868</v>
+        <v>44788</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,13 +1744,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1810,14 +1782,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 33307-2022</t>
+          <t>A 19464-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44788</v>
+        <v>44311</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1830,7 +1802,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1867,14 +1839,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 19464-2021</t>
+          <t>A 53398-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44311</v>
+        <v>44468</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,8 +1858,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1924,14 +1901,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 53398-2021</t>
+          <t>A 44802-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44468</v>
+        <v>44841.37923611111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,13 +1920,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1986,14 +1958,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 44802-2022</t>
+          <t>A 34913-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44841.37923611111</v>
+        <v>44383</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2005,8 +1977,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2043,14 +2020,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34913-2021</t>
+          <t>A 64814-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44383</v>
+        <v>44512</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2062,13 +2039,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2105,14 +2077,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 64814-2021</t>
+          <t>A 57734-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44512</v>
+        <v>44484.52479166666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2124,8 +2096,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2162,14 +2139,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 57734-2021</t>
+          <t>A 44783-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44484.52479166666</v>
+        <v>44841.35112268518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2181,13 +2158,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2224,14 +2196,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 44783-2022</t>
+          <t>A 23813-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44841.35112268518</v>
+        <v>44335.38092592593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2244,7 +2216,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2281,14 +2253,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 23813-2021</t>
+          <t>A 17619-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44335.38092592593</v>
+        <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2338,14 +2310,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 17619-2021</t>
+          <t>A 41867-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44299</v>
+        <v>44426.31266203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2358,7 +2330,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2395,14 +2367,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 41867-2021</t>
+          <t>A 22935-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44426.31266203704</v>
+        <v>45072.60810185185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2415,7 +2387,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2452,14 +2424,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22935-2023</t>
+          <t>A 70761-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45072.60810185185</v>
+        <v>44536</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2472,7 +2444,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2509,14 +2481,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 70761-2021</t>
+          <t>A 5881-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44536</v>
+        <v>45695</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2529,7 +2501,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2566,14 +2538,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 5881-2025</t>
+          <t>A 3455-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45695</v>
+        <v>45680.47734953704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2586,7 +2558,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2623,14 +2595,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3455-2025</t>
+          <t>A 47728-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45680.47734953704</v>
+        <v>45203.68487268518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2643,7 +2615,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2680,14 +2652,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47728-2023</t>
+          <t>A 12023-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45203.68487268518</v>
+        <v>44266.45105324074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2700,7 +2672,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2737,14 +2709,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12023-2021</t>
+          <t>A 1431-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44266.45105324074</v>
+        <v>45669</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2757,7 +2729,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2794,14 +2766,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1431-2025</t>
+          <t>A 22341-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45669</v>
+        <v>45786</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2813,8 +2785,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>3.2</v>
+        <v>34</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2851,14 +2828,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2352-2023</t>
+          <t>A 33120-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44938</v>
+        <v>45840.49384259259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2870,8 +2847,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2908,14 +2890,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 21111-2025</t>
+          <t>A 4455-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45777</v>
+        <v>46045.64204861111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2928,7 +2910,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2965,14 +2947,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 62085-2024</t>
+          <t>A 49596-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45656</v>
+        <v>45596.55828703703</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2990,7 +2972,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3027,14 +3009,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 4744-2025</t>
+          <t>A 2352-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45688</v>
+        <v>44938</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3047,7 +3029,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3084,14 +3066,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12839-2025</t>
+          <t>A 62085-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45733.64366898148</v>
+        <v>45656</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3091,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>18.2</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3146,14 +3128,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7444-2026</t>
+          <t>A 4744-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46059.45729166667</v>
+        <v>45688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3148,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3203,14 +3185,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7447-2026</t>
+          <t>A 21111-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46059.46265046296</v>
+        <v>45777</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3205,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3260,14 +3242,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 14605-2024</t>
+          <t>A 12839-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45396</v>
+        <v>45733.64366898148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3267,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>9.6</v>
+        <v>18.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3322,14 +3304,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 213-2025</t>
+          <t>A 14605-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45660</v>
+        <v>45396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3341,8 +3323,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>9.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3379,14 +3366,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20085-2025</t>
+          <t>A 213-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45772</v>
+        <v>45660</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3396,11 +3383,6 @@
       <c r="E46" t="inlineStr">
         <is>
           <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -3441,14 +3423,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7948-2024</t>
+          <t>A 24773-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45350</v>
+        <v>45799.40483796296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3462,11 +3444,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3503,14 +3485,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24773-2025</t>
+          <t>A 20085-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45799.40483796296</v>
+        <v>45772</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3528,7 +3510,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3565,14 +3547,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7427-2026</t>
+          <t>A 54221-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46059.43177083333</v>
+        <v>45616</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3585,7 +3567,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3622,14 +3604,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 33120-2025</t>
+          <t>A 24755-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45840.49384259259</v>
+        <v>45799.37452546296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3647,7 +3629,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3684,14 +3666,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 24755-2025</t>
+          <t>A 24826-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45799.37452546296</v>
+        <v>45799.45670138889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3691,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3728,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 24826-2025</t>
+          <t>A 7948-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45799.45670138889</v>
+        <v>45350</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3767,11 +3749,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3815,7 +3797,7 @@
         <v>45799.45188657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3870,14 +3852,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 24836-2025</t>
+          <t>A 39625-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45799.46241898148</v>
+        <v>45890.57746527778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3889,13 +3871,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3932,14 +3909,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38176-2024</t>
+          <t>A 24836-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45545</v>
+        <v>45799.46241898148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,8 +3928,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3989,14 +3971,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 25001-2025</t>
+          <t>A 39623-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45799.61962962963</v>
+        <v>45890.57476851852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4008,13 +3990,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>21.6</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4051,14 +4028,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35350-2025</t>
+          <t>A 25001-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45854.63583333333</v>
+        <v>45799.61962962963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4076,7 +4053,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.2</v>
+        <v>21.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4120,7 +4097,7 @@
         <v>45803.71775462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,14 +4152,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62987-2025</t>
+          <t>A 25723-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46009.4962037037</v>
+        <v>45803.7121412037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4196,11 +4173,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4237,14 +4214,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 61129-2025</t>
+          <t>A 25720-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46000.48585648148</v>
+        <v>45803.70553240741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4239,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4299,14 +4276,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 25723-2025</t>
+          <t>A 38176-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45803.7121412037</v>
+        <v>45545</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4316,11 +4293,6 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -4361,14 +4333,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25720-2025</t>
+          <t>A 42015-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45803.70553240741</v>
+        <v>45903.57980324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4380,13 +4352,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4423,14 +4390,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59146-2025</t>
+          <t>A 27388-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45988.52269675926</v>
+        <v>45812.67489583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4448,7 +4415,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>9.9</v>
+        <v>8.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4485,14 +4452,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55787-2025</t>
+          <t>A 4494-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45972.64469907407</v>
+        <v>45686</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4504,13 +4471,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>12.9</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4547,14 +4509,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 59466-2025</t>
+          <t>A 28017-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45989.58049768519</v>
+        <v>45817.61508101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4572,7 +4534,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4609,14 +4571,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 49580-2025</t>
+          <t>A 27092-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45939.49743055556</v>
+        <v>45811</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4628,13 +4590,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4671,14 +4628,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 63080-2025</t>
+          <t>A 4868-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46009.66688657407</v>
+        <v>46048.6441550926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4690,13 +4647,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>10.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4733,14 +4685,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 12252-2025</t>
+          <t>A 28255-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45729</v>
+        <v>45818.54848379629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4752,13 +4704,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>14.5</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4795,14 +4742,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44178-2025</t>
+          <t>A 54190-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45915.60693287037</v>
+        <v>45232</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4814,13 +4761,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>10.6</v>
+        <v>0.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4857,14 +4799,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4494-2025</t>
+          <t>A 19324-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45686</v>
+        <v>44692.5990625</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4877,7 +4819,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4914,14 +4856,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54190-2023</t>
+          <t>A 44248-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45232</v>
+        <v>45915.69100694444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4933,8 +4875,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4971,14 +4918,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27388-2025</t>
+          <t>A 41479-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45812.67489583333</v>
+        <v>45560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4992,11 +4939,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5033,14 +4980,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28017-2025</t>
+          <t>A 29002-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45817.61508101852</v>
+        <v>45104.64762731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5052,13 +4999,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>7.3</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5095,14 +5037,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27092-2025</t>
+          <t>A 15152-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45811</v>
+        <v>44658.46916666667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5057,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5152,14 +5094,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19324-2022</t>
+          <t>A 47732-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44692.5990625</v>
+        <v>45588.50700231481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5114,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5209,14 +5151,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28255-2025</t>
+          <t>A 45479-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45818.54848379629</v>
+        <v>45922.53091435185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5228,8 +5170,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5266,14 +5213,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 54221-2024</t>
+          <t>A 6856-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45616</v>
+        <v>45700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5285,8 +5232,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5323,14 +5275,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41479-2024</t>
+          <t>A 46860-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45560</v>
+        <v>45929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5342,13 +5294,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5385,14 +5332,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 39625-2025</t>
+          <t>A 46612-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45890.57746527778</v>
+        <v>45926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,8 +5351,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>11.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5442,14 +5394,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29002-2023</t>
+          <t>A 26189-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45104.64762731481</v>
+        <v>45468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,8 +5413,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5499,14 +5456,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39623-2025</t>
+          <t>A 12482-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45890.57476851852</v>
+        <v>45730</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,8 +5475,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5556,14 +5518,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 15152-2022</t>
+          <t>A 36697-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44658.46916666667</v>
+        <v>45153.63313657408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,8 +5537,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5613,14 +5580,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47732-2024</t>
+          <t>A 25760-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45588.50700231481</v>
+        <v>45804</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5633,7 +5600,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5670,14 +5637,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6856-2025</t>
+          <t>A 35430-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45700</v>
+        <v>45855.4414699074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,13 +5656,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5732,14 +5694,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 12482-2025</t>
+          <t>A 35427-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45730</v>
+        <v>45855</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5751,13 +5713,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5794,14 +5751,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36697-2023</t>
+          <t>A 35431-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45153.63313657408</v>
+        <v>45855.44628472222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5813,13 +5770,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5856,14 +5808,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 26189-2024</t>
+          <t>A 8613-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45468</v>
+        <v>45355</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5877,11 +5829,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5925,7 +5877,7 @@
         <v>45401.42217592592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5975,14 +5927,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25760-2025</t>
+          <t>A 52834-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45804</v>
+        <v>45226.41116898148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,8 +5946,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>9.4</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6032,14 +5989,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42015-2025</t>
+          <t>A 20725-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45903.57980324074</v>
+        <v>45058.47887731482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6051,8 +6008,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>8.5</v>
+        <v>14.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6089,14 +6051,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 52834-2023</t>
+          <t>A 61586-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45226.41116898148</v>
+        <v>46002</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6114,7 +6076,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6151,14 +6113,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20725-2023</t>
+          <t>A 49101-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45058.47887731482</v>
+        <v>45594.64802083333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6172,11 +6134,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>14.9</v>
+        <v>14.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6213,14 +6175,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35430-2025</t>
+          <t>A 33273-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45855.4414699074</v>
+        <v>45840.68797453704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,8 +6194,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6270,14 +6237,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 35427-2025</t>
+          <t>A 33143-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45855</v>
+        <v>45840.52465277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,8 +6256,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6327,14 +6299,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 35431-2025</t>
+          <t>A 13795-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45855.44628472222</v>
+        <v>45007</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,8 +6318,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6384,14 +6361,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8613-2024</t>
+          <t>A 63472-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45355</v>
+        <v>46013.44269675926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,13 +6380,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6446,14 +6418,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13795-2023</t>
+          <t>A 63469-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45007</v>
+        <v>46013.43326388889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6465,13 +6437,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>6.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6508,14 +6475,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26201-2024</t>
+          <t>A 37145-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45468</v>
+        <v>45875.56288194445</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,13 +6494,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>25.4</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6570,14 +6532,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57209-2022</t>
+          <t>A 63572-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44895.64663194444</v>
+        <v>46013.66006944444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6595,7 +6557,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.3</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6632,14 +6594,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 49101-2024</t>
+          <t>A 30266-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45594.64802083333</v>
+        <v>45827</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6651,13 +6613,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>14.1</v>
+        <v>7.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6694,14 +6651,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 33273-2025</t>
+          <t>A 37716-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45840.68797453704</v>
+        <v>45881</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6713,13 +6670,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6756,14 +6708,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 33143-2025</t>
+          <t>A 26201-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45840.52465277778</v>
+        <v>45468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6781,7 +6733,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.2</v>
+        <v>25.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6818,14 +6770,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7072-2023</t>
+          <t>A 57209-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44969.95028935185</v>
+        <v>44895.64663194444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6839,11 +6791,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6880,14 +6832,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37145-2025</t>
+          <t>A 7028-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45875.56288194445</v>
+        <v>46057.67555555556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6900,7 +6852,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6937,14 +6889,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11290-2025</t>
+          <t>A 7072-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45726.4278587963</v>
+        <v>44969.95028935185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,8 +6908,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6994,14 +6951,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 30266-2025</t>
+          <t>A 38301-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45827</v>
+        <v>45883.46224537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7014,7 +6971,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7051,14 +7008,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 37716-2025</t>
+          <t>A 52908-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45881</v>
+        <v>45957</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7071,7 +7028,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7108,14 +7065,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44248-2025</t>
+          <t>A 52905-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45915.69100694444</v>
+        <v>45957</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7127,13 +7084,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7170,14 +7122,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38301-2025</t>
+          <t>A 3452-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45883.46224537037</v>
+        <v>45680.4753125</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7190,7 +7142,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7227,14 +7179,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13636-2024</t>
+          <t>A 11290-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45390</v>
+        <v>45726.4278587963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7247,7 +7199,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7284,14 +7236,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3452-2025</t>
+          <t>A 53217-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45680.4753125</v>
+        <v>45958.59952546296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,8 +7255,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>10.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7341,14 +7298,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 39998-2023</t>
+          <t>A 53205-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45168</v>
+        <v>45958.5859375</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,8 +7317,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>4.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7398,14 +7360,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 45260-2024</t>
+          <t>A 7444-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45576</v>
+        <v>46059.45729166667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,13 +7379,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>16.3</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7460,14 +7417,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 54738-2023</t>
+          <t>A 7447-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45236</v>
+        <v>46059.46265046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7479,13 +7436,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7522,14 +7474,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 57981-2022</t>
+          <t>A 53317-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44900.47692129629</v>
+        <v>45959.35413194444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7543,11 +7495,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7584,14 +7536,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 45479-2025</t>
+          <t>A 7427-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45922.53091435185</v>
+        <v>46059.43177083333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7603,13 +7555,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7646,14 +7593,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 58125-2022</t>
+          <t>A 53990-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44900.67206018518</v>
+        <v>45961.57934027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7665,8 +7612,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7703,14 +7655,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 3721-2025</t>
+          <t>A 52922-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45681</v>
+        <v>45957</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7675,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7760,14 +7712,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46860-2025</t>
+          <t>A 35350-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45929</v>
+        <v>45854.63583333333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7779,8 +7731,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7817,14 +7774,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46612-2025</t>
+          <t>A 62987-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45926</v>
+        <v>46009.4962037037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7838,11 +7795,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>11.1</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7879,14 +7836,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 25498-2023</t>
+          <t>A 61129-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45089.48630787037</v>
+        <v>46000.48585648148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7904,7 +7861,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7941,14 +7898,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4998-2024</t>
+          <t>A 59146-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45329</v>
+        <v>45988.52269675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7960,8 +7917,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>9.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7998,14 +7960,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28466-2022</t>
+          <t>A 13636-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44747.74182870371</v>
+        <v>45390</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +7980,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8055,14 +8017,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 14356-2021</t>
+          <t>A 55787-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44279.35021990741</v>
+        <v>45972.64469907407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8074,8 +8036,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>6.6</v>
+        <v>12.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8112,14 +8079,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 33806-2024</t>
+          <t>A 59466-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45520.60313657407</v>
+        <v>45989.58049768519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8131,8 +8098,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8169,14 +8141,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47713-2024</t>
+          <t>A 55234-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45588</v>
+        <v>45968.61171296296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8188,8 +8160,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8226,14 +8203,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47624-2023</t>
+          <t>A 49580-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45203.51826388889</v>
+        <v>45939.49743055556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8247,11 +8224,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8288,14 +8265,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 15997-2025</t>
+          <t>A 63080-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45749</v>
+        <v>46009.66688657407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8309,11 +8286,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8350,14 +8327,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 12132-2025</t>
+          <t>A 55576-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45729</v>
+        <v>45971.66637731482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8375,7 +8352,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>24.9</v>
+        <v>8.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8412,14 +8389,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 2037-2023</t>
+          <t>A 12252-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44939.58351851852</v>
+        <v>45729</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8433,11 +8410,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>14.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8474,14 +8451,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 21929-2023</t>
+          <t>A 39998-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45068</v>
+        <v>45168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8494,7 +8471,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8531,14 +8508,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 59449-2022</t>
+          <t>A 55818-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44907.40783564815</v>
+        <v>45972</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8551,7 +8528,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8588,14 +8565,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 45154-2023</t>
+          <t>A 45260-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45191</v>
+        <v>45576</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,8 +8584,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>16.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8645,14 +8627,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 17756-2023</t>
+          <t>A 44178-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45037.4796412037</v>
+        <v>45915.60693287037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,8 +8646,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>8.1</v>
+        <v>10.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8702,14 +8689,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 52908-2025</t>
+          <t>A 54738-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45957</v>
+        <v>45236</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,8 +8708,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8759,14 +8751,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52905-2025</t>
+          <t>A 56525-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45957</v>
+        <v>45975.46569444444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8778,8 +8770,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8816,14 +8813,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16359-2023</t>
+          <t>A 56206-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45028.72045138889</v>
+        <v>45974.47096064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8835,8 +8832,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8873,14 +8875,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 53217-2025</t>
+          <t>A 56303-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45958.59952546296</v>
+        <v>45974.60728009259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8898,7 +8900,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8935,14 +8937,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 53205-2025</t>
+          <t>A 57981-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45958.5859375</v>
+        <v>44900.47692129629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,11 +8958,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8997,14 +8999,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 53317-2025</t>
+          <t>A 57765-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45959.35413194444</v>
+        <v>45981.55736111111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9022,7 +9024,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>6.8</v>
+        <v>19.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9059,14 +9061,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 53990-2025</t>
+          <t>A 58125-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45961.57934027778</v>
+        <v>44900.67206018518</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9078,13 +9080,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9121,14 +9118,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52922-2025</t>
+          <t>A 58451-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45957</v>
+        <v>45985.62826388889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9140,8 +9137,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>1.4</v>
+        <v>14.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9178,14 +9180,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 53202-2023</t>
+          <t>A 3721-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45229</v>
+        <v>45681</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9198,7 +9200,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>7.6</v>
+        <v>0.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9235,14 +9237,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 49306-2024</t>
+          <t>A 25498-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45595</v>
+        <v>45089.48630787037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9260,7 +9262,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9297,14 +9299,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 55234-2025</t>
+          <t>A 4998-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45968.61171296296</v>
+        <v>45329</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9316,13 +9318,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9359,14 +9356,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 21942-2024</t>
+          <t>A 28466-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45443</v>
+        <v>44747.74182870371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9376,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9416,14 +9413,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 55576-2025</t>
+          <t>A 14356-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45971.66637731482</v>
+        <v>44279.35021990741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9435,13 +9432,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9478,14 +9470,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58586-2024</t>
+          <t>A 33806-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45635.50215277778</v>
+        <v>45520.60313657407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9497,13 +9489,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9540,14 +9527,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 55818-2025</t>
+          <t>A 47713-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45972</v>
+        <v>45588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9560,7 +9547,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9597,14 +9584,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56525-2025</t>
+          <t>A 60315-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45975.46569444444</v>
+        <v>45994.70884259259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9616,13 +9603,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9659,14 +9641,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56206-2025</t>
+          <t>A 60511-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45974.47096064815</v>
+        <v>45995.63336805555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9678,13 +9660,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9721,14 +9698,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56303-2025</t>
+          <t>A 47624-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45974.60728009259</v>
+        <v>45203.51826388889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9742,11 +9719,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>10.8</v>
+        <v>2.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9783,14 +9760,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 12819-2025</t>
+          <t>A 15997-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45733</v>
+        <v>45749</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9802,8 +9779,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9840,14 +9822,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 57765-2025</t>
+          <t>A 12132-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45981.55736111111</v>
+        <v>45729</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9865,7 +9847,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>19.8</v>
+        <v>24.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9902,14 +9884,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58451-2025</t>
+          <t>A 61328-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45985.62826388889</v>
+        <v>46001.32983796296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9927,7 +9909,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>14.1</v>
+        <v>8.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9964,14 +9946,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 45271-2024</t>
+          <t>A 61149-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45576</v>
+        <v>46000.53810185185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9989,7 +9971,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10026,14 +10008,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 2342-2023</t>
+          <t>A 2037-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44938</v>
+        <v>44939.58351851852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10045,8 +10027,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10083,14 +10070,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 2363-2023</t>
+          <t>A 61123-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44938</v>
+        <v>46000.46875</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10102,8 +10089,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10140,14 +10132,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 487-2023</t>
+          <t>A 21929-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44930.29883101852</v>
+        <v>45068</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10160,7 +10152,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10197,14 +10189,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 12824-2025</t>
+          <t>A 59449-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45733</v>
+        <v>44907.40783564815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10217,7 +10209,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10254,14 +10246,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 60315-2025</t>
+          <t>A 45154-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45994.70884259259</v>
+        <v>45191</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10311,14 +10303,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 60511-2025</t>
+          <t>A 17756-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45995.63336805555</v>
+        <v>45037.4796412037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10323,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>8.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10368,14 +10360,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 1840-2023</t>
+          <t>A 16359-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44938.67890046296</v>
+        <v>45028.72045138889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10387,13 +10379,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10430,14 +10417,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61328-2025</t>
+          <t>A 53202-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46001.32983796296</v>
+        <v>45229</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10449,13 +10436,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>8.9</v>
+        <v>7.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10492,14 +10474,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 61149-2025</t>
+          <t>A 49306-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46000.53810185185</v>
+        <v>45595</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10513,11 +10495,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10554,14 +10536,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61123-2025</t>
+          <t>A 21942-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46000.46875</v>
+        <v>45443</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10573,13 +10555,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10616,14 +10593,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 227-2025</t>
+          <t>A 58586-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45660</v>
+        <v>45635.50215277778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10635,8 +10612,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10673,14 +10655,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 4455-2026</t>
+          <t>A 12819-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46045.64204861111</v>
+        <v>45733</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10693,7 +10675,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10730,14 +10712,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 4868-2026</t>
+          <t>A 45271-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46048.6441550926</v>
+        <v>45576</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10749,8 +10731,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10787,14 +10774,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 48591-2024</t>
+          <t>A 2342-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45593.43625</v>
+        <v>44938</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10807,7 +10794,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10844,14 +10831,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 2525-2025</t>
+          <t>A 2363-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45674.60668981481</v>
+        <v>44938</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10864,7 +10851,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10901,14 +10888,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 61586-2025</t>
+          <t>A 487-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46002</v>
+        <v>44930.29883101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10920,13 +10907,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>4.2</v>
+        <v>7.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10963,14 +10945,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 63472-2025</t>
+          <t>A 12824-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46013.44269675926</v>
+        <v>45733</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10983,7 +10965,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11020,14 +11002,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 30587-2023</t>
+          <t>A 1840-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45112.33359953704</v>
+        <v>44938.67890046296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11039,8 +11021,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11077,14 +11064,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 63469-2025</t>
+          <t>A 227-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46013.43326388889</v>
+        <v>45660</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11097,7 +11084,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11134,14 +11121,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 63572-2025</t>
+          <t>A 48591-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46013.66006944444</v>
+        <v>45593.43625</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11153,13 +11140,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11196,14 +11178,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 7028-2026</t>
+          <t>A 2525-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46057.67555555556</v>
+        <v>45674.60668981481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11216,7 +11198,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11253,14 +11235,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 53388-2024</t>
+          <t>A 30587-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45614</v>
+        <v>45112.33359953704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11273,7 +11255,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11310,14 +11292,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 48309-2021</t>
+          <t>A 53388-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44450</v>
+        <v>45614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11330,7 +11312,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11367,14 +11349,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 11452-2024</t>
+          <t>A 48309-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45372</v>
+        <v>44450</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11386,13 +11368,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11429,14 +11406,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49311-2024</t>
+          <t>A 11452-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45595</v>
+        <v>45372</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11454,7 +11431,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>7.8</v>
+        <v>4.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11491,14 +11468,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 24846-2022</t>
+          <t>A 49311-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44728</v>
+        <v>45595</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11510,8 +11487,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11548,14 +11530,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 8269-2025</t>
+          <t>A 24846-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45708</v>
+        <v>44728</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11568,7 +11550,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11605,14 +11587,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 13047-2021</t>
+          <t>A 8269-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44272.29149305556</v>
+        <v>45708</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11625,7 +11607,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11662,14 +11644,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 62001-2024</t>
+          <t>A 13047-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45654</v>
+        <v>44272.29149305556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11681,13 +11663,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11724,14 +11701,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 16714-2025</t>
+          <t>A 62001-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45754</v>
+        <v>45654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11749,7 +11726,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11786,14 +11763,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 41214-2023</t>
+          <t>A 16714-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45174</v>
+        <v>45754</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11811,7 +11788,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>51.6</v>
+        <v>5.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11848,14 +11825,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 26230-2024</t>
+          <t>A 41214-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45468</v>
+        <v>45174</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11873,7 +11850,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>51.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11910,14 +11887,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 62069-2024</t>
+          <t>A 26230-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45656</v>
+        <v>45468</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11935,7 +11912,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11972,14 +11949,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 8639-2025</t>
+          <t>A 62069-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45711.87692129629</v>
+        <v>45656</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11991,8 +11968,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12029,14 +12011,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 41325-2023</t>
+          <t>A 8639-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45174.65024305556</v>
+        <v>45711.87692129629</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12048,13 +12030,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12091,14 +12068,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 22063-2021</t>
+          <t>A 41325-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44323</v>
+        <v>45174.65024305556</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12110,8 +12087,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12148,14 +12130,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 47894-2023</t>
+          <t>A 22063-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45204</v>
+        <v>44323</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12167,13 +12149,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12210,14 +12187,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 11981-2021</t>
+          <t>A 47894-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44266</v>
+        <v>45204</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12229,8 +12206,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12267,14 +12249,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 57792-2022</t>
+          <t>A 11981-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44897.66182870371</v>
+        <v>44266</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12287,7 +12269,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12324,14 +12306,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 39025-2023</t>
+          <t>A 57792-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45163</v>
+        <v>44897.66182870371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12343,13 +12325,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12386,14 +12363,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 13288-2024</t>
+          <t>A 39025-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45386</v>
+        <v>45163</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12411,7 +12388,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12448,14 +12425,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 28467-2022</t>
+          <t>A 13288-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44747.74592592593</v>
+        <v>45386</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12467,8 +12444,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12505,14 +12487,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 23808-2021</t>
+          <t>A 28467-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44335.37674768519</v>
+        <v>44747.74592592593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12525,7 +12507,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12562,14 +12544,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 53353-2024</t>
+          <t>A 23808-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45614.45392361111</v>
+        <v>44335.37674768519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12582,7 +12564,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12619,14 +12601,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 16645-2025</t>
+          <t>A 53353-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45754</v>
+        <v>45614.45392361111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12638,13 +12620,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12681,14 +12658,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 23279-2024</t>
+          <t>A 16645-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45453</v>
+        <v>45754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12700,8 +12677,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12738,14 +12720,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 35370-2023</t>
+          <t>A 23279-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45146</v>
+        <v>45453</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12757,13 +12739,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12800,14 +12777,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 14304-2024</t>
+          <t>A 35370-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45393.66023148148</v>
+        <v>45146</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12819,8 +12796,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12857,90 +12839,85 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
+          <t>A 14304-2024</t>
+        </is>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>45393.66023148148</v>
+      </c>
+      <c r="C205" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" s="2" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
           <t>A 53912-2024</t>
         </is>
       </c>
-      <c r="B205" s="1" t="n">
+      <c r="B206" s="1" t="n">
         <v>45615.72717592592</v>
       </c>
-      <c r="C205" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
+      <c r="C206" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
         <v>1.3</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0</v>
-      </c>
-      <c r="L205" t="n">
-        <v>0</v>
-      </c>
-      <c r="M205" t="n">
-        <v>0</v>
-      </c>
-      <c r="N205" t="n">
-        <v>0</v>
-      </c>
-      <c r="O205" t="n">
-        <v>0</v>
-      </c>
-      <c r="P205" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q205" t="n">
-        <v>0</v>
-      </c>
-      <c r="R205" s="2" t="inlineStr"/>
-    </row>
-    <row r="206" ht="15" customHeight="1">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>A 22341-2025</t>
-        </is>
-      </c>
-      <c r="B206" s="1" t="n">
-        <v>45786</v>
-      </c>
-      <c r="C206" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G206" t="n">
-        <v>34</v>
-      </c>
       <c r="H206" t="n">
         <v>0</v>
       </c>
@@ -12972,68 +12949,6 @@
         <v>0</v>
       </c>
       <c r="R206" s="2" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>A 49596-2024</t>
-        </is>
-      </c>
-      <c r="B207" s="1" t="n">
-        <v>45596.55828703703</v>
-      </c>
-      <c r="C207" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G207" t="n">
-        <v>3</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0</v>
-      </c>
-      <c r="L207" t="n">
-        <v>0</v>
-      </c>
-      <c r="M207" t="n">
-        <v>0</v>
-      </c>
-      <c r="N207" t="n">
-        <v>0</v>
-      </c>
-      <c r="O207" t="n">
-        <v>0</v>
-      </c>
-      <c r="P207" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q207" t="n">
-        <v>0</v>
-      </c>
-      <c r="R207" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45790</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44834</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45841.53921296296</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>46037.45690972222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45754</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45197.46416666666</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44797</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44490.4119212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44382</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44335.38469907407</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>44335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44512</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44797.39523148148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>44868</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>44788</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44311</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44468</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44841.37923611111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44383</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44512</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44484.52479166666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44841.35112268518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44335.38092592593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44426.31266203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45072.60810185185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44536</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45695</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45680.47734953704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2595,14 +2595,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47728-2023</t>
+          <t>A 14304-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45203.68487268518</v>
+        <v>45393.66023148148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2652,14 +2652,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12023-2021</t>
+          <t>A 53912-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44266.45105324074</v>
+        <v>45615.72717592592</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2709,14 +2709,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 1431-2025</t>
+          <t>A 47728-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45669</v>
+        <v>45203.68487268518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2766,14 +2766,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22341-2025</t>
+          <t>A 55576-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45786</v>
+        <v>45971.66637731482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>34</v>
+        <v>8.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>45840.49384259259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,14 +2890,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 4455-2026</t>
+          <t>A 22341-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46045.64204861111</v>
+        <v>45786</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2909,8 +2909,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>34</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2947,14 +2952,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 49596-2024</t>
+          <t>A 55818-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45596.55828703703</v>
+        <v>45972</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2966,13 +2971,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3009,14 +3009,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2352-2023</t>
+          <t>A 49596-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44938</v>
+        <v>45596.55828703703</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,8 +3028,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3066,14 +3071,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 62085-2024</t>
+          <t>A 12023-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45656</v>
+        <v>44266.45105324074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,13 +3090,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3128,14 +3128,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 4744-2025</t>
+          <t>A 1431-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45688</v>
+        <v>45669</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>45777</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3242,14 +3242,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 12839-2025</t>
+          <t>A 54221-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45733.64366898148</v>
+        <v>45616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,13 +3261,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>18.2</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3311,7 +3306,7 @@
         <v>45396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3373,7 +3368,7 @@
         <v>45660</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,14 +3418,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24773-2025</t>
+          <t>A 39625-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45799.40483796296</v>
+        <v>45890.57746527778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,13 +3437,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3485,14 +3475,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20085-2025</t>
+          <t>A 39623-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45772</v>
+        <v>45890.57476851852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,13 +3494,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3547,14 +3532,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 54221-2024</t>
+          <t>A 56525-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45616</v>
+        <v>45975.46569444444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,8 +3551,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3604,14 +3594,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 24755-2025</t>
+          <t>A 56206-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45799.37452546296</v>
+        <v>45974.47096064815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3629,7 +3619,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3666,14 +3656,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 24826-2025</t>
+          <t>A 24773-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45799.45670138889</v>
+        <v>45799.40483796296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3691,7 +3681,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3728,14 +3718,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 7948-2024</t>
+          <t>A 2352-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45350</v>
+        <v>44938</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3747,13 +3737,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3790,14 +3775,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24820-2025</t>
+          <t>A 56303-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45799.45188657408</v>
+        <v>45974.60728009259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3815,7 +3800,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.6</v>
+        <v>10.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3852,14 +3837,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 39625-2025</t>
+          <t>A 62085-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45890.57746527778</v>
+        <v>45656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3871,8 +3856,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3909,14 +3899,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 24836-2025</t>
+          <t>A 4744-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45799.46241898148</v>
+        <v>45688</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3928,13 +3918,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3971,14 +3956,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39623-2025</t>
+          <t>A 12839-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45890.57476851852</v>
+        <v>45733.64366898148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3990,8 +3975,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>18.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4028,14 +4018,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 25001-2025</t>
+          <t>A 24755-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45799.61962962963</v>
+        <v>45799.37452546296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4053,7 +4043,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>21.6</v>
+        <v>6.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4090,14 +4080,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 25727-2025</t>
+          <t>A 24826-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45803.71775462963</v>
+        <v>45799.45670138889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4105,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.9</v>
+        <v>5.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4152,14 +4142,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25723-2025</t>
+          <t>A 24820-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45803.7121412037</v>
+        <v>45799.45188657408</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4177,7 +4167,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4214,14 +4204,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 25720-2025</t>
+          <t>A 24836-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45803.70553240741</v>
+        <v>45799.46241898148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4229,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4276,14 +4266,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38176-2024</t>
+          <t>A 25001-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45545</v>
+        <v>45799.61962962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4295,8 +4285,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>21.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4333,14 +4328,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 42015-2025</t>
+          <t>A 25727-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45903.57980324074</v>
+        <v>45803.71775462963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4352,8 +4347,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>8.5</v>
+        <v>3.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 27388-2025</t>
+          <t>A 25723-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45812.67489583333</v>
+        <v>45803.7121412037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8.4</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4452,14 +4452,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4494-2025</t>
+          <t>A 25720-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45686</v>
+        <v>45803.70553240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4469,6 +4469,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -4509,14 +4514,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 28017-2025</t>
+          <t>A 20085-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45817.61508101852</v>
+        <v>45772</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4534,7 +4539,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4571,14 +4576,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 27092-2025</t>
+          <t>A 7948-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45811</v>
+        <v>45350</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4590,8 +4595,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4628,14 +4638,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 4868-2026</t>
+          <t>A 42015-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46048.6441550926</v>
+        <v>45903.57980324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4648,7 +4658,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>10.8</v>
+        <v>8.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4685,14 +4695,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28255-2025</t>
+          <t>A 38176-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45818.54848379629</v>
+        <v>45545</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4715,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4742,14 +4752,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 54190-2023</t>
+          <t>A 57765-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45232</v>
+        <v>45981.55736111111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4761,8 +4771,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>19.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4799,14 +4814,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 19324-2022</t>
+          <t>A 27388-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44692.5990625</v>
+        <v>45812.67489583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4818,8 +4833,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>8.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4856,14 +4876,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44248-2025</t>
+          <t>A 4494-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45915.69100694444</v>
+        <v>45686</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4875,13 +4895,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4918,14 +4933,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41479-2024</t>
+          <t>A 28017-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45560</v>
+        <v>45817.61508101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,11 +4954,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4980,14 +4995,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29002-2023</t>
+          <t>A 27092-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45104.64762731481</v>
+        <v>45811</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5000,7 +5015,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5037,14 +5052,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15152-2022</t>
+          <t>A 44248-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44658.46916666667</v>
+        <v>45915.69100694444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5056,8 +5071,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5094,14 +5114,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47732-2024</t>
+          <t>A 28255-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45588.50700231481</v>
+        <v>45818.54848379629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5114,7 +5134,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5151,14 +5171,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45479-2025</t>
+          <t>A 58451-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45922.53091435185</v>
+        <v>45985.62826388889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5172,11 +5192,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.3</v>
+        <v>14.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5213,14 +5233,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6856-2025</t>
+          <t>A 54190-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45700</v>
+        <v>45232</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5232,13 +5252,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5275,14 +5290,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 46860-2025</t>
+          <t>A 19324-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45929</v>
+        <v>44692.5990625</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5295,7 +5310,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5332,14 +5347,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46612-2025</t>
+          <t>A 45479-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45926</v>
+        <v>45922.53091435185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,11 +5368,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>11.1</v>
+        <v>6.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5394,14 +5409,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26189-2024</t>
+          <t>A 41479-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45468</v>
+        <v>45560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5415,11 +5430,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5456,14 +5471,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12482-2025</t>
+          <t>A 29002-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45730</v>
+        <v>45104.64762731481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,13 +5490,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5518,14 +5528,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 36697-2023</t>
+          <t>A 46860-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45153.63313657408</v>
+        <v>45929</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,13 +5547,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5580,14 +5585,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25760-2025</t>
+          <t>A 46612-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45804</v>
+        <v>45926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,8 +5604,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>9.4</v>
+        <v>11.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5637,14 +5647,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 35430-2025</t>
+          <t>A 15152-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45855.4414699074</v>
+        <v>44658.46916666667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5667,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5694,14 +5704,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35427-2025</t>
+          <t>A 47732-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45855</v>
+        <v>45588.50700231481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5724,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5751,14 +5761,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35431-2025</t>
+          <t>A 6856-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45855.44628472222</v>
+        <v>45700</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5770,8 +5780,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5808,14 +5823,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 8613-2024</t>
+          <t>A 12482-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45355</v>
+        <v>45730</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5829,11 +5844,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5870,14 +5885,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15442-2024</t>
+          <t>A 26189-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45401.42217592592</v>
+        <v>45468</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5889,8 +5904,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5927,14 +5947,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 52834-2023</t>
+          <t>A 36697-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45226.41116898148</v>
+        <v>45153.63313657408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5948,11 +5968,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5989,14 +6009,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20725-2023</t>
+          <t>A 25760-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45058.47887731482</v>
+        <v>45804</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,13 +6028,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>14.9</v>
+        <v>9.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6051,14 +6066,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61586-2025</t>
+          <t>A 15442-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46002</v>
+        <v>45401.42217592592</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6070,13 +6085,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6113,14 +6123,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 49101-2024</t>
+          <t>A 35430-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45594.64802083333</v>
+        <v>45855.4414699074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6132,13 +6142,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>14.1</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6175,14 +6180,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33273-2025</t>
+          <t>A 35427-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45840.68797453704</v>
+        <v>45855</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,13 +6199,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6237,14 +6237,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33143-2025</t>
+          <t>A 35431-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45840.52465277778</v>
+        <v>45855.44628472222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6256,13 +6256,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6299,14 +6294,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 13795-2023</t>
+          <t>A 8613-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45007</v>
+        <v>45355</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6324,7 +6319,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6361,14 +6356,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 63472-2025</t>
+          <t>A 52834-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46013.44269675926</v>
+        <v>45226.41116898148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6380,8 +6375,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6418,14 +6418,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 63469-2025</t>
+          <t>A 20725-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46013.43326388889</v>
+        <v>45058.47887731482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,8 +6437,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>6.1</v>
+        <v>14.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6475,14 +6480,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 37145-2025</t>
+          <t>A 13795-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45875.56288194445</v>
+        <v>45007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6494,8 +6499,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6532,14 +6542,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 63572-2025</t>
+          <t>A 52908-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46013.66006944444</v>
+        <v>45957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6551,13 +6561,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6594,14 +6599,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30266-2025</t>
+          <t>A 52905-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45827</v>
+        <v>45957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6614,7 +6619,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6651,14 +6656,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37716-2025</t>
+          <t>A 53217-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45881</v>
+        <v>45958.59952546296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6670,8 +6675,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>4.5</v>
+        <v>10.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6708,14 +6718,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26201-2024</t>
+          <t>A 53205-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45468</v>
+        <v>45958.5859375</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6733,7 +6743,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>25.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6770,14 +6780,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 57209-2022</t>
+          <t>A 26201-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44895.64663194444</v>
+        <v>45468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6791,11 +6801,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6.3</v>
+        <v>25.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6832,14 +6842,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 7028-2026</t>
+          <t>A 49101-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46057.67555555556</v>
+        <v>45594.64802083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,8 +6861,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>14.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6889,14 +6904,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7072-2023</t>
+          <t>A 53317-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44969.95028935185</v>
+        <v>45959.35413194444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6914,7 +6929,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6951,14 +6966,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 38301-2025</t>
+          <t>A 33273-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45883.46224537037</v>
+        <v>45840.68797453704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6970,8 +6985,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7008,14 +7028,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52908-2025</t>
+          <t>A 33143-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45957</v>
+        <v>45840.52465277778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7027,8 +7047,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7065,14 +7090,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52905-2025</t>
+          <t>A 57209-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45957</v>
+        <v>44895.64663194444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7084,8 +7109,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7122,14 +7152,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3452-2025</t>
+          <t>A 7072-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45680.4753125</v>
+        <v>44969.95028935185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7141,8 +7171,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7179,14 +7214,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 11290-2025</t>
+          <t>A 53990-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45726.4278587963</v>
+        <v>45961.57934027778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7198,8 +7233,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7236,14 +7276,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 53217-2025</t>
+          <t>A 37145-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45958.59952546296</v>
+        <v>45875.56288194445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,13 +7295,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>10.1</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7298,14 +7333,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 53205-2025</t>
+          <t>A 52922-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45958.5859375</v>
+        <v>45957</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,13 +7352,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>9.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7360,14 +7390,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 7444-2026</t>
+          <t>A 11290-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46059.45729166667</v>
+        <v>45726.4278587963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7380,7 +7410,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7417,14 +7447,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 7447-2026</t>
+          <t>A 30266-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46059.46265046296</v>
+        <v>45827</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7437,7 +7467,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7474,14 +7504,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 53317-2025</t>
+          <t>A 37716-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45959.35413194444</v>
+        <v>45881</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7493,13 +7523,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7536,14 +7561,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7427-2026</t>
+          <t>A 55234-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46059.43177083333</v>
+        <v>45968.61171296296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7555,8 +7580,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7593,14 +7623,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 53990-2025</t>
+          <t>A 38301-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45961.57934027778</v>
+        <v>45883.46224537037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7612,13 +7642,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7655,14 +7680,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52922-2025</t>
+          <t>A 3452-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45957</v>
+        <v>45680.4753125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7700,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7712,14 +7737,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 35350-2025</t>
+          <t>A 13636-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45854.63583333333</v>
+        <v>45390</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7731,13 +7756,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7774,14 +7794,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 62987-2025</t>
+          <t>A 39998-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46009.4962037037</v>
+        <v>45168</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7793,13 +7813,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7836,14 +7851,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61129-2025</t>
+          <t>A 45260-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46000.48585648148</v>
+        <v>45576</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7857,11 +7872,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.5</v>
+        <v>16.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7898,14 +7913,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 59146-2025</t>
+          <t>A 54738-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45988.52269675926</v>
+        <v>45236</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7919,11 +7934,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>9.9</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7960,14 +7975,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 13636-2024</t>
+          <t>A 57981-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45390</v>
+        <v>44900.47692129629</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7979,8 +7994,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8017,14 +8037,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55787-2025</t>
+          <t>A 60315-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45972.64469907407</v>
+        <v>45994.70884259259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8036,13 +8056,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>12.9</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8079,14 +8094,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 59466-2025</t>
+          <t>A 60511-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45989.58049768519</v>
+        <v>45995.63336805555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8098,13 +8113,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8141,14 +8151,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 55234-2025</t>
+          <t>A 58125-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45968.61171296296</v>
+        <v>44900.67206018518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8160,13 +8170,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8203,14 +8208,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 49580-2025</t>
+          <t>A 3721-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45939.49743055556</v>
+        <v>45681</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8222,13 +8227,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8265,14 +8265,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 63080-2025</t>
+          <t>A 25498-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46009.66688657407</v>
+        <v>45089.48630787037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8286,11 +8286,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8327,14 +8327,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 55576-2025</t>
+          <t>A 61328-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45971.66637731482</v>
+        <v>46001.32983796296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8389,14 +8389,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 12252-2025</t>
+          <t>A 61149-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45729</v>
+        <v>46000.53810185185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8410,11 +8410,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>14.5</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8451,14 +8451,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 39998-2023</t>
+          <t>A 4998-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45168</v>
+        <v>45329</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8508,14 +8508,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 55818-2025</t>
+          <t>A 61123-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45972</v>
+        <v>46000.46875</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8527,8 +8527,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8565,14 +8570,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 45260-2024</t>
+          <t>A 4455-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45576</v>
+        <v>46045.64204861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8584,13 +8589,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>16.3</v>
+        <v>2.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8627,14 +8627,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44178-2025</t>
+          <t>A 4868-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45915.60693287037</v>
+        <v>46048.6441550926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8646,13 +8646,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8689,14 +8684,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 54738-2023</t>
+          <t>A 28466-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45236</v>
+        <v>44747.74182870371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8708,13 +8703,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8751,14 +8741,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 56525-2025</t>
+          <t>A 14356-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45975.46569444444</v>
+        <v>44279.35021990741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8770,13 +8760,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8813,14 +8798,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56206-2025</t>
+          <t>A 33806-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45974.47096064815</v>
+        <v>45520.60313657407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8832,13 +8817,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8875,14 +8855,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 56303-2025</t>
+          <t>A 47713-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45974.60728009259</v>
+        <v>45588</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8894,13 +8874,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>10.8</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8937,14 +8912,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 57981-2022</t>
+          <t>A 47624-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44900.47692129629</v>
+        <v>45203.51826388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8958,11 +8933,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8999,14 +8974,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 57765-2025</t>
+          <t>A 15997-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45981.55736111111</v>
+        <v>45749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9024,7 +8999,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>19.8</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9061,14 +9036,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58125-2022</t>
+          <t>A 12132-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44900.67206018518</v>
+        <v>45729</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9080,8 +9055,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>3.4</v>
+        <v>24.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9118,14 +9098,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 58451-2025</t>
+          <t>A 61586-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45985.62826388889</v>
+        <v>46002</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9143,7 +9123,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>14.1</v>
+        <v>4.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9180,14 +9160,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 3721-2025</t>
+          <t>A 2037-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45681</v>
+        <v>44939.58351851852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9199,8 +9179,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9237,14 +9222,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 25498-2023</t>
+          <t>A 63472-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45089.48630787037</v>
+        <v>46013.44269675926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9256,13 +9241,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9299,14 +9279,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 4998-2024</t>
+          <t>A 21929-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45329</v>
+        <v>45068</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9319,7 +9299,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9356,14 +9336,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 28466-2022</t>
+          <t>A 59449-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44747.74182870371</v>
+        <v>44907.40783564815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9376,7 +9356,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9413,14 +9393,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 14356-2021</t>
+          <t>A 63469-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44279.35021990741</v>
+        <v>46013.43326388889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9433,7 +9413,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9470,14 +9450,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 33806-2024</t>
+          <t>A 63572-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45520.60313657407</v>
+        <v>46013.66006944444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9489,8 +9469,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9527,14 +9512,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 47713-2024</t>
+          <t>A 7028-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45588</v>
+        <v>46057.67555555556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9547,7 +9532,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9584,14 +9569,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 60315-2025</t>
+          <t>A 7444-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45994.70884259259</v>
+        <v>46059.45729166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9604,7 +9589,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9641,14 +9626,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 60511-2025</t>
+          <t>A 7447-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45995.63336805555</v>
+        <v>46059.46265046296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9661,7 +9646,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9698,14 +9683,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47624-2023</t>
+          <t>A 45154-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45203.51826388889</v>
+        <v>45191</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9717,13 +9702,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9760,14 +9740,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 15997-2025</t>
+          <t>A 17756-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45749</v>
+        <v>45037.4796412037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9779,13 +9759,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>8.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9822,14 +9797,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 12132-2025</t>
+          <t>A 16359-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45729</v>
+        <v>45028.72045138889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9841,13 +9816,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>24.9</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9884,14 +9854,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 61328-2025</t>
+          <t>A 7427-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46001.32983796296</v>
+        <v>46059.43177083333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9903,13 +9873,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>8.9</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9946,14 +9911,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 61149-2025</t>
+          <t>A 35350-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46000.53810185185</v>
+        <v>45854.63583333333</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9967,11 +9932,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10008,14 +9973,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 2037-2023</t>
+          <t>A 62987-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44939.58351851852</v>
+        <v>46009.4962037037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10029,11 +9994,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10070,14 +10035,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 61123-2025</t>
+          <t>A 61129-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46000.46875</v>
+        <v>46000.48585648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10091,11 +10056,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10132,14 +10097,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 21929-2023</t>
+          <t>A 59146-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45068</v>
+        <v>45988.52269675926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10151,8 +10116,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>6.8</v>
+        <v>9.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10189,14 +10159,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 59449-2022</t>
+          <t>A 55787-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44907.40783564815</v>
+        <v>45972.64469907407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10208,8 +10178,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>2.1</v>
+        <v>12.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10246,14 +10221,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 45154-2023</t>
+          <t>A 59466-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45191</v>
+        <v>45989.58049768519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10265,8 +10240,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10303,14 +10283,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 17756-2023</t>
+          <t>A 49580-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45037.4796412037</v>
+        <v>45939.49743055556</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10322,8 +10302,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>8.1</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10360,14 +10345,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16359-2023</t>
+          <t>A 63080-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45028.72045138889</v>
+        <v>46009.66688657407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10379,8 +10364,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10417,14 +10407,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 53202-2023</t>
+          <t>A 12252-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45229</v>
+        <v>45729</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10436,8 +10426,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>7.6</v>
+        <v>14.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10474,14 +10469,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49306-2024</t>
+          <t>A 44178-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45595</v>
+        <v>45915.60693287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10494,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.4</v>
+        <v>10.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10536,14 +10531,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 21942-2024</t>
+          <t>A 53202-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45443</v>
+        <v>45229</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10551,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10593,14 +10588,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58586-2024</t>
+          <t>A 49306-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45635.50215277778</v>
+        <v>45595</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10618,7 +10613,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10655,14 +10650,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 12819-2025</t>
+          <t>A 21942-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45733</v>
+        <v>45443</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10670,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10712,14 +10707,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 45271-2024</t>
+          <t>A 58586-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45576</v>
+        <v>45635.50215277778</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10733,11 +10728,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10774,14 +10769,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 2342-2023</t>
+          <t>A 12819-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44938</v>
+        <v>45733</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10794,7 +10789,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10831,14 +10826,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 2363-2023</t>
+          <t>A 45271-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44938</v>
+        <v>45576</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10850,8 +10845,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10888,14 +10888,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 487-2023</t>
+          <t>A 2342-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44930.29883101852</v>
+        <v>44938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10945,14 +10945,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 12824-2025</t>
+          <t>A 2363-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45733</v>
+        <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11002,14 +11002,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1840-2023</t>
+          <t>A 487-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44938.67890046296</v>
+        <v>44930.29883101852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11021,13 +11021,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.3</v>
+        <v>7.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11064,14 +11059,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 227-2025</t>
+          <t>A 12824-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45660</v>
+        <v>45733</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11084,7 +11079,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11121,14 +11116,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 48591-2024</t>
+          <t>A 1840-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45593.43625</v>
+        <v>44938.67890046296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11140,8 +11135,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11178,14 +11178,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 2525-2025</t>
+          <t>A 227-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45674.60668981481</v>
+        <v>45660</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11235,14 +11235,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 30587-2023</t>
+          <t>A 48591-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45112.33359953704</v>
+        <v>45593.43625</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11292,14 +11292,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 53388-2024</t>
+          <t>A 2525-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45614</v>
+        <v>45674.60668981481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11349,14 +11349,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48309-2021</t>
+          <t>A 30587-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44450</v>
+        <v>45112.33359953704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11406,14 +11406,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11452-2024</t>
+          <t>A 53388-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45372</v>
+        <v>45614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11425,13 +11425,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11468,14 +11463,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 49311-2024</t>
+          <t>A 48309-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45595</v>
+        <v>44450</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11487,13 +11482,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>7.8</v>
+        <v>3.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11530,14 +11520,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 24846-2022</t>
+          <t>A 11452-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44728</v>
+        <v>45372</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,8 +11539,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11587,14 +11582,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 8269-2025</t>
+          <t>A 49311-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45708</v>
+        <v>45595</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,8 +11601,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>7.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11644,14 +11644,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 13047-2021</t>
+          <t>A 24846-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44272.29149305556</v>
+        <v>44728</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11701,14 +11701,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 62001-2024</t>
+          <t>A 8269-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45654</v>
+        <v>45708</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,13 +11720,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11763,14 +11758,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 16714-2025</t>
+          <t>A 13047-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45754</v>
+        <v>44272.29149305556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11782,13 +11777,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11825,14 +11815,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 41214-2023</t>
+          <t>A 62001-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45174</v>
+        <v>45654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11850,7 +11840,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>51.6</v>
+        <v>5.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11887,14 +11877,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 26230-2024</t>
+          <t>A 16714-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45468</v>
+        <v>45754</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11912,7 +11902,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11949,14 +11939,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 62069-2024</t>
+          <t>A 41214-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45656</v>
+        <v>45174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11974,7 +11964,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.4</v>
+        <v>51.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12011,14 +12001,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 8639-2025</t>
+          <t>A 26230-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45711.87692129629</v>
+        <v>45468</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12030,8 +12020,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12068,14 +12063,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 41325-2023</t>
+          <t>A 62069-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45174.65024305556</v>
+        <v>45656</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12093,7 +12088,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12130,14 +12125,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 22063-2021</t>
+          <t>A 8639-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44323</v>
+        <v>45711.87692129629</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12150,7 +12145,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12187,14 +12182,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 47894-2023</t>
+          <t>A 41325-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45204</v>
+        <v>45174.65024305556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12212,7 +12207,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12249,14 +12244,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 11981-2021</t>
+          <t>A 22063-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44266</v>
+        <v>44323</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12269,7 +12264,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12306,14 +12301,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 57792-2022</t>
+          <t>A 47894-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44897.66182870371</v>
+        <v>45204</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12325,8 +12320,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12363,14 +12363,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 39025-2023</t>
+          <t>A 11981-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45163</v>
+        <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12382,13 +12382,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12425,14 +12420,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 13288-2024</t>
+          <t>A 57792-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45386</v>
+        <v>44897.66182870371</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12444,13 +12439,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12487,14 +12477,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 28467-2022</t>
+          <t>A 39025-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44747.74592592593</v>
+        <v>45163</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12506,8 +12496,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12544,14 +12539,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 23808-2021</t>
+          <t>A 13288-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44335.37674768519</v>
+        <v>45386</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12563,8 +12558,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12601,14 +12601,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 53353-2024</t>
+          <t>A 28467-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45614.45392361111</v>
+        <v>44747.74592592593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12658,14 +12658,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 16645-2025</t>
+          <t>A 23808-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45754</v>
+        <v>44335.37674768519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12677,13 +12677,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12720,14 +12715,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 23279-2024</t>
+          <t>A 53353-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45453</v>
+        <v>45614.45392361111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12740,7 +12735,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12777,14 +12772,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 35370-2023</t>
+          <t>A 16645-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45146</v>
+        <v>45754</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12798,11 +12793,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12839,14 +12834,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 14304-2024</t>
+          <t>A 23279-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45393.66023148148</v>
+        <v>45453</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12896,14 +12891,14 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 53912-2024</t>
+          <t>A 35370-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45615.72717592592</v>
+        <v>45146</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12915,8 +12910,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -653,14 +653,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 23023-2025</t>
+          <t>A 43407-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45790</v>
+        <v>44834</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -712,398 +712,398 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Orre</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 43407-2022 artfynd.xlsx", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 43407-2022 karta.png", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 43407-2022 FSC-klagomål.docx", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 43407-2022 FSC-klagomål mail.docx", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 43407-2022 tillsynsbegäran.docx", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 43407-2022 tillsynsbegäran mail.docx", "A 43407-2022")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/fåglar/A 43407-2022 prioriterade fågelarter.docx", "A 43407-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 16786-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 23023-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45790</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 23023-2025 artfynd.xlsx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 23023-2025 karta.png", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 23023-2025 FSC-klagomål.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 23023-2025 FSC-klagomål mail.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 23023-2025 tillsynsbegäran.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 23023-2025 tillsynsbegäran mail.docx", "A 23023-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 43407-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44834</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 33518-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45841.53921296296</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Orre</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 43407-2022 artfynd.xlsx", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 43407-2022 karta.png", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 43407-2022 FSC-klagomål.docx", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 43407-2022 FSC-klagomål mail.docx", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 43407-2022 tillsynsbegäran.docx", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 43407-2022 tillsynsbegäran mail.docx", "A 43407-2022")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/fåglar/A 43407-2022 prioriterade fågelarter.docx", "A 43407-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 33518-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45841.53921296296</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 33518-2025 artfynd.xlsx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 33518-2025 karta.png", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 33518-2025 FSC-klagomål.docx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 33518-2025 FSC-klagomål mail.docx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 33518-2025 tillsynsbegäran.docx", "A 33518-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 33518-2025 tillsynsbegäran mail.docx", "A 33518-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 2540-2026</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>46037.45690972222</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Utter</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 2540-2026 artfynd.xlsx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 2540-2026 karta.png", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 2540-2026 FSC-klagomål.docx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 2540-2026 FSC-klagomål mail.docx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 2540-2026 tillsynsbegäran.docx", "A 2540-2026")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 2540-2026 tillsynsbegäran mail.docx", "A 2540-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 16786-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45754</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45197.46416666666</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44797</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44490.4119212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44382</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44335.38469907407</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>44335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44512</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44797.39523148148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>44868</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>44788</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44311</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44468</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44841.37923611111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44383</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44512</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44484.52479166666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44841.35112268518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44335.38092592593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44426.31266203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2367,14 +2367,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22935-2023</t>
+          <t>A 4998-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45072.60810185185</v>
+        <v>45329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2424,14 +2424,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 70761-2021</t>
+          <t>A 4744-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44536</v>
+        <v>45688</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2481,14 +2481,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 5881-2025</t>
+          <t>A 14356-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45695</v>
+        <v>44279.35021990741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2538,14 +2538,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 3455-2025</t>
+          <t>A 38301-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45680.47734953704</v>
+        <v>45883.46224537037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2595,14 +2595,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 14304-2024</t>
+          <t>A 53912-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45393.66023148148</v>
+        <v>45615.72717592592</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2652,14 +2652,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 53912-2024</t>
+          <t>A 33120-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45615.72717592592</v>
+        <v>45840.49384259259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2671,8 +2671,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2709,14 +2714,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47728-2023</t>
+          <t>A 3452-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45203.68487268518</v>
+        <v>45680.4753125</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2766,14 +2771,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 55576-2025</t>
+          <t>A 35370-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45971.66637731482</v>
+        <v>45146</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,11 +2792,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2828,14 +2833,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33120-2025</t>
+          <t>A 54221-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45840.49384259259</v>
+        <v>45616</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2847,13 +2852,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2890,14 +2890,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 22341-2025</t>
+          <t>A 39625-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45786</v>
+        <v>45890.57746527778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2909,13 +2909,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>34</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2952,14 +2947,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 55818-2025</t>
+          <t>A 39623-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45972</v>
+        <v>45890.57476851852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2972,7 +2967,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3009,14 +3004,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 49596-2024</t>
+          <t>A 14304-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45596.55828703703</v>
+        <v>45393.66023148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,13 +3023,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3071,14 +3061,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12023-2021</t>
+          <t>A 22341-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44266.45105324074</v>
+        <v>45786</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,8 +3080,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.4</v>
+        <v>34</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3128,14 +3123,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 1431-2025</t>
+          <t>A 26230-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45669</v>
+        <v>45468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,8 +3142,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3185,14 +3185,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 21111-2025</t>
+          <t>A 49596-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45777</v>
+        <v>45596.55828703703</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,8 +3204,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3242,14 +3247,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 54221-2024</t>
+          <t>A 48591-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45616</v>
+        <v>45593.43625</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3267,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3299,14 +3304,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14605-2024</t>
+          <t>A 33806-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45396</v>
+        <v>45520.60313657407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,13 +3323,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>9.6</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3361,14 +3361,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 213-2025</t>
+          <t>A 21111-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45660</v>
+        <v>45777</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3418,14 +3418,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 39625-2025</t>
+          <t>A 14605-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45890.57746527778</v>
+        <v>45396</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3437,8 +3437,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>9.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3475,14 +3480,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 39623-2025</t>
+          <t>A 42015-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45890.57476851852</v>
+        <v>45903.57980324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3500,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>8.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3532,14 +3537,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 56525-2025</t>
+          <t>A 38176-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45975.46569444444</v>
+        <v>45545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,13 +3556,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3594,14 +3594,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 56206-2025</t>
+          <t>A 213-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45974.47096064815</v>
+        <v>45660</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3613,13 +3613,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3656,14 +3651,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 24773-2025</t>
+          <t>A 48309-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45799.40483796296</v>
+        <v>44450</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3675,13 +3670,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3718,14 +3708,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2352-2023</t>
+          <t>A 1840-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44938</v>
+        <v>44938.67890046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,8 +3727,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3775,14 +3770,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56303-2025</t>
+          <t>A 53205-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45974.60728009259</v>
+        <v>45958.5859375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3800,7 +3795,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>10.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3837,14 +3832,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 62085-2024</t>
+          <t>A 52908-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45656</v>
+        <v>45957</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,13 +3851,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3899,14 +3889,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 4744-2025</t>
+          <t>A 52905-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45688</v>
+        <v>45957</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3919,7 +3909,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3956,14 +3946,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12839-2025</t>
+          <t>A 53217-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45733.64366898148</v>
+        <v>45958.59952546296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3971,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>18.2</v>
+        <v>10.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4025,7 +4015,7 @@
         <v>45799.37452546296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4080,14 +4070,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24826-2025</t>
+          <t>A 25001-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45799.45670138889</v>
+        <v>45799.61962962963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4095,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.8</v>
+        <v>21.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4142,14 +4132,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24820-2025</t>
+          <t>A 24773-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45799.45188657408</v>
+        <v>45799.40483796296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4167,7 +4157,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4204,14 +4194,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24836-2025</t>
+          <t>A 24820-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45799.46241898148</v>
+        <v>45799.45188657408</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4219,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4266,14 +4256,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 25001-2025</t>
+          <t>A 53317-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45799.61962962963</v>
+        <v>45959.35413194444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4291,7 +4281,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>21.6</v>
+        <v>6.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4328,14 +4318,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25727-2025</t>
+          <t>A 52922-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45803.71775462963</v>
+        <v>45957</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4347,13 +4337,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4390,14 +4375,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 25723-2025</t>
+          <t>A 53990-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45803.7121412037</v>
+        <v>45961.57934027778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,11 +4396,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4452,14 +4437,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25720-2025</t>
+          <t>A 24836-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45803.70553240741</v>
+        <v>45799.46241898148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4477,7 +4462,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4514,14 +4499,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20085-2025</t>
+          <t>A 24826-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45772</v>
+        <v>45799.45670138889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4539,7 +4524,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4576,14 +4561,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 7948-2024</t>
+          <t>A 25720-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45350</v>
+        <v>45803.70553240741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,11 +4582,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4638,14 +4623,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42015-2025</t>
+          <t>A 25723-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45903.57980324074</v>
+        <v>45803.7121412037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4657,8 +4642,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4695,14 +4685,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38176-2024</t>
+          <t>A 44248-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45545</v>
+        <v>45915.69100694444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4714,8 +4704,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4752,14 +4747,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57765-2025</t>
+          <t>A 23279-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45981.55736111111</v>
+        <v>45453</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4771,13 +4766,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>19.8</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4814,14 +4804,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27388-2025</t>
+          <t>A 25727-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45812.67489583333</v>
+        <v>45803.71775462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4839,7 +4829,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.4</v>
+        <v>3.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4876,14 +4866,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 4494-2025</t>
+          <t>A 55234-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45686</v>
+        <v>45968.61171296296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,8 +4885,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4933,14 +4928,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28017-2025</t>
+          <t>A 55576-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45817.61508101852</v>
+        <v>45971.66637731482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4958,7 +4953,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4995,14 +4990,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 27092-2025</t>
+          <t>A 55818-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45811</v>
+        <v>45972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5015,7 +5010,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5052,14 +5047,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44248-2025</t>
+          <t>A 45479-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45915.69100694444</v>
+        <v>45922.53091435185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5077,7 +5072,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5114,14 +5109,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28255-2025</t>
+          <t>A 45260-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45818.54848379629</v>
+        <v>45576</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,8 +5128,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>16.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5171,14 +5171,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58451-2025</t>
+          <t>A 56206-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45985.62826388889</v>
+        <v>45974.47096064815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>14.1</v>
+        <v>4.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5233,14 +5233,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 54190-2023</t>
+          <t>A 2037-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45232</v>
+        <v>44939.58351851852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,8 +5252,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5290,14 +5295,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 19324-2022</t>
+          <t>A 27388-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44692.5990625</v>
+        <v>45812.67489583333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,8 +5314,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>8.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5347,14 +5357,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45479-2025</t>
+          <t>A 46612-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45922.53091435185</v>
+        <v>45926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5368,11 +5378,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.3</v>
+        <v>11.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5409,14 +5419,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41479-2024</t>
+          <t>A 57792-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45560</v>
+        <v>44897.66182870371</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,13 +5438,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5471,14 +5476,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29002-2023</t>
+          <t>A 56303-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45104.64762731481</v>
+        <v>45974.60728009259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5490,8 +5495,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>10.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5528,14 +5538,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46860-2025</t>
+          <t>A 28017-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45929</v>
+        <v>45817.61508101852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5547,8 +5557,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>7.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5585,14 +5600,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46612-2025</t>
+          <t>A 28255-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45926</v>
+        <v>45818.54848379629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5604,13 +5619,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>11.1</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5647,14 +5657,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 15152-2022</t>
+          <t>A 46860-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44658.46916666667</v>
+        <v>45929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5667,7 +5677,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5704,14 +5714,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 47732-2024</t>
+          <t>A 27092-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45588.50700231481</v>
+        <v>45811</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5724,7 +5734,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5761,14 +5771,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6856-2025</t>
+          <t>A 56525-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45700</v>
+        <v>45975.46569444444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5782,11 +5792,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5823,14 +5833,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 12482-2025</t>
+          <t>A 54190-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45730</v>
+        <v>45232</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5842,13 +5852,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5885,14 +5890,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26189-2024</t>
+          <t>A 47713-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45468</v>
+        <v>45588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5904,13 +5909,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5947,14 +5947,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 36697-2023</t>
+          <t>A 47732-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45153.63313657408</v>
+        <v>45588.50700231481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,13 +5966,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6009,14 +6004,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25760-2025</t>
+          <t>A 57765-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45804</v>
+        <v>45981.55736111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6028,8 +6023,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>9.4</v>
+        <v>19.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6066,14 +6066,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 15442-2024</t>
+          <t>A 58451-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45401.42217592592</v>
+        <v>45985.62826388889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6085,8 +6085,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.7</v>
+        <v>14.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6123,14 +6128,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35430-2025</t>
+          <t>A 53388-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45855.4414699074</v>
+        <v>45614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6143,7 +6148,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6180,14 +6185,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35427-2025</t>
+          <t>A 39998-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45855</v>
+        <v>45168</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6200,7 +6205,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6237,14 +6242,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 35431-2025</t>
+          <t>A 11981-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45855.44628472222</v>
+        <v>44266</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6257,7 +6262,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6294,14 +6299,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8613-2024</t>
+          <t>A 12023-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45355</v>
+        <v>44266.45105324074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,13 +6318,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6356,14 +6356,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52834-2023</t>
+          <t>A 8639-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45226.41116898148</v>
+        <v>45711.87692129629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,13 +6375,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6418,14 +6413,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 20725-2023</t>
+          <t>A 26189-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45058.47887731482</v>
+        <v>45468</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6443,7 +6438,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>14.9</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6480,14 +6475,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13795-2023</t>
+          <t>A 25760-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45007</v>
+        <v>45804</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,13 +6494,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>9.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6542,14 +6532,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52908-2025</t>
+          <t>A 7948-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45957</v>
+        <v>45350</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6561,8 +6551,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6599,14 +6594,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52905-2025</t>
+          <t>A 60315-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45957</v>
+        <v>45994.70884259259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6619,7 +6614,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6656,14 +6651,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 53217-2025</t>
+          <t>A 35430-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45958.59952546296</v>
+        <v>45855.4414699074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,13 +6670,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>10.1</v>
+        <v>2.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6718,14 +6708,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 53205-2025</t>
+          <t>A 8613-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45958.5859375</v>
+        <v>45355</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6739,11 +6729,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>9.699999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6780,14 +6770,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26201-2024</t>
+          <t>A 35431-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45468</v>
+        <v>45855.44628472222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6799,13 +6789,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>25.4</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6842,14 +6827,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 49101-2024</t>
+          <t>A 35427-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45594.64802083333</v>
+        <v>45855</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6861,13 +6846,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>14.1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6904,14 +6884,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53317-2025</t>
+          <t>A 28466-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45959.35413194444</v>
+        <v>44747.74182870371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6923,13 +6903,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6966,14 +6941,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 33273-2025</t>
+          <t>A 20725-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45840.68797453704</v>
+        <v>45058.47887731482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6991,7 +6966,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>14.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7035,7 +7010,7 @@
         <v>45840.52465277778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7090,14 +7065,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 57209-2022</t>
+          <t>A 60511-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44895.64663194444</v>
+        <v>45995.63336805555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7109,13 +7084,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7152,14 +7122,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 7072-2023</t>
+          <t>A 2525-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44969.95028935185</v>
+        <v>45674.60668981481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7171,13 +7141,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7214,14 +7179,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 53990-2025</t>
+          <t>A 33273-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45961.57934027778</v>
+        <v>45840.68797453704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7235,11 +7200,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7276,14 +7241,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 37145-2025</t>
+          <t>A 487-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45875.56288194445</v>
+        <v>44930.29883101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7296,7 +7261,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7333,14 +7298,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 52922-2025</t>
+          <t>A 49101-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45957</v>
+        <v>45594.64802083333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7352,8 +7317,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>14.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7390,14 +7360,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 11290-2025</t>
+          <t>A 47894-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45726.4278587963</v>
+        <v>45204</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7409,8 +7379,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7447,14 +7422,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 30266-2025</t>
+          <t>A 37145-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45827</v>
+        <v>45875.56288194445</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7467,7 +7442,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7504,14 +7479,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 37716-2025</t>
+          <t>A 30266-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45881</v>
+        <v>45827</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7524,7 +7499,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.5</v>
+        <v>7.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7561,14 +7536,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 55234-2025</t>
+          <t>A 61123-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45968.61171296296</v>
+        <v>46000.46875</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7582,11 +7557,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7623,14 +7598,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 38301-2025</t>
+          <t>A 37716-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45883.46224537037</v>
+        <v>45881</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7643,7 +7618,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7680,14 +7655,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 3452-2025</t>
+          <t>A 61149-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45680.4753125</v>
+        <v>46000.53810185185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7699,8 +7674,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7737,14 +7717,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 13636-2024</t>
+          <t>A 62085-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45390</v>
+        <v>45656</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7756,8 +7736,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7794,14 +7779,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 39998-2023</t>
+          <t>A 61328-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45168</v>
+        <v>46001.32983796296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7813,8 +7798,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>4.2</v>
+        <v>8.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7851,14 +7841,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45260-2024</t>
+          <t>A 45154-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45576</v>
+        <v>45191</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7870,13 +7860,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>16.3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7913,14 +7898,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 54738-2023</t>
+          <t>A 227-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45236</v>
+        <v>45660</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7932,13 +7917,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7975,14 +7955,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 57981-2022</t>
+          <t>A 4868-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44900.47692129629</v>
+        <v>46048.6441550926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7994,13 +7974,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>10.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8037,14 +8012,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 60315-2025</t>
+          <t>A 23808-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45994.70884259259</v>
+        <v>44335.37674768519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8057,7 +8032,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8094,14 +8069,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 60511-2025</t>
+          <t>A 4455-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45995.63336805555</v>
+        <v>46045.64204861111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8114,7 +8089,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8151,14 +8126,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 58125-2022</t>
+          <t>A 12482-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44900.67206018518</v>
+        <v>45730</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8170,8 +8145,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8208,14 +8188,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3721-2025</t>
+          <t>A 12839-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45681</v>
+        <v>45733.64366898148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8227,8 +8207,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.4</v>
+        <v>18.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8265,14 +8250,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 25498-2023</t>
+          <t>A 61586-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45089.48630787037</v>
+        <v>46002</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8290,7 +8275,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8327,14 +8312,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 61328-2025</t>
+          <t>A 16714-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46001.32983796296</v>
+        <v>45754</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8352,7 +8337,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.9</v>
+        <v>5.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8389,14 +8374,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 61149-2025</t>
+          <t>A 16359-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46000.53810185185</v>
+        <v>45028.72045138889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8408,13 +8393,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8451,14 +8431,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4998-2024</t>
+          <t>A 47728-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45329</v>
+        <v>45203.68487268518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8471,7 +8451,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8508,14 +8488,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61123-2025</t>
+          <t>A 63469-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46000.46875</v>
+        <v>46013.43326388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8527,13 +8507,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8570,14 +8545,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 4455-2026</t>
+          <t>A 63572-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46045.64204861111</v>
+        <v>46013.66006944444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8589,8 +8564,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8627,14 +8607,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 4868-2026</t>
+          <t>A 63472-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46048.6441550926</v>
+        <v>46013.44269675926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8647,7 +8627,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8684,14 +8664,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 28466-2022</t>
+          <t>A 1431-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44747.74182870371</v>
+        <v>45669</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8704,7 +8684,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8741,14 +8721,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 14356-2021</t>
+          <t>A 7028-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44279.35021990741</v>
+        <v>46057.67555555556</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8761,7 +8741,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8798,14 +8778,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 33806-2024</t>
+          <t>A 35350-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45520.60313657407</v>
+        <v>45854.63583333333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8817,8 +8797,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8855,14 +8840,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47713-2024</t>
+          <t>A 7444-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45588</v>
+        <v>46059.45729166667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8875,7 +8860,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8912,14 +8897,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47624-2023</t>
+          <t>A 7447-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45203.51826388889</v>
+        <v>46059.46265046296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8931,13 +8916,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8974,14 +8954,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 15997-2025</t>
+          <t>A 61129-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45749</v>
+        <v>46000.48585648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9036,14 +9016,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 12132-2025</t>
+          <t>A 59466-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45729</v>
+        <v>45989.58049768519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9061,7 +9041,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>24.9</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9098,14 +9078,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 61586-2025</t>
+          <t>A 55787-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46002</v>
+        <v>45972.64469907407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9123,7 +9103,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.2</v>
+        <v>12.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9160,14 +9140,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2037-2023</t>
+          <t>A 62987-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44939.58351851852</v>
+        <v>46009.4962037037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9181,11 +9161,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9222,14 +9202,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 63472-2025</t>
+          <t>A 12252-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46013.44269675926</v>
+        <v>45729</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,8 +9221,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>14.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9279,14 +9264,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 21929-2023</t>
+          <t>A 7427-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45068</v>
+        <v>46059.43177083333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9299,7 +9284,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9336,14 +9321,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 59449-2022</t>
+          <t>A 63080-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44907.40783564815</v>
+        <v>46009.66688657407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,8 +9340,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9393,14 +9383,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 63469-2025</t>
+          <t>A 44178-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46013.43326388889</v>
+        <v>45915.60693287037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,8 +9402,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>6.1</v>
+        <v>10.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9450,14 +9445,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 63572-2025</t>
+          <t>A 59146-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46013.66006944444</v>
+        <v>45988.52269675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9471,11 +9466,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>9.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9512,14 +9507,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 7028-2026</t>
+          <t>A 49306-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46057.67555555556</v>
+        <v>45595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,8 +9526,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9569,14 +9569,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 7444-2026</t>
+          <t>A 49580-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46059.45729166667</v>
+        <v>45939.49743055556</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,8 +9588,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9626,14 +9631,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 7447-2026</t>
+          <t>A 30587-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46059.46265046296</v>
+        <v>45112.33359953704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9646,7 +9651,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9683,14 +9688,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 45154-2023</t>
+          <t>A 25498-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45191</v>
+        <v>45089.48630787037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,8 +9707,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9740,14 +9750,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 17756-2023</t>
+          <t>A 70761-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45037.4796412037</v>
+        <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9760,7 +9770,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9797,14 +9807,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 16359-2023</t>
+          <t>A 13047-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45028.72045138889</v>
+        <v>44272.29149305556</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9817,7 +9827,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9854,14 +9864,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 7427-2026</t>
+          <t>A 36697-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46059.43177083333</v>
+        <v>45153.63313657408</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,8 +9883,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9911,14 +9926,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 35350-2025</t>
+          <t>A 29002-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45854.63583333333</v>
+        <v>45104.64762731481</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,13 +9945,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9973,14 +9983,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62987-2025</t>
+          <t>A 58586-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46009.4962037037</v>
+        <v>45635.50215277778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9994,11 +10004,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10035,14 +10045,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 61129-2025</t>
+          <t>A 21929-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46000.48585648148</v>
+        <v>45068</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10054,13 +10064,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>2.5</v>
+        <v>6.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10097,14 +10102,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59146-2025</t>
+          <t>A 15442-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45988.52269675926</v>
+        <v>45401.42217592592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10116,13 +10121,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>9.9</v>
+        <v>1.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10159,14 +10159,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 55787-2025</t>
+          <t>A 45271-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45972.64469907407</v>
+        <v>45576</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10180,11 +10180,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>12.9</v>
+        <v>11</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10221,14 +10221,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 59466-2025</t>
+          <t>A 12824-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45989.58049768519</v>
+        <v>45733</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10240,13 +10240,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10283,14 +10278,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 49580-2025</t>
+          <t>A 6856-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45939.49743055556</v>
+        <v>45700</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10304,11 +10299,11 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10345,14 +10340,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 63080-2025</t>
+          <t>A 3721-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46009.66688657407</v>
+        <v>45681</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,13 +10359,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10407,14 +10397,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 12252-2025</t>
+          <t>A 22935-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45729</v>
+        <v>45072.60810185185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10426,13 +10416,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>14.5</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10469,14 +10454,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 44178-2025</t>
+          <t>A 53353-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45915.60693287037</v>
+        <v>45614.45392361111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10488,13 +10473,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>10.6</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10531,14 +10511,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 53202-2023</t>
+          <t>A 49311-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45229</v>
+        <v>45595</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10550,8 +10530,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10588,14 +10573,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 49306-2024</t>
+          <t>A 12132-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45595</v>
+        <v>45729</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10598,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.4</v>
+        <v>24.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10650,14 +10635,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 21942-2024</t>
+          <t>A 47624-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45443</v>
+        <v>45203.51826388889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10669,8 +10654,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10707,14 +10697,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58586-2024</t>
+          <t>A 8269-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45635.50215277778</v>
+        <v>45708</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10726,13 +10716,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10769,14 +10754,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 12819-2025</t>
+          <t>A 41479-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45733</v>
+        <v>45560</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10788,8 +10773,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10826,14 +10816,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 45271-2024</t>
+          <t>A 3455-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45576</v>
+        <v>45680.47734953704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10845,13 +10835,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10888,14 +10873,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 2342-2023</t>
+          <t>A 4494-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44938</v>
+        <v>45686</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10908,7 +10893,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10945,14 +10930,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2363-2023</t>
+          <t>A 54738-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44938</v>
+        <v>45236</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10964,8 +10949,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11002,14 +10992,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 487-2023</t>
+          <t>A 41325-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44930.29883101852</v>
+        <v>45174.65024305556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11021,8 +11011,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>7.3</v>
+        <v>3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11059,14 +11054,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 12824-2025</t>
+          <t>A 5881-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45733</v>
+        <v>45695</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11079,7 +11074,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11116,14 +11111,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1840-2023</t>
+          <t>A 16645-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44938.67890046296</v>
+        <v>45754</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11137,11 +11132,11 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11178,14 +11173,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 227-2025</t>
+          <t>A 53202-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45660</v>
+        <v>45229</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11198,7 +11193,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.3</v>
+        <v>7.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11235,14 +11230,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 48591-2024</t>
+          <t>A 26201-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45593.43625</v>
+        <v>45468</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11254,8 +11249,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>3.4</v>
+        <v>25.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11292,14 +11292,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 2525-2025</t>
+          <t>A 11290-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45674.60668981481</v>
+        <v>45726.4278587963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11349,14 +11349,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 30587-2023</t>
+          <t>A 52834-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45112.33359953704</v>
+        <v>45226.41116898148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11368,8 +11368,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11406,14 +11411,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 53388-2024</t>
+          <t>A 11452-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45614</v>
+        <v>45372</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11425,8 +11430,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11463,14 +11473,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 48309-2021</t>
+          <t>A 15997-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44450</v>
+        <v>45749</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11482,8 +11492,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11520,14 +11535,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 11452-2024</t>
+          <t>A 17756-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45372</v>
+        <v>45037.4796412037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11539,13 +11554,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>4.6</v>
+        <v>8.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11582,14 +11592,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 49311-2024</t>
+          <t>A 28467-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45595</v>
+        <v>44747.74592592593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11601,13 +11611,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>7.8</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11644,14 +11649,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 24846-2022</t>
+          <t>A 7072-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44728</v>
+        <v>44969.95028935185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,8 +11668,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11701,14 +11711,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 8269-2025</t>
+          <t>A 57981-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45708</v>
+        <v>44900.47692129629</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,8 +11730,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11758,14 +11773,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 13047-2021</t>
+          <t>A 12819-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44272.29149305556</v>
+        <v>45733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11793,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11815,14 +11830,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 62001-2024</t>
+          <t>A 24846-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45654</v>
+        <v>44728</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,13 +11849,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11877,14 +11887,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 16714-2025</t>
+          <t>A 2342-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45754</v>
+        <v>44938</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11896,13 +11906,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11939,14 +11944,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 41214-2023</t>
+          <t>A 2363-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45174</v>
+        <v>44938</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11958,13 +11963,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>51.6</v>
+        <v>1.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12001,14 +12001,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 26230-2024</t>
+          <t>A 57209-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45468</v>
+        <v>44895.64663194444</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12022,11 +12022,11 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12063,14 +12063,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 62069-2024</t>
+          <t>A 13795-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45656</v>
+        <v>45007</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12084,11 +12084,11 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12125,14 +12125,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 8639-2025</t>
+          <t>A 19324-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45711.87692129629</v>
+        <v>44692.5990625</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12182,14 +12182,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 41325-2023</t>
+          <t>A 58125-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45174.65024305556</v>
+        <v>44900.67206018518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12201,13 +12201,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12244,14 +12239,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 22063-2021</t>
+          <t>A 59449-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44323</v>
+        <v>44907.40783564815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12264,7 +12259,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12301,14 +12296,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 47894-2023</t>
+          <t>A 13636-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45204</v>
+        <v>45390</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12320,13 +12315,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12363,14 +12353,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 11981-2021</t>
+          <t>A 20085-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44266</v>
+        <v>45772</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12382,8 +12372,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12420,14 +12415,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 57792-2022</t>
+          <t>A 15152-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44897.66182870371</v>
+        <v>44658.46916666667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12440,7 +12435,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12477,14 +12472,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 39025-2023</t>
+          <t>A 2352-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45163</v>
+        <v>44938</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12496,13 +12491,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12539,14 +12529,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 13288-2024</t>
+          <t>A 41214-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45386</v>
+        <v>45174</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,11 +12550,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>51.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12601,14 +12591,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 28467-2022</t>
+          <t>A 39025-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44747.74592592593</v>
+        <v>45163</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12620,8 +12610,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12658,14 +12653,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 23808-2021</t>
+          <t>A 22063-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44335.37674768519</v>
+        <v>44323</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12678,7 +12673,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12715,14 +12710,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 53353-2024</t>
+          <t>A 21942-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45614.45392361111</v>
+        <v>45443</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12735,7 +12730,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12772,14 +12767,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 16645-2025</t>
+          <t>A 62001-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45754</v>
+        <v>45654</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12797,7 +12792,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12834,14 +12829,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 23279-2024</t>
+          <t>A 62069-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45453</v>
+        <v>45656</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12853,8 +12848,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12891,14 +12891,14 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 35370-2023</t>
+          <t>A 13288-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45146</v>
+        <v>45386</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44834</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,14 +747,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 16786-2025</t>
+          <t>A 33518-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45754</v>
+        <v>45841.53921296296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -806,389 +806,389 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Skogsklocka</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 33518-2025 artfynd.xlsx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 33518-2025 karta.png", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 33518-2025 FSC-klagomål.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 33518-2025 FSC-klagomål mail.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 33518-2025 tillsynsbegäran.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 33518-2025 tillsynsbegäran mail.docx", "A 33518-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 2540-2026</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46037.45690972222</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Utter</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 2540-2026 artfynd.xlsx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 2540-2026 karta.png", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 2540-2026 FSC-klagomål.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 2540-2026 FSC-klagomål mail.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 2540-2026 tillsynsbegäran.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 2540-2026 tillsynsbegäran mail.docx", "A 2540-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 16786-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 16786-2025 artfynd.xlsx", "A 16786-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 16786-2025 karta.png", "A 16786-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 16786-2025 FSC-klagomål.docx", "A 16786-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 16786-2025 FSC-klagomål mail.docx", "A 16786-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 16786-2025 tillsynsbegäran.docx", "A 16786-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 16786-2025 tillsynsbegäran mail.docx", "A 16786-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 46376-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45197.46416666666</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 46376-2023 artfynd.xlsx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 46376-2023 karta.png", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 46376-2023 FSC-klagomål.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 46376-2023 FSC-klagomål mail.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 46376-2023 tillsynsbegäran.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 46376-2023 tillsynsbegäran mail.docx", "A 46376-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 23023-2025</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45790</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G8" t="n">
         <v>2.3</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 23023-2025 artfynd.xlsx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 23023-2025 karta.png", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 23023-2025 FSC-klagomål.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 23023-2025 FSC-klagomål mail.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 23023-2025 tillsynsbegäran.docx", "A 23023-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 23023-2025 tillsynsbegäran mail.docx", "A 23023-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 33518-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45841.53921296296</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 33518-2025 artfynd.xlsx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 33518-2025 karta.png", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 33518-2025 FSC-klagomål.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 33518-2025 FSC-klagomål mail.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 33518-2025 tillsynsbegäran.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 33518-2025 tillsynsbegäran mail.docx", "A 33518-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 2540-2026</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>46037.45690972222</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Utter</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 2540-2026 artfynd.xlsx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 2540-2026 karta.png", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 2540-2026 FSC-klagomål.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 2540-2026 FSC-klagomål mail.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 2540-2026 tillsynsbegäran.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 2540-2026 tillsynsbegäran mail.docx", "A 2540-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 46376-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45197.46416666666</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/artfynd/A 46376-2023 artfynd.xlsx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/kartor/A 46376-2023 karta.png", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomål/A 46376-2023 FSC-klagomål.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/klagomålsmail/A 46376-2023 FSC-klagomål mail.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsyn/A 46376-2023 tillsynsbegäran.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1760/tillsynsmail/A 46376-2023 tillsynsbegäran mail.docx", "A 46376-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44797</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44490.4119212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44382</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44335.38469907407</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>44335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44512</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44797.39523148148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>44868</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>44788</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44311</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44468</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44841.37923611111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44383</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44512</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44484.52479166666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44841.35112268518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44335.38092592593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44426.31266203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2367,14 +2367,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 4998-2024</t>
+          <t>A 70761-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45329</v>
+        <v>44536</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2424,14 +2424,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 4744-2025</t>
+          <t>A 5881-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2481,14 +2481,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14356-2021</t>
+          <t>A 22935-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44279.35021990741</v>
+        <v>45072.60810185185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2538,14 +2538,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 38301-2025</t>
+          <t>A 3455-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45883.46224537037</v>
+        <v>45680.47734953704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2595,14 +2595,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 53912-2024</t>
+          <t>A 47728-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45615.72717592592</v>
+        <v>45203.68487268518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2652,14 +2652,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33120-2025</t>
+          <t>A 12023-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45840.49384259259</v>
+        <v>44266.45105324074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2671,13 +2671,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2714,14 +2709,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 3452-2025</t>
+          <t>A 1431-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45680.4753125</v>
+        <v>45669</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2734,7 +2729,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2771,14 +2766,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 35370-2023</t>
+          <t>A 2352-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45146</v>
+        <v>44938</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2790,13 +2785,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2833,14 +2823,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 54221-2024</t>
+          <t>A 62085-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45616</v>
+        <v>45656</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2852,8 +2842,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2890,14 +2885,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 39625-2025</t>
+          <t>A 4744-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45890.57746527778</v>
+        <v>45688</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2910,7 +2905,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2947,14 +2942,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 39623-2025</t>
+          <t>A 12839-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45890.57476851852</v>
+        <v>45733.64366898148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2966,8 +2961,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>18.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3004,14 +3004,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 14304-2024</t>
+          <t>A 7948-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45393.66023148148</v>
+        <v>45350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3023,8 +3023,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3061,14 +3066,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 22341-2025</t>
+          <t>A 20085-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45786</v>
+        <v>45772</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3086,7 +3091,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>34</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3123,14 +3128,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 26230-2024</t>
+          <t>A 38176-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45468</v>
+        <v>45545</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,13 +3147,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3185,14 +3185,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 49596-2024</t>
+          <t>A 4494-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45596.55828703703</v>
+        <v>45686</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,13 +3204,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3247,14 +3242,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48591-2024</t>
+          <t>A 54190-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45593.43625</v>
+        <v>45232</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3267,7 +3262,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3304,14 +3299,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33806-2024</t>
+          <t>A 19324-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45520.60313657407</v>
+        <v>44692.5990625</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3319,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3361,14 +3356,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21111-2025</t>
+          <t>A 28255-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45777</v>
+        <v>45818.54848379629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3376,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3418,14 +3413,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 14605-2024</t>
+          <t>A 33120-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45396</v>
+        <v>45840.49384259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3443,7 +3438,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>9.6</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3480,14 +3475,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 42015-2025</t>
+          <t>A 41479-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45903.57980324074</v>
+        <v>45560</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3499,8 +3494,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3537,14 +3537,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38176-2024</t>
+          <t>A 29002-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45545</v>
+        <v>45104.64762731481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3594,14 +3594,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 213-2025</t>
+          <t>A 15152-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45660</v>
+        <v>44658.46916666667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3651,14 +3651,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 48309-2021</t>
+          <t>A 47732-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44450</v>
+        <v>45588.50700231481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3708,14 +3708,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 1840-2023</t>
+          <t>A 54221-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44938.67890046296</v>
+        <v>45616</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3727,13 +3727,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3770,14 +3765,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 53205-2025</t>
+          <t>A 39625-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45958.5859375</v>
+        <v>45890.57746527778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3789,13 +3784,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>9.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3832,14 +3822,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 52908-2025</t>
+          <t>A 39623-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45957</v>
+        <v>45890.57476851852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3852,7 +3842,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3889,14 +3879,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 52905-2025</t>
+          <t>A 6856-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45957</v>
+        <v>45700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,8 +3898,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3946,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 53217-2025</t>
+          <t>A 12482-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45958.59952546296</v>
+        <v>45730</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3971,7 +3966,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>10.1</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4008,14 +4003,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 24755-2025</t>
+          <t>A 36697-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45799.37452546296</v>
+        <v>45153.63313657408</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4029,11 +4024,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4070,14 +4065,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 25001-2025</t>
+          <t>A 42015-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45799.61962962963</v>
+        <v>45903.57980324074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4089,13 +4084,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>21.6</v>
+        <v>8.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4132,14 +4122,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24773-2025</t>
+          <t>A 15442-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45799.40483796296</v>
+        <v>45401.42217592592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4149,11 +4139,6 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -4194,14 +4179,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24820-2025</t>
+          <t>A 52834-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45799.45188657408</v>
+        <v>45226.41116898148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4219,7 +4204,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4256,14 +4241,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53317-2025</t>
+          <t>A 20725-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45959.35413194444</v>
+        <v>45058.47887731482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4281,7 +4266,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.8</v>
+        <v>14.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4318,14 +4303,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52922-2025</t>
+          <t>A 26189-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45957</v>
+        <v>45468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4337,8 +4322,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4375,14 +4365,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53990-2025</t>
+          <t>A 44248-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45961.57934027778</v>
+        <v>45915.69100694444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4396,11 +4386,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4437,14 +4427,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24836-2025</t>
+          <t>A 13795-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45799.46241898148</v>
+        <v>45007</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4458,11 +4448,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4499,14 +4489,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24826-2025</t>
+          <t>A 25760-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45799.45670138889</v>
+        <v>45804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4518,13 +4508,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>5.8</v>
+        <v>9.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4561,14 +4546,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25720-2025</t>
+          <t>A 35430-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45803.70553240741</v>
+        <v>45855.4414699074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4580,13 +4565,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4623,14 +4603,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25723-2025</t>
+          <t>A 35427-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45803.7121412037</v>
+        <v>45855</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4642,13 +4622,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4685,14 +4660,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 44248-2025</t>
+          <t>A 35431-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45915.69100694444</v>
+        <v>45855.44628472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4704,13 +4679,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4747,14 +4717,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23279-2024</t>
+          <t>A 26201-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45453</v>
+        <v>45468</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4766,8 +4736,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>25.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4804,14 +4779,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25727-2025</t>
+          <t>A 8613-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45803.71775462963</v>
+        <v>45355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,11 +4800,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4866,14 +4841,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55234-2025</t>
+          <t>A 57209-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45968.61171296296</v>
+        <v>44895.64663194444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4887,11 +4862,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4928,14 +4903,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55576-2025</t>
+          <t>A 45479-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45971.66637731482</v>
+        <v>45922.53091435185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,11 +4924,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4990,14 +4965,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 55818-2025</t>
+          <t>A 7072-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45972</v>
+        <v>44969.95028935185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5009,8 +4984,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5047,14 +5027,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 45479-2025</t>
+          <t>A 11290-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45922.53091435185</v>
+        <v>45726.4278587963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5066,13 +5046,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>6.3</v>
+        <v>4.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5109,14 +5084,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 45260-2024</t>
+          <t>A 46860-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45576</v>
+        <v>45929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,13 +5103,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>16.3</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5171,14 +5141,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 56206-2025</t>
+          <t>A 46612-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45974.47096064815</v>
+        <v>45926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5166,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>11.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5233,14 +5203,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2037-2023</t>
+          <t>A 49101-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44939.58351851852</v>
+        <v>45594.64802083333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5228,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>14.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5295,14 +5265,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 27388-2025</t>
+          <t>A 33273-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45812.67489583333</v>
+        <v>45840.68797453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5290,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8.4</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5357,14 +5327,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46612-2025</t>
+          <t>A 33143-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45926</v>
+        <v>45840.52465277778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5352,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>11.1</v>
+        <v>4.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5419,14 +5389,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57792-2022</t>
+          <t>A 37145-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44897.66182870371</v>
+        <v>45875.56288194445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5439,7 +5409,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5476,14 +5446,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56303-2025</t>
+          <t>A 13636-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45974.60728009259</v>
+        <v>45390</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,13 +5465,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>10.8</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5538,14 +5503,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28017-2025</t>
+          <t>A 30266-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45817.61508101852</v>
+        <v>45827</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5555,11 +5520,6 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>STORFORS</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -5600,14 +5560,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28255-2025</t>
+          <t>A 37716-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45818.54848379629</v>
+        <v>45881</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5580,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5657,14 +5617,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46860-2025</t>
+          <t>A 39998-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45929</v>
+        <v>45168</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5637,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5714,14 +5674,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 27092-2025</t>
+          <t>A 45260-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45811</v>
+        <v>45576</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5733,8 +5693,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>16.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5771,14 +5736,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56525-2025</t>
+          <t>A 54738-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45975.46569444444</v>
+        <v>45236</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5792,11 +5757,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5833,14 +5798,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54190-2023</t>
+          <t>A 38301-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45232</v>
+        <v>45883.46224537037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5818,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5890,14 +5855,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47713-2024</t>
+          <t>A 3452-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45588</v>
+        <v>45680.4753125</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5910,7 +5875,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5947,14 +5912,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47732-2024</t>
+          <t>A 57981-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45588.50700231481</v>
+        <v>44900.47692129629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,8 +5931,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6004,14 +5974,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 57765-2025</t>
+          <t>A 58125-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45981.55736111111</v>
+        <v>44900.67206018518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,13 +5993,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>19.8</v>
+        <v>3.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6066,14 +6031,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58451-2025</t>
+          <t>A 3721-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45985.62826388889</v>
+        <v>45681</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6085,13 +6050,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>14.1</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6128,14 +6088,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53388-2024</t>
+          <t>A 25498-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45614</v>
+        <v>45089.48630787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6147,8 +6107,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6185,14 +6150,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 39998-2023</t>
+          <t>A 4998-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45168</v>
+        <v>45329</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6205,7 +6170,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6242,14 +6207,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11981-2021</t>
+          <t>A 52908-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44266</v>
+        <v>45957</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6262,7 +6227,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6299,14 +6264,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 12023-2021</t>
+          <t>A 52905-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44266.45105324074</v>
+        <v>45957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6319,7 +6284,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6356,14 +6321,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8639-2025</t>
+          <t>A 53217-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45711.87692129629</v>
+        <v>45958.59952546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,8 +6340,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>4.1</v>
+        <v>10.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6413,14 +6383,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 26189-2024</t>
+          <t>A 53205-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45468</v>
+        <v>45958.5859375</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6438,7 +6408,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6475,14 +6445,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 25760-2025</t>
+          <t>A 53317-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45804</v>
+        <v>45959.35413194444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6494,8 +6464,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6532,14 +6507,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 7948-2024</t>
+          <t>A 28466-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45350</v>
+        <v>44747.74182870371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6551,13 +6526,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6594,14 +6564,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60315-2025</t>
+          <t>A 53990-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45994.70884259259</v>
+        <v>45961.57934027778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,8 +6583,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6651,14 +6626,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 35430-2025</t>
+          <t>A 14356-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45855.4414699074</v>
+        <v>44279.35021990741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6671,7 +6646,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.7</v>
+        <v>6.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6708,14 +6683,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 8613-2024</t>
+          <t>A 33806-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45355</v>
+        <v>45520.60313657407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6727,13 +6702,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6770,14 +6740,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35431-2025</t>
+          <t>A 47713-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45855.44628472222</v>
+        <v>45588</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6790,7 +6760,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6827,14 +6797,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 35427-2025</t>
+          <t>A 52922-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45855</v>
+        <v>45957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6847,7 +6817,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6884,14 +6854,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28466-2022</t>
+          <t>A 47624-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44747.74182870371</v>
+        <v>45203.51826388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6903,8 +6873,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6941,14 +6916,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 20725-2023</t>
+          <t>A 15997-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45058.47887731482</v>
+        <v>45749</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6966,7 +6941,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>14.9</v>
+        <v>2.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7003,14 +6978,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 33143-2025</t>
+          <t>A 55234-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45840.52465277778</v>
+        <v>45968.61171296296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7028,7 +7003,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7065,14 +7040,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60511-2025</t>
+          <t>A 55576-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45995.63336805555</v>
+        <v>45971.66637731482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7084,8 +7059,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7122,14 +7102,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 2525-2025</t>
+          <t>A 55818-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45674.60668981481</v>
+        <v>45972</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7142,7 +7122,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7179,14 +7159,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 33273-2025</t>
+          <t>A 12132-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45840.68797453704</v>
+        <v>45729</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7204,7 +7184,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>24.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7241,14 +7221,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 487-2023</t>
+          <t>A 2037-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44930.29883101852</v>
+        <v>44939.58351851852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7260,8 +7240,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7298,14 +7283,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 49101-2024</t>
+          <t>A 56525-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45594.64802083333</v>
+        <v>45975.46569444444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7319,11 +7304,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>14.1</v>
+        <v>5.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7360,14 +7345,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47894-2023</t>
+          <t>A 21929-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45204</v>
+        <v>45068</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7379,13 +7364,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7422,14 +7402,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 37145-2025</t>
+          <t>A 56206-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45875.56288194445</v>
+        <v>45974.47096064815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7441,8 +7421,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7479,14 +7464,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 30266-2025</t>
+          <t>A 59449-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45827</v>
+        <v>44907.40783564815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7499,7 +7484,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7536,14 +7521,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 61123-2025</t>
+          <t>A 56303-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46000.46875</v>
+        <v>45974.60728009259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7557,11 +7542,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>10.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7598,14 +7583,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 37716-2025</t>
+          <t>A 45154-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45881</v>
+        <v>45191</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7603,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7655,14 +7640,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61149-2025</t>
+          <t>A 17756-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46000.53810185185</v>
+        <v>45037.4796412037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7674,13 +7659,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>8.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7717,14 +7697,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 62085-2024</t>
+          <t>A 57765-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45656</v>
+        <v>45981.55736111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7742,7 +7722,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>19.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7779,14 +7759,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61328-2025</t>
+          <t>A 16359-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46001.32983796296</v>
+        <v>45028.72045138889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7798,13 +7778,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>8.9</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7841,14 +7816,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45154-2023</t>
+          <t>A 58451-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45191</v>
+        <v>45985.62826388889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7860,8 +7835,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>14.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7898,14 +7878,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 227-2025</t>
+          <t>A 53202-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45660</v>
+        <v>45229</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7918,7 +7898,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.3</v>
+        <v>7.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7955,14 +7935,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4868-2026</t>
+          <t>A 49306-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46048.6441550926</v>
+        <v>45595</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7974,8 +7954,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>10.8</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8012,14 +7997,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 23808-2021</t>
+          <t>A 21942-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44335.37674768519</v>
+        <v>45443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8017,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8069,14 +8054,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 4455-2026</t>
+          <t>A 60315-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46045.64204861111</v>
+        <v>45994.70884259259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8074,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8126,14 +8111,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 12482-2025</t>
+          <t>A 60511-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45730</v>
+        <v>45995.63336805555</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8145,13 +8130,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8188,14 +8168,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 12839-2025</t>
+          <t>A 58586-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45733.64366898148</v>
+        <v>45635.50215277778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8213,7 +8193,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>18.2</v>
+        <v>2.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8250,14 +8230,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 61586-2025</t>
+          <t>A 61328-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46002</v>
+        <v>46001.32983796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8275,7 +8255,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.2</v>
+        <v>8.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8312,14 +8292,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 16714-2025</t>
+          <t>A 61149-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45754</v>
+        <v>46000.53810185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8333,11 +8313,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8374,14 +8354,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 16359-2023</t>
+          <t>A 12819-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45028.72045138889</v>
+        <v>45733</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8394,7 +8374,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8431,14 +8411,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 47728-2023</t>
+          <t>A 61123-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45203.68487268518</v>
+        <v>46000.46875</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8450,8 +8430,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8488,14 +8473,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 63469-2025</t>
+          <t>A 4455-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46013.43326388889</v>
+        <v>46045.64204861111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8493,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8545,14 +8530,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 63572-2025</t>
+          <t>A 4868-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46013.66006944444</v>
+        <v>46048.6441550926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8564,13 +8549,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>10.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8607,14 +8587,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 63472-2025</t>
+          <t>A 45271-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46013.44269675926</v>
+        <v>45576</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8626,8 +8606,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8664,14 +8649,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 1431-2025</t>
+          <t>A 2342-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45669</v>
+        <v>44938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8669,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8721,14 +8706,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 7028-2026</t>
+          <t>A 2363-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46057.67555555556</v>
+        <v>44938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8741,7 +8726,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8778,14 +8763,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35350-2025</t>
+          <t>A 487-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45854.63583333333</v>
+        <v>44930.29883101852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8797,13 +8782,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>3.2</v>
+        <v>7.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8840,14 +8820,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 7444-2026</t>
+          <t>A 61586-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46059.45729166667</v>
+        <v>46002</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8859,8 +8839,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8897,14 +8882,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 7447-2026</t>
+          <t>A 63472-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46059.46265046296</v>
+        <v>46013.44269675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8917,7 +8902,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8954,14 +8939,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61129-2025</t>
+          <t>A 63469-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46000.48585648148</v>
+        <v>46013.43326388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8973,13 +8958,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9016,14 +8996,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 59466-2025</t>
+          <t>A 63572-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45989.58049768519</v>
+        <v>46013.66006944444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9037,11 +9017,11 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9078,14 +9058,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 55787-2025</t>
+          <t>A 12824-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45972.64469907407</v>
+        <v>45733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9097,13 +9077,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>12.9</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9140,14 +9115,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 62987-2025</t>
+          <t>A 7028-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46009.4962037037</v>
+        <v>46057.67555555556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9159,13 +9134,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9202,14 +9172,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 12252-2025</t>
+          <t>A 7444-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45729</v>
+        <v>46059.45729166667</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9221,13 +9191,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>14.5</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9264,14 +9229,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 7427-2026</t>
+          <t>A 7447-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46059.43177083333</v>
+        <v>46059.46265046296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9249,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9321,14 +9286,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 63080-2025</t>
+          <t>A 7427-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46009.66688657407</v>
+        <v>46059.43177083333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9340,13 +9305,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9383,14 +9343,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 44178-2025</t>
+          <t>A 35350-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45915.60693287037</v>
+        <v>45854.63583333333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9408,7 +9368,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>10.6</v>
+        <v>3.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9445,14 +9405,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 59146-2025</t>
+          <t>A 62987-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45988.52269675926</v>
+        <v>46009.4962037037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,11 +9426,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>9.9</v>
+        <v>0.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9507,14 +9467,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 49306-2024</t>
+          <t>A 61129-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45595</v>
+        <v>46000.48585648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9532,7 +9492,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9569,14 +9529,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 49580-2025</t>
+          <t>A 59146-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45939.49743055556</v>
+        <v>45988.52269675926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9594,7 +9554,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.3</v>
+        <v>9.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9631,14 +9591,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 30587-2023</t>
+          <t>A 55787-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45112.33359953704</v>
+        <v>45972.64469907407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9650,8 +9610,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>12.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9688,14 +9653,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 25498-2023</t>
+          <t>A 59466-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45089.48630787037</v>
+        <v>45989.58049768519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9713,7 +9678,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9750,14 +9715,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 70761-2021</t>
+          <t>A 49580-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44536</v>
+        <v>45939.49743055556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9769,8 +9734,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9807,14 +9777,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 13047-2021</t>
+          <t>A 63080-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44272.29149305556</v>
+        <v>46009.66688657407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9826,8 +9796,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9864,14 +9839,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 36697-2023</t>
+          <t>A 12252-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45153.63313657408</v>
+        <v>45729</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9885,11 +9860,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>14.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9926,14 +9901,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 29002-2023</t>
+          <t>A 44178-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45104.64762731481</v>
+        <v>45915.60693287037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,8 +9920,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>10.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9983,14 +9963,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 58586-2024</t>
+          <t>A 1840-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45635.50215277778</v>
+        <v>44938.67890046296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10004,11 +9984,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10045,14 +10025,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 21929-2023</t>
+          <t>A 227-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45068</v>
+        <v>45660</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10065,7 +10045,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10102,14 +10082,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 15442-2024</t>
+          <t>A 48591-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45401.42217592592</v>
+        <v>45593.43625</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10122,7 +10102,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10159,14 +10139,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45271-2024</t>
+          <t>A 2525-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45576</v>
+        <v>45674.60668981481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10178,13 +10158,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>11</v>
+        <v>3.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10221,14 +10196,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 12824-2025</t>
+          <t>A 30587-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45733</v>
+        <v>45112.33359953704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10241,7 +10216,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10278,14 +10253,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 6856-2025</t>
+          <t>A 53388-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45700</v>
+        <v>45614</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10297,13 +10272,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10340,14 +10310,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3721-2025</t>
+          <t>A 48309-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45681</v>
+        <v>44450</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10360,7 +10330,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10397,14 +10367,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 22935-2023</t>
+          <t>A 11452-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45072.60810185185</v>
+        <v>45372</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10416,8 +10386,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10454,14 +10429,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 53353-2024</t>
+          <t>A 49311-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45614.45392361111</v>
+        <v>45595</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,8 +10448,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>7.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10511,14 +10491,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49311-2024</t>
+          <t>A 24846-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45595</v>
+        <v>44728</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,13 +10510,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10573,14 +10548,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 12132-2025</t>
+          <t>A 8269-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45729</v>
+        <v>45708</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10592,13 +10567,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>24.9</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10635,14 +10605,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 47624-2023</t>
+          <t>A 13047-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45203.51826388889</v>
+        <v>44272.29149305556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10654,13 +10624,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10697,14 +10662,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 8269-2025</t>
+          <t>A 62001-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45708</v>
+        <v>45654</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10716,8 +10681,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10754,14 +10724,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 41479-2024</t>
+          <t>A 16714-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45560</v>
+        <v>45754</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10775,11 +10745,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10816,14 +10786,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 3455-2025</t>
+          <t>A 41214-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45680.47734953704</v>
+        <v>45174</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,8 +10805,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>51.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10873,14 +10848,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 4494-2025</t>
+          <t>A 26230-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45686</v>
+        <v>45468</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,8 +10867,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10930,14 +10910,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 54738-2023</t>
+          <t>A 62069-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45236</v>
+        <v>45656</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10951,11 +10931,11 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10992,14 +10972,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 41325-2023</t>
+          <t>A 8639-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45174.65024305556</v>
+        <v>45711.87692129629</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11011,13 +10991,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11054,14 +11029,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 5881-2025</t>
+          <t>A 41325-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45695</v>
+        <v>45174.65024305556</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11073,8 +11048,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11111,14 +11091,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 16645-2025</t>
+          <t>A 22063-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45754</v>
+        <v>44323</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11130,13 +11110,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11173,14 +11148,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53202-2023</t>
+          <t>A 47894-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45229</v>
+        <v>45204</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11192,8 +11167,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11230,14 +11210,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 26201-2024</t>
+          <t>A 11981-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45468</v>
+        <v>44266</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11249,13 +11229,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>25.4</v>
+        <v>4.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11292,14 +11267,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 11290-2025</t>
+          <t>A 57792-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45726.4278587963</v>
+        <v>44897.66182870371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11312,7 +11287,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11349,14 +11324,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 52834-2023</t>
+          <t>A 39025-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45226.41116898148</v>
+        <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11370,11 +11345,11 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11411,14 +11386,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11452-2024</t>
+          <t>A 13288-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45372</v>
+        <v>45386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11432,11 +11407,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11473,14 +11448,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 15997-2025</t>
+          <t>A 28467-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45749</v>
+        <v>44747.74592592593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,13 +11467,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11535,14 +11505,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 17756-2023</t>
+          <t>A 23808-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45037.4796412037</v>
+        <v>44335.37674768519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11555,7 +11525,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>8.1</v>
+        <v>3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11592,14 +11562,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 28467-2022</t>
+          <t>A 53353-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44747.74592592593</v>
+        <v>45614.45392361111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11612,7 +11582,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11649,14 +11619,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 7072-2023</t>
+          <t>A 16645-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44969.95028935185</v>
+        <v>45754</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11674,7 +11644,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11711,14 +11681,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 57981-2022</t>
+          <t>A 23279-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44900.47692129629</v>
+        <v>45453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11730,13 +11700,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11773,14 +11738,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 12819-2025</t>
+          <t>A 35370-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45733</v>
+        <v>45146</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11792,8 +11757,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11830,14 +11800,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 24846-2022</t>
+          <t>A 14304-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44728</v>
+        <v>45393.66023148148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11850,7 +11820,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11887,14 +11857,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2342-2023</t>
+          <t>A 53912-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44938</v>
+        <v>45615.72717592592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11907,7 +11877,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11944,14 +11914,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 2363-2023</t>
+          <t>A 22341-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44938</v>
+        <v>45786</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11963,8 +11933,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.8</v>
+        <v>34</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12001,14 +11976,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 57209-2022</t>
+          <t>A 49596-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44895.64663194444</v>
+        <v>45596.55828703703</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12022,11 +11997,11 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12063,14 +12038,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 13795-2023</t>
+          <t>A 21111-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45007</v>
+        <v>45777</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12082,13 +12057,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12125,14 +12095,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 19324-2022</t>
+          <t>A 14605-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44692.5990625</v>
+        <v>45396</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12144,8 +12114,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.8</v>
+        <v>9.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12182,14 +12157,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 58125-2022</t>
+          <t>A 213-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44900.67206018518</v>
+        <v>45660</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12202,7 +12177,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12239,14 +12214,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 59449-2022</t>
+          <t>A 24773-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44907.40783564815</v>
+        <v>45799.40483796296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12258,8 +12233,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12296,14 +12276,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 13636-2024</t>
+          <t>A 24755-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45390</v>
+        <v>45799.37452546296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12315,8 +12295,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12353,14 +12338,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 20085-2025</t>
+          <t>A 24826-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45772</v>
+        <v>45799.45670138889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12378,7 +12363,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12415,14 +12400,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 15152-2022</t>
+          <t>A 24820-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44658.46916666667</v>
+        <v>45799.45188657408</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12434,8 +12419,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12472,14 +12462,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 2352-2023</t>
+          <t>A 24836-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44938</v>
+        <v>45799.46241898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12491,8 +12481,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12529,14 +12524,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 41214-2023</t>
+          <t>A 25001-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45174</v>
+        <v>45799.61962962963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12554,7 +12549,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>51.6</v>
+        <v>21.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12591,14 +12586,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 39025-2023</t>
+          <t>A 25727-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45163</v>
+        <v>45803.71775462963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12612,11 +12607,11 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12653,14 +12648,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 22063-2021</t>
+          <t>A 25723-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44323</v>
+        <v>45803.7121412037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12672,8 +12667,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12710,14 +12710,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21942-2024</t>
+          <t>A 25720-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45443</v>
+        <v>45803.70553240741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12729,8 +12729,13 @@
           <t>STORFORS</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12767,14 +12772,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 62001-2024</t>
+          <t>A 27388-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45654</v>
+        <v>45812.67489583333</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12792,7 +12797,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.5</v>
+        <v>8.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12829,14 +12834,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 62069-2024</t>
+          <t>A 28017-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45656</v>
+        <v>45817.61508101852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12854,7 +12859,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12891,14 +12896,14 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 13288-2024</t>
+          <t>A 27092-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45386</v>
+        <v>45811</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12910,13 +12915,8 @@
           <t>STORFORS</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -575,7 +575,7 @@
         <v>44319</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44834</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45841.53921296296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>46037.45690972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45754</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45197.46416666666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>45790</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44797</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44490.4119212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44382</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44335.38469907407</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>44335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44512</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44797.39523148148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>44868</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>44788</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44311</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44468</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44841.37923611111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44383</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44512</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44484.52479166666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44841.35112268518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44335.38092592593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44426.31266203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44536</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45695</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45072.60810185185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45680.47734953704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45203.68487268518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44266.45105324074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45669</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44938</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45656</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45688</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45733.64366898148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>45350</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>45772</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>45545</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45686</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>45232</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44692.5990625</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45818.54848379629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>45840.49384259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>45560</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>45104.64762731481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>44658.46916666667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>45588.50700231481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>45616</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45890.57746527778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>45890.57476851852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45730</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>45153.63313657408</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45903.57980324074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>45401.42217592592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>45226.41116898148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>45058.47887731482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45915.69100694444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>45007</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>45804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>45855.4414699074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45855</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>45855.44628472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>45468</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>45355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44895.64663194444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45922.53091435185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>44969.95028935185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45726.4278587963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>45594.64802083333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45840.68797453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45840.52465277778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>45875.56288194445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45390</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45827</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>45881</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>45168</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>45576</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>45236</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45883.46224537037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>45680.4753125</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44900.47692129629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44900.67206018518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45681</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45089.48630787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>45329</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>45957</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>45957</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45958.59952546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45958.5859375</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>45959.35413194444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44747.74182870371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>45961.57934027778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>44279.35021990741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>45520.60313657407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45588</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45203.51826388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45749</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45968.61171296296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45971.66637731482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45972</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45729</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44939.58351851852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>45975.46569444444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>45068</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>45974.47096064815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44907.40783564815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>45974.60728009259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45191</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45037.4796412037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45981.55736111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45028.72045138889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>45985.62826388889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45229</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45595</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>45443</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>45994.70884259259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>45995.63336805555</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>45635.50215277778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>46001.32983796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>46000.53810185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>45733</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>46000.46875</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>46045.64204861111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>46048.6441550926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>45576</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>44938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44930.29883101852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>46002</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>46013.44269675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>46013.43326388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>46013.66006944444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>45733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>46057.67555555556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>46059.45729166667</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>46059.46265046296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>46059.43177083333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45854.63583333333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>46009.4962037037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>46000.48585648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>45988.52269675926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>45972.64469907407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45989.58049768519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>45939.49743055556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>46009.66688657407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>45729</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>45915.60693287037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44938.67890046296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45660</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>45593.43625</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>45674.60668981481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>45112.33359953704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>45614</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>44450</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>45372</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45595</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>44728</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>45708</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44272.29149305556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>45654</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45754</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>45174</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>45468</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>45656</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>45711.87692129629</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>45174.65024305556</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44323</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>45204</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44266</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44897.66182870371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45386</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44747.74592592593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44335.37674768519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45614.45392361111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45754</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45146</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45393.66023148148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45615.72717592592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45786</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>45596.55828703703</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45777</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45396</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>45660</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>45799.40483796296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>45799.37452546296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45799.45670138889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45799.45188657408</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>45799.46241898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>45799.61962962963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>45803.71775462963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>45803.7121412037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>45803.70553240741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45812.67489583333</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45817.61508101852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>45811</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
